--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB408C4-CA86-496E-82E8-74AD62CA5799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D7EA80-D8BE-44A4-B83C-892661A0B09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
-    <sheet name="story1 prologue" sheetId="33" r:id="rId2"/>
-    <sheet name="1-1, main" sheetId="31" r:id="rId3"/>
-    <sheet name="1-1, 1-2" sheetId="44" r:id="rId4"/>
-    <sheet name="1-1, 1-4-1" sheetId="45" r:id="rId5"/>
-    <sheet name="1-1, 1-4-2" sheetId="47" r:id="rId6"/>
-    <sheet name="1-1, 1-5" sheetId="46" r:id="rId7"/>
-    <sheet name="1-1, 2-1" sheetId="48" r:id="rId8"/>
-    <sheet name="1-1, 2-2" sheetId="49" r:id="rId9"/>
-    <sheet name="1-1, 2-3" sheetId="51" r:id="rId10"/>
-    <sheet name="1-1, 2-5" sheetId="50" r:id="rId11"/>
+    <sheet name="1-1, main" sheetId="31" r:id="rId2"/>
+    <sheet name="1-1, 1-2" sheetId="44" r:id="rId3"/>
+    <sheet name="1-1, 1-4-1" sheetId="45" r:id="rId4"/>
+    <sheet name="1-1, 1-4-2" sheetId="47" r:id="rId5"/>
+    <sheet name="1-1, 1-5" sheetId="46" r:id="rId6"/>
+    <sheet name="1-1, 2-1" sheetId="48" r:id="rId7"/>
+    <sheet name="1-1, 2-2" sheetId="49" r:id="rId8"/>
+    <sheet name="1-1, 2-3" sheetId="51" r:id="rId9"/>
+    <sheet name="1-1, 2-5" sheetId="50" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -677,633 +676,6 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{ACBC2DDB-674B-4C1D-BEAA-7A453EF34A60}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0: NONE
-1: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">대화
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (1, 2, 3)
-3: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">종료
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맵</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동할</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Scene </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - contents)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{AB592836-1EB1-4629-A47B-6E12CA8DD577}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{E572150A-6A3C-4B88-B94F-2CA58FD389EF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Default = -1
-Keep = 0 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이전</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>), (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기본</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-Action1 = 1
-…
-Option</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에서</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Left or Right </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필수</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{3109D0EB-E7EF-41B9-B51F-D96DE4CD15C6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이미</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> 사용하고 있는 구분자
-:, ()</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">- </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이템</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>획득</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수거</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모든</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타입에서</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
-v0 : v1 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>여러개</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
-v0 - Item name
-v1 - Add, Remove</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-- 1 (Script)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">0: 스킵 불가능
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>1(value) : {$value}배속
-- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
-v0, v1 (순서 무관)
-v0 - Left, Right
-v1 - Appear, Active, Inactive, Disappear
-- 컷씬
-v0, v1, v2, v3 (순서 무관)
-v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
-v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>UISU</author>
-    <author>서 의수</author>
-  </authors>
-  <commentList>
     <comment ref="C4" authorId="0" shapeId="0" xr:uid="{249C5DD8-3BD7-4B69-951E-D8B6C90582DE}">
       <text>
         <r>
@@ -1931,7 +1303,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{1504A05A-05D0-431B-99CF-0DB721DF07E9}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{7A3E1EED-C215-4FA7-9F90-AA8E83F0B375}">
       <text>
         <r>
           <rPr>
@@ -2136,7 +1508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{92994D13-A21E-40FA-ADD7-165111DAC8E1}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{89E3C28F-470A-41BA-88F6-4E543E74E3E8}">
       <text>
         <r>
           <rPr>
@@ -2159,7 +1531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9AE156F0-D1E7-4C11-BA1A-C1F0FDD986B5}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{AE5D03BC-5FE1-41E8-9B6E-D62F14DA36E5}">
       <text>
         <r>
           <rPr>
@@ -2272,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{D6A81642-FADB-43E5-B729-779C2807ECFC}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{E8C6FBAD-13EE-47EE-9DA6-EF1255DCF060}">
       <text>
         <r>
           <rPr>
@@ -2558,7 +1930,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{7A3E1EED-C215-4FA7-9F90-AA8E83F0B375}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{49C589C4-0FE3-4E24-B965-2E7D8F68FDC8}">
       <text>
         <r>
           <rPr>
@@ -2763,7 +2135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{89E3C28F-470A-41BA-88F6-4E543E74E3E8}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{9C5BDFE4-61A5-4314-A1BA-1610439C930F}">
       <text>
         <r>
           <rPr>
@@ -2786,7 +2158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{AE5D03BC-5FE1-41E8-9B6E-D62F14DA36E5}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{3F6817A1-2E5B-4E24-B73C-405EDFCB1295}">
       <text>
         <r>
           <rPr>
@@ -2899,7 +2271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{E8C6FBAD-13EE-47EE-9DA6-EF1255DCF060}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{24F93AF2-423C-4D9F-B059-8C59D240EFD6}">
       <text>
         <r>
           <rPr>
@@ -3185,7 +2557,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{49C589C4-0FE3-4E24-B965-2E7D8F68FDC8}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{025ED066-92A4-4D81-858A-670DB228D0FE}">
       <text>
         <r>
           <rPr>
@@ -3390,7 +2762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{9C5BDFE4-61A5-4314-A1BA-1610439C930F}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{73166A99-2376-492D-ADF6-23C3D6ECBEC5}">
       <text>
         <r>
           <rPr>
@@ -3413,7 +2785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{3F6817A1-2E5B-4E24-B73C-405EDFCB1295}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1B3CEDB1-42E0-46B7-9CBA-4051370D28CF}">
       <text>
         <r>
           <rPr>
@@ -3526,7 +2898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{24F93AF2-423C-4D9F-B059-8C59D240EFD6}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5F84B2BF-3822-4E6D-B090-6FBE91E6EDB7}">
       <text>
         <r>
           <rPr>
@@ -3812,7 +3184,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{025ED066-92A4-4D81-858A-670DB228D0FE}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{75FF830D-8352-449F-AF90-0B002B35FD29}">
       <text>
         <r>
           <rPr>
@@ -4017,7 +3389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{73166A99-2376-492D-ADF6-23C3D6ECBEC5}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{255A2A47-7BF9-41A4-BABC-8FE70BAF47E9}">
       <text>
         <r>
           <rPr>
@@ -4040,7 +3412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1B3CEDB1-42E0-46B7-9CBA-4051370D28CF}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{794B8B3D-369A-4897-ADDA-0298E5A059BC}">
       <text>
         <r>
           <rPr>
@@ -4153,7 +3525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5F84B2BF-3822-4E6D-B090-6FBE91E6EDB7}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{E81849FF-9FF4-424E-8492-6007DB65722A}">
       <text>
         <r>
           <rPr>
@@ -4439,7 +3811,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{75FF830D-8352-449F-AF90-0B002B35FD29}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{2ED1377B-2A4A-45AE-94AC-744F433A56EA}">
       <text>
         <r>
           <rPr>
@@ -4644,7 +4016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{255A2A47-7BF9-41A4-BABC-8FE70BAF47E9}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{49B45BE4-C19B-4877-98A9-DB1ADB59A706}">
       <text>
         <r>
           <rPr>
@@ -4667,7 +4039,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{794B8B3D-369A-4897-ADDA-0298E5A059BC}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9F130E9C-9BBC-47AA-A7D4-0D2D5A76D9FF}">
       <text>
         <r>
           <rPr>
@@ -4780,7 +4152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{E81849FF-9FF4-424E-8492-6007DB65722A}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{19465C09-40F4-4C63-840A-B66691DFF099}">
       <text>
         <r>
           <rPr>
@@ -5066,7 +4438,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{2ED1377B-2A4A-45AE-94AC-744F433A56EA}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{956ACA3F-D14D-4FCE-9C84-4B8C877ED721}">
       <text>
         <r>
           <rPr>
@@ -5271,7 +4643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{49B45BE4-C19B-4877-98A9-DB1ADB59A706}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{BF1FEDCB-6720-46EF-BB37-4420A287697A}">
       <text>
         <r>
           <rPr>
@@ -5294,7 +4666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9F130E9C-9BBC-47AA-A7D4-0D2D5A76D9FF}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{29856A92-5DBA-442B-87F0-13E200D895ED}">
       <text>
         <r>
           <rPr>
@@ -5407,7 +4779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{19465C09-40F4-4C63-840A-B66691DFF099}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{574C8155-46DA-4B59-8D9B-E9DA0CC5015F}">
       <text>
         <r>
           <rPr>
@@ -5693,7 +5065,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{956ACA3F-D14D-4FCE-9C84-4B8C877ED721}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{42374557-85EB-4A8F-90C9-D07408C73367}">
       <text>
         <r>
           <rPr>
@@ -5898,7 +5270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{BF1FEDCB-6720-46EF-BB37-4420A287697A}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{0C6AC4C8-3F4A-4DE5-9EF3-DFA7534C1A2E}">
       <text>
         <r>
           <rPr>
@@ -5921,7 +5293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{29856A92-5DBA-442B-87F0-13E200D895ED}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{4C8C9383-8887-4931-94AF-90F77566CF97}">
       <text>
         <r>
           <rPr>
@@ -6034,7 +5406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{574C8155-46DA-4B59-8D9B-E9DA0CC5015F}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{BB62D6D9-9745-4D26-A6D1-0687188A1EDB}">
       <text>
         <r>
           <rPr>
@@ -6320,7 +5692,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{42374557-85EB-4A8F-90C9-D07408C73367}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{ACBC2DDB-674B-4C1D-BEAA-7A453EF34A60}">
       <text>
         <r>
           <rPr>
@@ -6525,7 +5897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{0C6AC4C8-3F4A-4DE5-9EF3-DFA7534C1A2E}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{AB592836-1EB1-4629-A47B-6E12CA8DD577}">
       <text>
         <r>
           <rPr>
@@ -6548,7 +5920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{4C8C9383-8887-4931-94AF-90F77566CF97}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{E572150A-6A3C-4B88-B94F-2CA58FD389EF}">
       <text>
         <r>
           <rPr>
@@ -6661,7 +6033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{BB62D6D9-9745-4D26-A6D1-0687188A1EDB}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{3109D0EB-E7EF-41B9-B51F-D96DE4CD15C6}">
       <text>
         <r>
           <rPr>
@@ -6941,7 +6313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="123">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7021,10 +6393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 카메라(화면)이 암전 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아들</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7048,10 +6416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아빠?! 아빠! 불 좀 켜주세요! 무서워요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7092,34 +6456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 카메라 시점, 사진사가 손으로 머리를 짚으며 괴로워하는 기색을 보인다.</t>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 사진사가 손으로 머리를 헝클린다.</t>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 사진사가 카메라(화면)를 발견한다.</t>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 화난 기색을 보이는 사진사</t>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 사진사가 카메라(화면)으로 다가온다.</t>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 사진사가 카메라(화면)에 근접하고 사진사에 의해 화면이 휘둘린다.</t>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 카메라(화면)이 격하게 휘둘린다.</t>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 카메라(화면)은 쓰러지며 흐릿하게 누군가에게 화를 내고 있는 사진사.</t>
-  </si>
-  <si>
-    <t>(메인 필드)&gt; (컷 씬 전환): 사진사가 의자에 앉아 고개를 숙이고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(스테이지 필드) : 필드에서 TV와 상호작용 키를 누른다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7132,14 +6468,6 @@
   </si>
   <si>
     <t>(스테이지 필드) : 방이 정전된다.</t>
-  </si>
-  <si>
-    <t>Left,Appear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right,Appear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>뉴스는 재미없어.</t>
@@ -7347,13 +6675,6 @@
     <t>(책으로 가득한 책장. 흥미 없는 책들로 가득하다.)</t>
   </si>
   <si>
-    <t>···사, ···지··· 말라고···!!</t>
-  </si>
-  <si>
-    <t>그, ···적 없ㅇ···!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>···? 이런 것이 있었나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7455,14 +6776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Right,Disappear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left,Disappear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(컷 씬)&gt; (컷 씬 전환): 뉴스를 송출하던 TV가 어린이 채널로 변경된다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7495,10 +6808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-0 prologue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어둠 속에는 아무것도 없어···. 널 공격할 것도, 네가 무서워할 이유도···.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7514,11 +6823,57 @@
     <t>ShadowGame</t>
   </si>
   <si>
-    <t>SmallRoomScene</t>
+    <t>Reset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(페이드 아웃)&gt; (페이드 인)</t>
+    <t>Left, Appear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right, Appear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케치북이 뜬다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케치북이 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손전등이 분명….</t>
+  </si>
+  <si>
+    <t>…왜 이렇게?</t>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 페이지 넘기는 소리 + 다음 페이지. 12월 9일 날짜만 존재한다.</t>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 페이지 넘기는 소리 + 다음 페이지. 검게 칠해져 있다.</t>
+  </si>
+  <si>
+    <t>(스테이지 필드)&gt; (컷 씬): 그림일기장으로 보이는 책에 가족 그림이 그려져 있다.</t>
+  </si>
+  <si>
+    <t>윽…! 뭐가 떨어진거지?</t>
+  </si>
+  <si>
+    <t>지금 이런 걸 신경 쓸 때가 아니지….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(스테이지 필드) : 책 떨어지는 소리가 들려온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7598,18 +6953,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -7635,19 +6984,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -7656,7 +7014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7666,44 +7024,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8037,7 +7389,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8108,11 +7460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520F37D0-D3C1-4DE9-ABEA-3909C9E70777}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25130380-D319-4254-8C41-562BEB11FD77}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8126,7 +7478,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8196,16 +7548,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8213,14 +7568,1330 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6DD22-0A94-4479-9EBE-74026E463339}">
+  <dimension ref="A1:P109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="33">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="9">
+        <v>6</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="9">
+        <v>6</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>7</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="9">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="9">
+        <v>7</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="12">
+        <v>6</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>7</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="12">
+        <v>6</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="12">
+        <v>6</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12">
+        <v>4</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="12">
+        <v>2</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="12">
+        <v>2</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="12">
+        <v>3</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="12">
+        <v>11</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="12">
+        <v>6</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
+        <v>4</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="12">
+        <v>11</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="12">
+        <v>6</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="12">
+        <v>1</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="12">
+        <v>6</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+      <c r="D57" s="12">
+        <v>4</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12">
+        <v>11</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="12">
+        <v>7</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="9">
+        <v>6</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="9">
+        <v>4</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="9">
+        <v>6</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="9">
+        <v>6</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="9">
+        <v>6</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="9">
+        <v>6</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="9">
+        <v>6</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="9">
+        <v>1</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="9">
+        <v>6</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="9">
+        <v>6</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="9">
+        <v>1</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="9">
+        <v>1</v>
+      </c>
+      <c r="D73" s="9">
+        <v>7</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="9">
+        <v>1</v>
+      </c>
+      <c r="D74" s="9">
+        <v>4</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9">
+        <v>11</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="9">
+        <v>7</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <v>4</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <v>7</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5">
+        <v>11</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="5">
+        <v>6</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
+        <v>4</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="5">
+        <v>11</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="5">
+        <v>6</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="5">
+        <v>4</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8229,12 +8900,426 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25130380-D319-4254-8C41-562BEB11FD77}">
-  <dimension ref="A1:F7"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE87A1-AC1D-424F-8DF9-47E56AC24E4E}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B375DD-222F-47E2-85A7-A6BD2A333584}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8167BB-AE86-4B15-9046-8B0DCA91C2DF}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBE0502-BCDD-475A-97BE-BC2A89E06D41}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8248,7 +9333,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8318,1815 +9403,27 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>108</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1BDE78-7DBD-4684-8FB2-3095F5A3A78B}">
-  <dimension ref="A1:P57"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="49.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="66">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="49.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="49.5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="33">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="49.5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" ht="66">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="49.5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="66">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="33">
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6DD22-0A94-4479-9EBE-74026E463339}">
-  <dimension ref="A1:P90"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="6">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="33">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="6">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="6">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="6">
-        <v>7</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="10">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10">
-        <v>4</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10">
-        <v>7</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="10">
-        <v>7</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="13">
-        <v>6</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="13">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="13">
-        <v>6</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="13">
-        <v>1</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="13">
-        <v>6</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="13">
-        <v>1</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="13">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="13">
-        <v>1</v>
-      </c>
-      <c r="D37" s="13">
-        <v>4</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="13">
-        <v>1</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="13">
-        <v>2</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="13">
-        <v>1</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="13">
-        <v>2</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="13">
-        <v>1</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="13">
-        <v>3</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="13">
-        <v>6</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="13">
-        <v>1</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="13">
-        <v>6</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="13">
-        <v>1</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="13">
-        <v>1</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="13">
-        <v>6</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="13">
-        <v>1</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="13">
-        <v>7</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="15">
-        <v>6</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="15">
-        <v>6</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="15">
-        <v>1</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="15">
-        <v>1</v>
-      </c>
-      <c r="D55" s="15">
-        <v>7</v>
-      </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="15">
-        <v>1</v>
-      </c>
-      <c r="D56" s="15">
-        <v>4</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="15">
-        <v>7</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="6">
-        <v>1</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="6">
-        <v>1</v>
-      </c>
-      <c r="D59" s="6">
-        <v>7</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="6">
-        <v>6</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="6">
-        <v>1</v>
-      </c>
-      <c r="D61" s="6">
-        <v>4</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="6">
-        <v>1</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="6">
-        <v>1</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7">
-        <v>11</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7">
-        <v>11</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="6">
-        <v>6</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="6">
-        <v>4</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="2"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE87A1-AC1D-424F-8DF9-47E56AC24E4E}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B375DD-222F-47E2-85A7-A6BD2A333584}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8167BB-AE86-4B15-9046-8B0DCA91C2DF}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -10137,11 +9434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBE0502-BCDD-475A-97BE-BC2A89E06D41}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162335A8-7EBA-4EF8-AD29-58D03E926B8A}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10155,7 +9452,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10225,16 +9522,38 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -10245,11 +9564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162335A8-7EBA-4EF8-AD29-58D03E926B8A}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22868F45-032C-43BB-A92B-648D0D473007}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10263,7 +9582,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10336,13 +9655,16 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
         <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10350,10 +9672,18 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -10364,11 +9694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22868F45-032C-43BB-A92B-648D0D473007}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520F37D0-D3C1-4DE9-ABEA-3909C9E70777}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10382,7 +9712,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10452,16 +9782,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10469,10 +9802,24 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D7EA80-D8BE-44A4-B83C-892661A0B09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE9CBA8-086B-4DA8-8FB7-43E53B859011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
-    <sheet name="1-1, main" sheetId="31" r:id="rId2"/>
-    <sheet name="1-1, 1-2" sheetId="44" r:id="rId3"/>
-    <sheet name="1-1, 1-4-1" sheetId="45" r:id="rId4"/>
-    <sheet name="1-1, 1-4-2" sheetId="47" r:id="rId5"/>
-    <sheet name="1-1, 1-5" sheetId="46" r:id="rId6"/>
-    <sheet name="1-1, 2-1" sheetId="48" r:id="rId7"/>
-    <sheet name="1-1, 2-2" sheetId="49" r:id="rId8"/>
-    <sheet name="1-1, 2-3" sheetId="51" r:id="rId9"/>
-    <sheet name="1-1, 2-5" sheetId="50" r:id="rId10"/>
+    <sheet name="1-1, main-0" sheetId="31" r:id="rId2"/>
+    <sheet name="1-1, main-1" sheetId="52" r:id="rId3"/>
+    <sheet name="1-1, 1-2" sheetId="44" r:id="rId4"/>
+    <sheet name="1-1, 1-4-1" sheetId="45" r:id="rId5"/>
+    <sheet name="1-1, 1-4-2" sheetId="47" r:id="rId6"/>
+    <sheet name="1-1, 1-5" sheetId="46" r:id="rId7"/>
+    <sheet name="1-1, 2-1" sheetId="48" r:id="rId8"/>
+    <sheet name="1-1, 2-2" sheetId="49" r:id="rId9"/>
+    <sheet name="1-1, 2-3" sheetId="51" r:id="rId10"/>
+    <sheet name="1-1, 2-5" sheetId="50" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -676,6 +677,633 @@
     <author>서 의수</author>
   </authors>
   <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{ACBC2DDB-674B-4C1D-BEAA-7A453EF34A60}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: NONE
+1: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대화
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (1, 2, 3)
+3: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">종료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맵</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Scene </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - contents)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{AB592836-1EB1-4629-A47B-6E12CA8DD577}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{E572150A-6A3C-4B88-B94F-2CA58FD389EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Default = -1
+Keep = 0 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이전</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>), (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+Action1 = 1
+…
+Option</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Left or Right </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{3109D0EB-E7EF-41B9-B51F-D96DE4CD15C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> 사용하고 있는 구분자
+:, ()</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수거</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모든</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타입에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
+v0 : v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여러개</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
+v0 - Item name
+v1 - Add, Remove</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+- 1 (Script)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">0: 스킵 불가능
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>1(value) : {$value}배속
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
+v0, v1 (순서 무관)
+v0 - Left, Right
+v1 - Appear, Active, Inactive, Disappear
+- 컷씬
+v0, v1, v2, v3 (순서 무관)
+v0 - Hold, None (Default - None)   (대소문자 무관)
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>UISU</author>
+    <author>서 의수</author>
+  </authors>
+  <commentList>
     <comment ref="C4" authorId="0" shapeId="0" xr:uid="{249C5DD8-3BD7-4B69-951E-D8B6C90582DE}">
       <text>
         <r>
@@ -1930,7 +2558,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{49C589C4-0FE3-4E24-B965-2E7D8F68FDC8}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{55C34E08-241A-422D-8322-19E410F4AD2D}">
       <text>
         <r>
           <rPr>
@@ -2135,7 +2763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{9C5BDFE4-61A5-4314-A1BA-1610439C930F}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{C5DAD9D6-D1B6-4464-9375-785728C7E0D5}">
       <text>
         <r>
           <rPr>
@@ -2158,7 +2786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{3F6817A1-2E5B-4E24-B73C-405EDFCB1295}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9A89160D-C986-4E7B-BD89-B23D77BBDE5D}">
       <text>
         <r>
           <rPr>
@@ -2271,7 +2899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{24F93AF2-423C-4D9F-B059-8C59D240EFD6}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{8B4071B4-F00A-4341-8972-D94B3B4D11B8}">
       <text>
         <r>
           <rPr>
@@ -2557,7 +3185,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{025ED066-92A4-4D81-858A-670DB228D0FE}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{49C589C4-0FE3-4E24-B965-2E7D8F68FDC8}">
       <text>
         <r>
           <rPr>
@@ -2762,7 +3390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{73166A99-2376-492D-ADF6-23C3D6ECBEC5}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{9C5BDFE4-61A5-4314-A1BA-1610439C930F}">
       <text>
         <r>
           <rPr>
@@ -2785,7 +3413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1B3CEDB1-42E0-46B7-9CBA-4051370D28CF}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{3F6817A1-2E5B-4E24-B73C-405EDFCB1295}">
       <text>
         <r>
           <rPr>
@@ -2898,7 +3526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5F84B2BF-3822-4E6D-B090-6FBE91E6EDB7}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{24F93AF2-423C-4D9F-B059-8C59D240EFD6}">
       <text>
         <r>
           <rPr>
@@ -3184,7 +3812,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{75FF830D-8352-449F-AF90-0B002B35FD29}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{025ED066-92A4-4D81-858A-670DB228D0FE}">
       <text>
         <r>
           <rPr>
@@ -3389,7 +4017,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{255A2A47-7BF9-41A4-BABC-8FE70BAF47E9}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{73166A99-2376-492D-ADF6-23C3D6ECBEC5}">
       <text>
         <r>
           <rPr>
@@ -3412,7 +4040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{794B8B3D-369A-4897-ADDA-0298E5A059BC}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1B3CEDB1-42E0-46B7-9CBA-4051370D28CF}">
       <text>
         <r>
           <rPr>
@@ -3525,7 +4153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{E81849FF-9FF4-424E-8492-6007DB65722A}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5F84B2BF-3822-4E6D-B090-6FBE91E6EDB7}">
       <text>
         <r>
           <rPr>
@@ -3811,7 +4439,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{2ED1377B-2A4A-45AE-94AC-744F433A56EA}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{75FF830D-8352-449F-AF90-0B002B35FD29}">
       <text>
         <r>
           <rPr>
@@ -4016,7 +4644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{49B45BE4-C19B-4877-98A9-DB1ADB59A706}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{255A2A47-7BF9-41A4-BABC-8FE70BAF47E9}">
       <text>
         <r>
           <rPr>
@@ -4039,7 +4667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9F130E9C-9BBC-47AA-A7D4-0D2D5A76D9FF}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{794B8B3D-369A-4897-ADDA-0298E5A059BC}">
       <text>
         <r>
           <rPr>
@@ -4152,7 +4780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{19465C09-40F4-4C63-840A-B66691DFF099}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{E81849FF-9FF4-424E-8492-6007DB65722A}">
       <text>
         <r>
           <rPr>
@@ -4438,7 +5066,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{956ACA3F-D14D-4FCE-9C84-4B8C877ED721}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{2ED1377B-2A4A-45AE-94AC-744F433A56EA}">
       <text>
         <r>
           <rPr>
@@ -4643,7 +5271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{BF1FEDCB-6720-46EF-BB37-4420A287697A}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{49B45BE4-C19B-4877-98A9-DB1ADB59A706}">
       <text>
         <r>
           <rPr>
@@ -4666,7 +5294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{29856A92-5DBA-442B-87F0-13E200D895ED}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9F130E9C-9BBC-47AA-A7D4-0D2D5A76D9FF}">
       <text>
         <r>
           <rPr>
@@ -4779,7 +5407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{574C8155-46DA-4B59-8D9B-E9DA0CC5015F}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{19465C09-40F4-4C63-840A-B66691DFF099}">
       <text>
         <r>
           <rPr>
@@ -5065,7 +5693,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{42374557-85EB-4A8F-90C9-D07408C73367}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{956ACA3F-D14D-4FCE-9C84-4B8C877ED721}">
       <text>
         <r>
           <rPr>
@@ -5270,7 +5898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{0C6AC4C8-3F4A-4DE5-9EF3-DFA7534C1A2E}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{BF1FEDCB-6720-46EF-BB37-4420A287697A}">
       <text>
         <r>
           <rPr>
@@ -5293,7 +5921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{4C8C9383-8887-4931-94AF-90F77566CF97}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{29856A92-5DBA-442B-87F0-13E200D895ED}">
       <text>
         <r>
           <rPr>
@@ -5406,7 +6034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{BB62D6D9-9745-4D26-A6D1-0687188A1EDB}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{574C8155-46DA-4B59-8D9B-E9DA0CC5015F}">
       <text>
         <r>
           <rPr>
@@ -5692,7 +6320,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{ACBC2DDB-674B-4C1D-BEAA-7A453EF34A60}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{42374557-85EB-4A8F-90C9-D07408C73367}">
       <text>
         <r>
           <rPr>
@@ -5897,7 +6525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{AB592836-1EB1-4629-A47B-6E12CA8DD577}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{0C6AC4C8-3F4A-4DE5-9EF3-DFA7534C1A2E}">
       <text>
         <r>
           <rPr>
@@ -5920,7 +6548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{E572150A-6A3C-4B88-B94F-2CA58FD389EF}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{4C8C9383-8887-4931-94AF-90F77566CF97}">
       <text>
         <r>
           <rPr>
@@ -6033,7 +6661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{3109D0EB-E7EF-41B9-B51F-D96DE4CD15C6}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{BB62D6D9-9745-4D26-A6D1-0687188A1EDB}">
       <text>
         <r>
           <rPr>
@@ -6313,7 +6941,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="136">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6683,13 +7311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 페이지 넘기는 소리 + 다음 페이지. 가족 그림에 아빠가 없다.</t>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 페이지 넘기는 소리 + 다음 페이지. 가족 그림에 아빠가 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-1, 1-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6704,10 +7325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1 main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(스테이지 필드) : 손전등이 클로즈업 된 그림이 뜬다.</t>
   </si>
   <si>
@@ -6792,18 +7409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hold, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, 1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(스테이지 필드) : 손전등이 클로즈업 된 그림이 사라진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6835,10 +7440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hold, 0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스케치북이 뜬다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6853,12 +7454,6 @@
     <t>…왜 이렇게?</t>
   </si>
   <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 페이지 넘기는 소리 + 다음 페이지. 12월 9일 날짜만 존재한다.</t>
-  </si>
-  <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 페이지 넘기는 소리 + 다음 페이지. 검게 칠해져 있다.</t>
-  </si>
-  <si>
     <t>(스테이지 필드)&gt; (컷 씬): 그림일기장으로 보이는 책에 가족 그림이 그려져 있다.</t>
   </si>
   <si>
@@ -6873,7 +7468,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hold</t>
+    <t>1-1 main-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1 main-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (스테이지 필드): 페이지 넘기는 소리 + 다음 페이지. 12월 9일 날짜만 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1, name=Stage 1/1 Small Room/Bookshelf/#0-5 Diary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1, name=Stage 1/1 Small Room/Bookshelf/#0-1 Diary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=Stage 1/1 Small Room/Main/#4-1 책 떨어지는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Stage 1/1 Small Room/Main/#4-2 그림일기장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, -1, name=Stage 1/1 Small Room/Main/#4-6 마지막 페이지 스테이지로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1, name=Stage 1/1 Small Room/Main/#5-2 Remove Flashlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Stage 1/1 Small Room/Main/#5-1 Get Flashlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 3, name=Stage 1/1 Small Room/Main/#6 꾸물꾸물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 3, name=Stage 1/1 Small Room/Main/#3-2 품에 안음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1, name=Stage 1/1 Small Room/Main/#3-1 사진사 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1, name=Stage 1/1 Small Room/Main/#2-2 커진 스산한 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1, name=Stage 1/1 Small Room/Main/#2-1 스산한 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, -1, name=Stage 1/1 Small Room/Main/#2 정전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Stage 1/1 Small Room/Sketch/Get Sketch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Stage 1/1 Small Room/Sketch/Remove Sketch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Stage 1/1 Small Room/Main/#1-3 어린이 방송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Stage 1/1 Small Room/Main/#1-2 어린이 방송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Stage 1/1 Small Room/Main/#1-1 어린이 방송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 3, name=Stage 1/1 Small Room/Main/#0 TV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7460,6 +8143,142 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520F37D0-D3C1-4DE9-ABEA-3909C9E70777}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25130380-D319-4254-8C41-562BEB11FD77}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -7478,7 +8297,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7560,7 +8379,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7568,7 +8387,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7579,7 +8398,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7590,7 +8409,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -7603,24 +8422,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6DD22-0A94-4479-9EBE-74026E463339}">
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="59.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -7699,7 +8519,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7711,7 +8531,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7737,7 +8557,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="33">
@@ -7840,30 +8660,28 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
-        <v>7</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C17" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="5">
         <v>6</v>
@@ -7871,13 +8689,13 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="5">
         <v>6</v>
@@ -7885,13 +8703,13 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C20" s="5">
         <v>6</v>
@@ -7899,47 +8717,47 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B21" s="6" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>43</v>
+      <c r="B22" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
-        <v>7</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -7949,47 +8767,47 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33">
       <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C25" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="5">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C27" s="9">
         <v>6</v>
@@ -7997,47 +8815,47 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="B28" s="10" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C28" s="9">
-        <v>6</v>
-      </c>
-      <c r="D28" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>7</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="9">
-        <v>7</v>
-      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
@@ -8051,7 +8869,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -8061,123 +8879,123 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="C33" s="9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="9">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="12">
+        <v>6</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
         <v>7</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="12">
-        <v>6</v>
-      </c>
-      <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>52</v>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
-        <v>49</v>
+      <c r="A37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C37" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="12">
-        <v>-1</v>
-      </c>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>53</v>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12" t="s">
-        <v>50</v>
+      <c r="A39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C39" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="12">
-        <v>-1</v>
-      </c>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -8188,97 +9006,93 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="12">
+        <v>4</v>
+      </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
       </c>
-      <c r="D42" s="12">
-        <v>4</v>
-      </c>
+      <c r="D42" s="12"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
-        <v>110</v>
-      </c>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>56</v>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C43" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="12"/>
+      <c r="A44" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="B44" s="13" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C44" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C45" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="12"/>
+      <c r="A46" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="B46" s="13" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C46" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -8288,88 +9102,92 @@
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="C49" s="12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="12"/>
+      <c r="A50" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="B50" s="13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" s="12">
-        <v>6</v>
-      </c>
-      <c r="D50" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
+        <v>4</v>
+      </c>
       <c r="E50" s="12"/>
-      <c r="F50" s="12">
-        <v>-1</v>
+      <c r="F50" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="12">
-        <v>1</v>
-      </c>
-      <c r="D51" s="12">
-        <v>4</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
+      <c r="B52" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C52" s="12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13" t="s">
-        <v>25</v>
+      <c r="A53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="C53" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="12" t="s">
-        <v>100</v>
-      </c>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C54" s="12">
         <v>1</v>
@@ -8379,519 +9197,39 @@
       <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>104</v>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C55" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="12">
-        <v>6</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="12">
-        <v>1</v>
-      </c>
-      <c r="D57" s="12">
-        <v>4</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12">
-        <v>11</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12" t="s">
-        <v>108</v>
-      </c>
+      <c r="B56" s="2"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="12">
-        <v>7</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="9">
-        <v>6</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="9">
-        <v>1</v>
-      </c>
-      <c r="D61" s="9">
-        <v>4</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="9">
-        <v>6</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="9">
-        <v>6</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="B61" s="2"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="9">
-        <v>6</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="9">
-        <v>6</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="9">
-        <v>6</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="9">
-        <v>1</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="9">
-        <v>1</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="9">
-        <v>1</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="9">
-        <v>6</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="9">
-        <v>6</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="9">
-        <v>1</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="9">
-        <v>1</v>
-      </c>
-      <c r="D73" s="9">
-        <v>7</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="9">
-        <v>1</v>
-      </c>
-      <c r="D74" s="9">
-        <v>4</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9">
-        <v>11</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="9">
-        <v>7</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="5">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5">
-        <v>4</v>
-      </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5">
-        <v>7</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5">
-        <v>11</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="5">
-        <v>6</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5">
-        <v>4</v>
-      </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="5">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="5">
-        <v>11</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="5"/>
-      <c r="B85" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="5">
-        <v>6</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="5"/>
-      <c r="B86" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="5">
-        <v>4</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="2"/>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8901,6 +9239,469 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9B5F69-BBCA-4522-ADE9-7E0AE32D0104}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="12">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="9">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="9">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="9">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="5">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE87A1-AC1D-424F-8DF9-47E56AC24E4E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -8915,7 +9716,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8992,7 +9793,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9000,7 +9801,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -9010,12 +9811,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B375DD-222F-47E2-85A7-A6BD2A333584}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9029,7 +9830,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9111,7 +9912,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9132,59 +9933,38 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>3</v>
+      <c r="F7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
       <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
-        <v>108</v>
+      <c r="F10" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -9195,7 +9975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8167BB-AE86-4B15-9046-8B0DCA91C2DF}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -9214,7 +9994,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9296,7 +10076,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9304,7 +10084,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -9314,7 +10094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBE0502-BCDD-475A-97BE-BC2A89E06D41}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -9333,7 +10113,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9415,7 +10195,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9423,7 +10203,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -9433,7 +10213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162335A8-7EBA-4EF8-AD29-58D03E926B8A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -9452,7 +10232,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9525,7 +10305,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9534,7 +10314,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9542,7 +10322,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9553,7 +10333,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -9563,7 +10343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22868F45-032C-43BB-A92B-648D0D473007}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -9582,7 +10362,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9655,7 +10435,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9664,7 +10444,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9672,7 +10452,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9683,143 +10463,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520F37D0-D3C1-4DE9-ABEA-3909C9E70777}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE9CBA8-086B-4DA8-8FB7-43E53B859011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A358C17A-EDB6-454B-B388-32FC96491E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="10" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -6941,7 +6941,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="134">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7014,17 +7014,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사진사</t>
-  </si>
-  <si>
-    <t>사진사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TV</t>
   </si>
   <si>
@@ -7053,10 +7042,6 @@
   </si>
   <si>
     <t>(비상 전원부터 확인한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아들 이름)! 괜찮니?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7203,9 +7188,6 @@
   <si>
     <t>으··· 으으···.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아들 이름)?! 오, 이런···.</t>
   </si>
   <si>
     <t>젠장···. 작업물들이···!</t>
@@ -7290,9 +7272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아들</t>
-  </si>
-  <si>
     <t>(옷으로 가득한 옷장. 입을 만한 옷은 보이지 않는다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7328,9 +7307,6 @@
     <t>(스테이지 필드) : 손전등이 클로즈업 된 그림이 뜬다.</t>
   </si>
   <si>
-    <t>(아들 이름)?!</t>
-  </si>
-  <si>
     <t>(좋아. 이거라면···.)</t>
   </si>
   <si>
@@ -7338,9 +7314,6 @@
   </si>
   <si>
     <t>(스테이지 필드) : 필드에서 아들과 상호작용 키를 누른다.</t>
-  </si>
-  <si>
-    <t>(아들 이름)! 진정해! 무슨 일이야?!</t>
   </si>
   <si>
     <t>저···, 저기 방 구석에···!</t>
@@ -7557,6 +7530,30 @@
   </si>
   <si>
     <t>Hold, 3, name=Stage 1/1 Small Room/Main/#0 TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토미?! 오, 이런···.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토미! 괜찮니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토미! 진정해! 무슨 일이야?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토미?!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8072,7 +8069,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8147,7 +8144,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8161,7 +8158,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8231,10 +8228,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8243,15 +8240,15 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8260,7 +8257,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8268,7 +8265,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8282,8 +8279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25130380-D319-4254-8C41-562BEB11FD77}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8297,7 +8294,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8367,10 +8364,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8379,15 +8376,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8395,10 +8392,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8409,7 +8406,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8424,8 +8421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6DD22-0A94-4479-9EBE-74026E463339}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -8440,7 +8437,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -8506,10 +8503,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -8519,7 +8516,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8531,13 +8528,13 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3">
         <v>7</v>
@@ -8549,7 +8546,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5">
         <v>6</v>
@@ -8557,15 +8554,15 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="33">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -8577,7 +8574,7 @@
     <row r="10" spans="1:16">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -8591,7 +8588,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -8603,7 +8600,7 @@
     <row r="12" spans="1:16">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -8617,7 +8614,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -8638,10 +8635,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -8652,10 +8649,10 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -8667,7 +8664,7 @@
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C17" s="5">
         <v>6</v>
@@ -8675,13 +8672,13 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5">
         <v>6</v>
@@ -8689,13 +8686,13 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C19" s="5">
         <v>6</v>
@@ -8703,13 +8700,13 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C20" s="5">
         <v>6</v>
@@ -8717,15 +8714,15 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -8735,15 +8732,15 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -8754,10 +8751,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -8775,13 +8772,13 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="33">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" s="5">
         <v>7</v>
@@ -8793,7 +8790,7 @@
     <row r="26" spans="1:6">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C26" s="9">
         <v>6</v>
@@ -8801,13 +8798,13 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C27" s="9">
         <v>6</v>
@@ -8815,15 +8812,15 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" s="9">
         <v>1</v>
@@ -8833,15 +8830,15 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
@@ -8852,10 +8849,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
@@ -8866,10 +8863,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -8887,13 +8884,13 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9"/>
       <c r="B33" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9">
         <v>7</v>
@@ -8905,7 +8902,7 @@
     <row r="34" spans="1:6">
       <c r="A34" s="12"/>
       <c r="B34" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C34" s="12">
         <v>6</v>
@@ -8913,15 +8910,15 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -8931,13 +8928,13 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" s="12">
         <v>6</v>
@@ -8945,15 +8942,15 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -8965,7 +8962,7 @@
     <row r="38" spans="1:6">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="12">
         <v>6</v>
@@ -8973,15 +8970,15 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -8992,10 +8989,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -9006,10 +9003,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -9019,15 +9016,15 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -9039,7 +9036,7 @@
     <row r="43" spans="1:6">
       <c r="A43" s="12"/>
       <c r="B43" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C43" s="12">
         <v>2</v>
@@ -9053,7 +9050,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -9065,7 +9062,7 @@
     <row r="45" spans="1:6">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45" s="12">
         <v>2</v>
@@ -9079,7 +9076,7 @@
         <v>17</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -9107,13 +9104,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="12"/>
       <c r="B49" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C49" s="12">
         <v>6</v>
@@ -9121,15 +9118,15 @@
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="12" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -9139,7 +9136,7 @@
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9151,13 +9148,13 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="12"/>
       <c r="B52" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C52" s="12">
         <v>6</v>
@@ -9165,15 +9162,15 @@
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="12" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C53" s="12">
         <v>1</v>
@@ -9184,10 +9181,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="12" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C54" s="12">
         <v>1</v>
@@ -9199,7 +9196,7 @@
     <row r="55" spans="1:6">
       <c r="A55" s="12"/>
       <c r="B55" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C55" s="12">
         <v>6</v>
@@ -9207,7 +9204,7 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9242,8 +9239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9B5F69-BBCA-4522-ADE9-7E0AE32D0104}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B8:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9257,7 +9254,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9322,10 +9319,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -9335,7 +9332,7 @@
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9347,13 +9344,13 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7" s="12">
         <v>7</v>
@@ -9365,7 +9362,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C8" s="9">
         <v>6</v>
@@ -9373,15 +9370,15 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -9391,13 +9388,13 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C10" s="9">
         <v>6</v>
@@ -9405,13 +9402,13 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C11" s="9">
         <v>6</v>
@@ -9419,15 +9416,15 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
@@ -9438,10 +9435,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -9452,10 +9449,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -9467,7 +9464,7 @@
     <row r="15" spans="1:6">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C15" s="9">
         <v>6</v>
@@ -9475,13 +9472,13 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C16" s="9">
         <v>6</v>
@@ -9489,15 +9486,15 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
@@ -9508,10 +9505,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -9521,15 +9518,15 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -9549,13 +9546,13 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C21" s="9">
         <v>7</v>
@@ -9566,10 +9563,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -9579,15 +9576,15 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -9597,7 +9594,7 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9609,13 +9606,13 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C25" s="5">
         <v>6</v>
@@ -9623,15 +9620,15 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -9642,10 +9639,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -9656,10 +9653,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -9671,7 +9668,7 @@
     <row r="29" spans="1:6">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C29" s="5">
         <v>11</v>
@@ -9679,13 +9676,13 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C30" s="5">
         <v>4</v>
@@ -9705,8 +9702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE87A1-AC1D-424F-8DF9-47E56AC24E4E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9716,7 +9713,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9781,10 +9778,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9793,7 +9790,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9801,7 +9798,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -9816,7 +9813,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9830,7 +9827,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9900,10 +9897,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9912,15 +9909,15 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9928,32 +9925,32 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9964,7 +9961,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -9980,7 +9977,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9994,7 +9991,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10064,10 +10061,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -10076,7 +10073,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10084,7 +10081,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -10099,7 +10096,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10113,7 +10110,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10183,10 +10180,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -10195,7 +10192,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10203,7 +10200,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -10218,7 +10215,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10232,7 +10229,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10302,10 +10299,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -10314,15 +10311,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10333,7 +10330,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -10348,7 +10345,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10362,7 +10359,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10432,10 +10429,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -10444,15 +10441,15 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10463,7 +10460,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A358C17A-EDB6-454B-B388-32FC96491E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC7150C-C39A-46B5-8DA9-2D792CAC115D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="10" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -8279,7 +8279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25130380-D319-4254-8C41-562BEB11FD77}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -9237,10 +9237,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9B5F69-BBCA-4522-ADE9-7E0AE32D0104}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B8:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9681,15 +9681,25 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="5">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC7150C-C39A-46B5-8DA9-2D792CAC115D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D46AB68-CA24-4BA7-9C70-15BD15440F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -6941,7 +6941,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="138">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7554,6 +7554,22 @@
   </si>
   <si>
     <t>토미?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,0,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,0,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8421,8 +8437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6DD22-0A94-4479-9EBE-74026E463339}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -8595,7 +8611,9 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="5"/>
@@ -8621,7 +8639,9 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="5"/>
@@ -9057,7 +9077,9 @@
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="12"/>
@@ -9083,7 +9105,9 @@
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12"/>
@@ -9239,8 +9263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9B5F69-BBCA-4522-ADE9-7E0AE32D0104}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9822,7 +9846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B375DD-222F-47E2-85A7-A6BD2A333584}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D46AB68-CA24-4BA7-9C70-15BD15440F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACD3243-D15D-4570-B3EE-7F4685064D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -8437,8 +8437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6DD22-0A94-4479-9EBE-74026E463339}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -8597,7 +8597,9 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="5" t="s">
@@ -8611,9 +8613,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="5"/>
@@ -8625,7 +8625,9 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
@@ -8639,9 +8641,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="5"/>
@@ -9063,7 +9063,9 @@
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="12" t="s">
@@ -9077,9 +9079,7 @@
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="12" t="s">
-        <v>136</v>
-      </c>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="12"/>
@@ -9091,7 +9091,9 @@
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="12" t="s">
@@ -9105,9 +9107,7 @@
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="12" t="s">
-        <v>137</v>
-      </c>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12"/>
@@ -9846,7 +9846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B375DD-222F-47E2-85A7-A6BD2A333584}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CEAE2E-1DB5-4D20-BF82-8171E452F70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="!Sample" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="1-1, main-0" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="1-1, main-1" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="1-1, 1-2" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="1-1, 1-4-1" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="1-1, 1-4-2" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="1-1, 1-5" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="1-1, 2-1" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="1-1, 2-2" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="1-1, 2-3" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="1-1, 2-5" sheetId="11" r:id="rId14"/>
+    <sheet name="!Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="1-1, main-0" sheetId="2" r:id="rId2"/>
+    <sheet name="1-1, main-1" sheetId="3" r:id="rId3"/>
+    <sheet name="1-1, 1-2" sheetId="4" r:id="rId4"/>
+    <sheet name="1-1, 1-4-1" sheetId="5" r:id="rId5"/>
+    <sheet name="1-1, 1-4-2" sheetId="6" r:id="rId6"/>
+    <sheet name="1-1, 1-5" sheetId="7" r:id="rId7"/>
+    <sheet name="1-1, 2-1" sheetId="8" r:id="rId8"/>
+    <sheet name="1-1, 2-2" sheetId="9" r:id="rId9"/>
+    <sheet name="1-1, 2-3" sheetId="10" r:id="rId10"/>
+    <sheet name="1-1, 2-5" sheetId="11" r:id="rId11"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="wH5wkL/R6KnKL+Cr+aEbs+ra+SQtp9X7HZFG5MyBSao="/>
@@ -26,31 +35,22 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8D0g
-UISU    (2023-06-16 00:08:24)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0U
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -66,11 +66,46 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8D0g
+UISU    (2023-06-16 00:08:24)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dy0
 UISU    (2023-06-16 00:08:24)
 Default = -1
@@ -78,11 +113,20 @@
 Action1 = 1
 …
 Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dys
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -104,11 +148,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - true)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miGiO5oOROE2z51XIT5hjkCyAW2Kg=="/>
     </ext>
   </extLst>
@@ -116,14 +161,22 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0s
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -139,11 +192,67 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8Dyo
+UISU    (2023-06-16 00:08:24)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8DyU
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0k
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -165,40 +274,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8Dyo
-UISU    (2023-06-16 00:08:24)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8DyU
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mixVKUyE0wwfbMZjy33xbhoSOIuKQ=="/>
     </ext>
   </extLst>
@@ -206,14 +287,22 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJa4
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -229,11 +318,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dz8
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -246,11 +344,20 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0A
 UISU    (2023-06-16 00:08:24)
 Default = -1
@@ -258,11 +365,20 @@
 Action1 = 1
 …
 Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dyw
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -284,11 +400,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhNfargyqhP6JoJRmx3nbATklCyhw=="/>
     </ext>
   </extLst>
@@ -296,26 +413,51 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8D00
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8Dy4
 UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+0: NONE
+1: 대화
+2: 선택지 (1, 2, 3)
+3: 선택지 종료
+4: 맵 이동 (이동할 Scene 이름 - contents)
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0Y
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -328,11 +470,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8D00
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0M
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -354,12 +526,36 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C4">
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgG95bWmd8XHP83Qe4eRUPI7X/pMQ=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8Dy4
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8Dyg
 UISU    (2023-06-16 00:08:24)
 0: NONE
 1: 대화
@@ -374,38 +570,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgG95bWmd8XHP83Qe4eRUPI7X/pMQ=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJbQ
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJao
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -418,11 +596,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJbQ
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0o
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -444,31 +652,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8Dyg
-UISU    (2023-06-16 00:08:24)
-0: NONE
-1: 대화
-2: 선택지 (1, 2, 3)
-3: 선택지 종료
-4: 맵 이동 (이동할 Scene 이름 - contents)
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhDjHzotByxqjM27jYVsbqAKTG5ag=="/>
     </ext>
   </extLst>
@@ -476,14 +665,22 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJbU
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -499,11 +696,46 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8DyE
+UISU    (2023-06-16 00:08:24)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0c
 UISU    (2023-06-16 00:08:24)
 Default = -1
@@ -511,11 +743,20 @@
 Action1 = 1
 …
 Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0Q
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -537,28 +778,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8DyE
-UISU    (2023-06-16 00:08:24)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh75xHD11JdKgONkP9LZJQChhVOtQ=="/>
     </ext>
   </extLst>
@@ -566,14 +791,51 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8DyI
+UISU    (2023-06-16 00:08:24)
+0: NONE
+1: 대화
+2: 선택지 (1, 2, 3)
+3: 선택지 종료
+4: 맵 이동 (이동할 Scene 이름 - contents)
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJbc
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -586,11 +848,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8DyM
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dz4
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -612,24 +904,36 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh5Qcg0pMhe55ilV3LhVvxW50RomQ=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8DyM
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8DyI
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJa8
 UISU    (2023-06-16 00:08:24)
 0: NONE
 1: 대화
@@ -644,26 +948,67 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh5Qcg0pMhe55ilV3LhVvxW50RomQ=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="F4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJaw
+UISU    (2023-06-16 00:08:24)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8D0I
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJbM
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -685,60 +1030,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJa8
-UISU    (2023-06-16 00:08:24)
-0: NONE
-1: 대화
-2: 선택지 (1, 2, 3)
-3: 선택지 종료
-4: 맵 이동 (이동할 Scene 이름 - contents)
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJaw
-UISU    (2023-06-16 00:08:24)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8D0I
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjUEO2nZ2NtlrVFgfNjfaQRHUSZ4g=="/>
     </ext>
   </extLst>
@@ -746,26 +1043,22 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJbI
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJbA
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -781,11 +1074,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJas
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -798,11 +1100,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJbI
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dyk
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -824,11 +1156,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mioUV69w20es/yytdeQGPg6J7gj4g=="/>
     </ext>
   </extLst>
@@ -836,26 +1169,22 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJbE
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0w
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -871,11 +1200,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dyc
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -888,11 +1226,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJbE
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8DyY
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -914,11 +1282,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgZ8Iq1Vh2Ke0s/YyyL7nRzKfmScA=="/>
     </ext>
   </extLst>
@@ -926,26 +1295,22 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJbY
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJa0
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -961,11 +1326,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0E
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -978,11 +1352,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJbY
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8DyQ
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -1004,11 +1408,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mijeaTuGFtq/+EHRgBUQkxCStXTTw=="/>
     </ext>
   </extLst>
@@ -1016,7 +1421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="139">
   <si>
     <t>파일명</t>
   </si>
@@ -1114,25 +1519,31 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;변덕&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1146,25 +1557,31 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;완고&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1286,34 +1703,42 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;다정&gt;&lt;/b</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1327,25 +1752,31 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;이성&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1524,32 +1955,89 @@
   <si>
     <t>(나의 작품들···.)</t>
   </si>
+  <si>
+    <t>스케치북 미니게임</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>손전등 미니게임</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="A고딕12"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1557,7 +2045,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1585,7 +2073,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1599,105 +2093,77 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1887,29 +2353,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.86"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +2397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1949,7 +2417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1969,18 +2437,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1"/>
-    <row r="6" ht="16.5" customHeight="1"/>
-    <row r="7" ht="16.5" customHeight="1"/>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -2966,33 +3434,30 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>130</v>
       </c>
@@ -3002,7 +3467,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3062,7 +3527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -3070,16 +3535,16 @@
         <v>131</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -3087,32 +3552,32 @@
         <v>132</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="C7" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -4098,33 +4563,30 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>133</v>
       </c>
@@ -4134,7 +4596,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4154,7 +4616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +4636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4194,7 +4656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -4202,16 +4664,16 @@
         <v>124</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -4219,10 +4681,10 @@
         <v>134</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -4230,25 +4692,25 @@
         <v>127</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="C8" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -5234,40 +5696,39 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.0"/>
-    <col customWidth="1" min="2" max="2" width="72.57"/>
-    <col customWidth="1" min="3" max="3" width="14.29"/>
-    <col customWidth="1" min="4" max="4" width="14.0"/>
-    <col customWidth="1" min="5" max="5" width="11.71"/>
-    <col customWidth="1" min="6" max="6" width="59.71"/>
-    <col customWidth="1" min="7" max="26" width="8.86"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5287,7 +5748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5307,7 +5768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -5327,7 +5788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -5335,21 +5796,21 @@
         <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -5357,25 +5818,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5383,7 +5844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -5391,19 +5852,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -5411,7 +5872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -5419,19 +5880,19 @@
         <v>31</v>
       </c>
       <c r="C11" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5439,7 +5900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -5447,23 +5908,23 @@
         <v>34</v>
       </c>
       <c r="C13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -5471,13 +5932,13 @@
         <v>35</v>
       </c>
       <c r="C15" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -5485,19 +5946,19 @@
         <v>36</v>
       </c>
       <c r="C16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -5505,13 +5966,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -5519,13 +5980,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -5533,13 +5994,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -5547,7 +6008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -5555,17 +6016,17 @@
         <v>45</v>
       </c>
       <c r="C21" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -5573,13 +6034,13 @@
         <v>36</v>
       </c>
       <c r="C22" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" ht="16.5" customHeight="1">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -5587,17 +6048,17 @@
         <v>46</v>
       </c>
       <c r="C23" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -5605,25 +6066,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" ht="16.5" customHeight="1">
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -5631,455 +6092,466 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C27" s="8">
-        <v>6.0</v>
+        <v>8</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="8">
-        <v>7.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="C30" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" ht="16.5" customHeight="1">
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C32" s="8">
-        <v>11.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="8">
-        <v>7.0</v>
+        <v>11</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="F33" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="8">
+        <v>7</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="C35" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>7.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C36" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D36" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>7</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="10">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>64</v>
+      <c r="F37" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C38" s="10">
-        <v>6.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>66</v>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C39" s="10">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
+      <c r="F39" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" ht="16.5" customHeight="1">
+    <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D41" s="10">
-        <v>4.0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
       <c r="A42" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>4</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A43" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="C43" s="10">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A44" s="10"/>
       <c r="B44" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="10">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A45" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="B45" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="10">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="10">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
+      <c r="F46" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="C47" s="10">
-        <v>3.0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" ht="16.5" customHeight="1">
+    <row r="48" spans="1:6" ht="16.5" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10">
-        <v>11.0</v>
+        <v>3</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" customHeight="1">
       <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
-        <v>77</v>
-      </c>
+      <c r="B49" s="11"/>
       <c r="C49" s="10">
-        <v>6.0</v>
+        <v>11</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="10" t="s">
-        <v>53</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A50" s="10"/>
       <c r="B50" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="10">
-        <v>4.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A51" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="C51" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="D51" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="10">
+        <v>4</v>
+      </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" customHeight="1">
       <c r="A52" s="10"/>
-      <c r="B52" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="B52" s="11"/>
       <c r="C52" s="10">
-        <v>6.0</v>
+        <v>11</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>82</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C53" s="10">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
+      <c r="F53" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11" t="s">
-        <v>43</v>
+    <row r="55" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A55" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C55" s="10">
-        <v>6.0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="10">
+        <v>6</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="B56" s="12"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
+    <row r="57" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="60" spans="1:6" ht="16.5" customHeight="1">
       <c r="B60" s="12"/>
     </row>
-    <row r="61" ht="16.5" customHeight="1">
+    <row r="61" spans="1:6" ht="16.5" customHeight="1">
       <c r="B61" s="12"/>
     </row>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1">
-      <c r="B64" s="12"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
+    <row r="62" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="64" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="65" spans="2:2" ht="16.5" customHeight="1">
       <c r="B65" s="12"/>
     </row>
-    <row r="66" ht="16.5" customHeight="1">
+    <row r="66" spans="2:2" ht="16.5" customHeight="1">
       <c r="B66" s="12"/>
     </row>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="67" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="69" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="70" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="71" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="72" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="73" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="74" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="75" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="76" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="77" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="78" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="79" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="80" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1"/>
@@ -7000,39 +7472,39 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="78.86"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7052,7 +7524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7072,7 +7544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7092,7 +7564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
@@ -7100,21 +7572,21 @@
         <v>85</v>
       </c>
       <c r="C5" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -7122,25 +7594,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -7148,7 +7620,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
@@ -7156,343 +7628,376 @@
         <v>89</v>
       </c>
       <c r="C9" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="8">
-        <v>6.0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="8">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
+      <c r="F12" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="8">
-        <v>6.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="8">
-        <v>6.0</v>
+        <v>11</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C17" s="8">
-        <v>1.0</v>
+        <v>8</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>7.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="C20" s="8">
-        <v>11.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="C24" s="8">
+        <v>7</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="C25" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7</v>
+      </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="F26" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="5">
-        <v>1.0</v>
+        <v>11</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="F27" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C28" s="5">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>112</v>
+      <c r="F28" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C29" s="5">
-        <v>11.0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="C30" s="5">
-        <v>5.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>114</v>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C31" s="5">
-        <v>4.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" ht="16.5" customHeight="1"/>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="16.5" customHeight="1"/>
-    <row r="35" ht="16.5" customHeight="1"/>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
-    <row r="40" ht="16.5" customHeight="1"/>
-    <row r="41" ht="16.5" customHeight="1"/>
-    <row r="42" ht="16.5" customHeight="1"/>
-    <row r="43" ht="16.5" customHeight="1"/>
-    <row r="44" ht="16.5" customHeight="1"/>
-    <row r="45" ht="16.5" customHeight="1"/>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="5">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="48" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="49" ht="16.5" customHeight="1"/>
     <row r="50" ht="16.5" customHeight="1"/>
     <row r="51" ht="16.5" customHeight="1"/>
@@ -8445,36 +8950,36 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
+    <row r="1003" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="26.0"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8494,7 +8999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -8514,7 +9019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -8534,7 +9039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -8542,33 +9047,33 @@
         <v>116</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="C6" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1"/>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -9554,33 +10059,32 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.71"/>
-    <col customWidth="1" min="2" max="2" width="77.57"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>117</v>
       </c>
@@ -9590,7 +10094,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9610,7 +10114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -9630,7 +10134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -9650,7 +10154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -9658,16 +10162,16 @@
         <v>118</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -9675,56 +10179,1188 @@
         <v>119</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="C10" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="20" ht="16.5" customHeight="1"/>
+    <row r="21" ht="16.5" customHeight="1"/>
+    <row r="22" ht="16.5" customHeight="1"/>
+    <row r="23" ht="16.5" customHeight="1"/>
+    <row r="24" ht="16.5" customHeight="1"/>
+    <row r="25" ht="16.5" customHeight="1"/>
+    <row r="26" ht="16.5" customHeight="1"/>
+    <row r="27" ht="16.5" customHeight="1"/>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1"/>
+    <row r="30" ht="16.5" customHeight="1"/>
+    <row r="31" ht="16.5" customHeight="1"/>
+    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="33" ht="16.5" customHeight="1"/>
+    <row r="34" ht="16.5" customHeight="1"/>
+    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="36" ht="16.5" customHeight="1"/>
+    <row r="37" ht="16.5" customHeight="1"/>
+    <row r="38" ht="16.5" customHeight="1"/>
+    <row r="39" ht="16.5" customHeight="1"/>
+    <row r="40" ht="16.5" customHeight="1"/>
+    <row r="41" ht="16.5" customHeight="1"/>
+    <row r="42" ht="16.5" customHeight="1"/>
+    <row r="43" ht="16.5" customHeight="1"/>
+    <row r="44" ht="16.5" customHeight="1"/>
+    <row r="45" ht="16.5" customHeight="1"/>
+    <row r="46" ht="16.5" customHeight="1"/>
+    <row r="47" ht="16.5" customHeight="1"/>
+    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="49" ht="16.5" customHeight="1"/>
+    <row r="50" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1"/>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+    <row r="986" ht="16.5" customHeight="1"/>
+    <row r="987" ht="16.5" customHeight="1"/>
+    <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+    <row r="991" ht="16.5" customHeight="1"/>
+    <row r="992" ht="16.5" customHeight="1"/>
+    <row r="993" ht="16.5" customHeight="1"/>
+    <row r="994" ht="16.5" customHeight="1"/>
+    <row r="995" ht="16.5" customHeight="1"/>
+    <row r="996" ht="16.5" customHeight="1"/>
+    <row r="997" ht="16.5" customHeight="1"/>
+    <row r="998" ht="16.5" customHeight="1"/>
+    <row r="999" ht="16.5" customHeight="1"/>
+    <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -10710,35 +12346,32 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.71"/>
-    <col customWidth="1" min="2" max="2" width="46.43"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -10746,7 +12379,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10766,7 +12399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -10786,7 +12419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -10806,41 +12439,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="C6" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1"/>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -11826,35 +13459,32 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -11862,7 +13492,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11882,7 +13512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -11902,7 +13532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -11922,41 +13552,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C6" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1"/>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -12942,35 +14582,32 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -12978,7 +14615,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12998,7 +14635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -13018,7 +14655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -13038,24 +14675,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -13063,26 +14700,26 @@
         <v>127</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="C7" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -14068,1136 +15705,9 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="C7" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
-    <row r="20" ht="16.5" customHeight="1"/>
-    <row r="21" ht="16.5" customHeight="1"/>
-    <row r="22" ht="16.5" customHeight="1"/>
-    <row r="23" ht="16.5" customHeight="1"/>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="16.5" customHeight="1"/>
-    <row r="35" ht="16.5" customHeight="1"/>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
-    <row r="40" ht="16.5" customHeight="1"/>
-    <row r="41" ht="16.5" customHeight="1"/>
-    <row r="42" ht="16.5" customHeight="1"/>
-    <row r="43" ht="16.5" customHeight="1"/>
-    <row r="44" ht="16.5" customHeight="1"/>
-    <row r="45" ht="16.5" customHeight="1"/>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
-    <row r="49" ht="16.5" customHeight="1"/>
-    <row r="50" ht="16.5" customHeight="1"/>
-    <row r="51" ht="16.5" customHeight="1"/>
-    <row r="52" ht="16.5" customHeight="1"/>
-    <row r="53" ht="16.5" customHeight="1"/>
-    <row r="54" ht="16.5" customHeight="1"/>
-    <row r="55" ht="16.5" customHeight="1"/>
-    <row r="56" ht="16.5" customHeight="1"/>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
-    <row r="97" ht="16.5" customHeight="1"/>
-    <row r="98" ht="16.5" customHeight="1"/>
-    <row r="99" ht="16.5" customHeight="1"/>
-    <row r="100" ht="16.5" customHeight="1"/>
-    <row r="101" ht="16.5" customHeight="1"/>
-    <row r="102" ht="16.5" customHeight="1"/>
-    <row r="103" ht="16.5" customHeight="1"/>
-    <row r="104" ht="16.5" customHeight="1"/>
-    <row r="105" ht="16.5" customHeight="1"/>
-    <row r="106" ht="16.5" customHeight="1"/>
-    <row r="107" ht="16.5" customHeight="1"/>
-    <row r="108" ht="16.5" customHeight="1"/>
-    <row r="109" ht="16.5" customHeight="1"/>
-    <row r="110" ht="16.5" customHeight="1"/>
-    <row r="111" ht="16.5" customHeight="1"/>
-    <row r="112" ht="16.5" customHeight="1"/>
-    <row r="113" ht="16.5" customHeight="1"/>
-    <row r="114" ht="16.5" customHeight="1"/>
-    <row r="115" ht="16.5" customHeight="1"/>
-    <row r="116" ht="16.5" customHeight="1"/>
-    <row r="117" ht="16.5" customHeight="1"/>
-    <row r="118" ht="16.5" customHeight="1"/>
-    <row r="119" ht="16.5" customHeight="1"/>
-    <row r="120" ht="16.5" customHeight="1"/>
-    <row r="121" ht="16.5" customHeight="1"/>
-    <row r="122" ht="16.5" customHeight="1"/>
-    <row r="123" ht="16.5" customHeight="1"/>
-    <row r="124" ht="16.5" customHeight="1"/>
-    <row r="125" ht="16.5" customHeight="1"/>
-    <row r="126" ht="16.5" customHeight="1"/>
-    <row r="127" ht="16.5" customHeight="1"/>
-    <row r="128" ht="16.5" customHeight="1"/>
-    <row r="129" ht="16.5" customHeight="1"/>
-    <row r="130" ht="16.5" customHeight="1"/>
-    <row r="131" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
-    <row r="134" ht="16.5" customHeight="1"/>
-    <row r="135" ht="16.5" customHeight="1"/>
-    <row r="136" ht="16.5" customHeight="1"/>
-    <row r="137" ht="16.5" customHeight="1"/>
-    <row r="138" ht="16.5" customHeight="1"/>
-    <row r="139" ht="16.5" customHeight="1"/>
-    <row r="140" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
-    <row r="142" ht="16.5" customHeight="1"/>
-    <row r="143" ht="16.5" customHeight="1"/>
-    <row r="144" ht="16.5" customHeight="1"/>
-    <row r="145" ht="16.5" customHeight="1"/>
-    <row r="146" ht="16.5" customHeight="1"/>
-    <row r="147" ht="16.5" customHeight="1"/>
-    <row r="148" ht="16.5" customHeight="1"/>
-    <row r="149" ht="16.5" customHeight="1"/>
-    <row r="150" ht="16.5" customHeight="1"/>
-    <row r="151" ht="16.5" customHeight="1"/>
-    <row r="152" ht="16.5" customHeight="1"/>
-    <row r="153" ht="16.5" customHeight="1"/>
-    <row r="154" ht="16.5" customHeight="1"/>
-    <row r="155" ht="16.5" customHeight="1"/>
-    <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="158" ht="16.5" customHeight="1"/>
-    <row r="159" ht="16.5" customHeight="1"/>
-    <row r="160" ht="16.5" customHeight="1"/>
-    <row r="161" ht="16.5" customHeight="1"/>
-    <row r="162" ht="16.5" customHeight="1"/>
-    <row r="163" ht="16.5" customHeight="1"/>
-    <row r="164" ht="16.5" customHeight="1"/>
-    <row r="165" ht="16.5" customHeight="1"/>
-    <row r="166" ht="16.5" customHeight="1"/>
-    <row r="167" ht="16.5" customHeight="1"/>
-    <row r="168" ht="16.5" customHeight="1"/>
-    <row r="169" ht="16.5" customHeight="1"/>
-    <row r="170" ht="16.5" customHeight="1"/>
-    <row r="171" ht="16.5" customHeight="1"/>
-    <row r="172" ht="16.5" customHeight="1"/>
-    <row r="173" ht="16.5" customHeight="1"/>
-    <row r="174" ht="16.5" customHeight="1"/>
-    <row r="175" ht="16.5" customHeight="1"/>
-    <row r="176" ht="16.5" customHeight="1"/>
-    <row r="177" ht="16.5" customHeight="1"/>
-    <row r="178" ht="16.5" customHeight="1"/>
-    <row r="179" ht="16.5" customHeight="1"/>
-    <row r="180" ht="16.5" customHeight="1"/>
-    <row r="181" ht="16.5" customHeight="1"/>
-    <row r="182" ht="16.5" customHeight="1"/>
-    <row r="183" ht="16.5" customHeight="1"/>
-    <row r="184" ht="16.5" customHeight="1"/>
-    <row r="185" ht="16.5" customHeight="1"/>
-    <row r="186" ht="16.5" customHeight="1"/>
-    <row r="187" ht="16.5" customHeight="1"/>
-    <row r="188" ht="16.5" customHeight="1"/>
-    <row r="189" ht="16.5" customHeight="1"/>
-    <row r="190" ht="16.5" customHeight="1"/>
-    <row r="191" ht="16.5" customHeight="1"/>
-    <row r="192" ht="16.5" customHeight="1"/>
-    <row r="193" ht="16.5" customHeight="1"/>
-    <row r="194" ht="16.5" customHeight="1"/>
-    <row r="195" ht="16.5" customHeight="1"/>
-    <row r="196" ht="16.5" customHeight="1"/>
-    <row r="197" ht="16.5" customHeight="1"/>
-    <row r="198" ht="16.5" customHeight="1"/>
-    <row r="199" ht="16.5" customHeight="1"/>
-    <row r="200" ht="16.5" customHeight="1"/>
-    <row r="201" ht="16.5" customHeight="1"/>
-    <row r="202" ht="16.5" customHeight="1"/>
-    <row r="203" ht="16.5" customHeight="1"/>
-    <row r="204" ht="16.5" customHeight="1"/>
-    <row r="205" ht="16.5" customHeight="1"/>
-    <row r="206" ht="16.5" customHeight="1"/>
-    <row r="207" ht="16.5" customHeight="1"/>
-    <row r="208" ht="16.5" customHeight="1"/>
-    <row r="209" ht="16.5" customHeight="1"/>
-    <row r="210" ht="16.5" customHeight="1"/>
-    <row r="211" ht="16.5" customHeight="1"/>
-    <row r="212" ht="16.5" customHeight="1"/>
-    <row r="213" ht="16.5" customHeight="1"/>
-    <row r="214" ht="16.5" customHeight="1"/>
-    <row r="215" ht="16.5" customHeight="1"/>
-    <row r="216" ht="16.5" customHeight="1"/>
-    <row r="217" ht="16.5" customHeight="1"/>
-    <row r="218" ht="16.5" customHeight="1"/>
-    <row r="219" ht="16.5" customHeight="1"/>
-    <row r="220" ht="16.5" customHeight="1"/>
-    <row r="221" ht="16.5" customHeight="1"/>
-    <row r="222" ht="16.5" customHeight="1"/>
-    <row r="223" ht="16.5" customHeight="1"/>
-    <row r="224" ht="16.5" customHeight="1"/>
-    <row r="225" ht="16.5" customHeight="1"/>
-    <row r="226" ht="16.5" customHeight="1"/>
-    <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1"/>
-    <row r="229" ht="16.5" customHeight="1"/>
-    <row r="230" ht="16.5" customHeight="1"/>
-    <row r="231" ht="16.5" customHeight="1"/>
-    <row r="232" ht="16.5" customHeight="1"/>
-    <row r="233" ht="16.5" customHeight="1"/>
-    <row r="234" ht="16.5" customHeight="1"/>
-    <row r="235" ht="16.5" customHeight="1"/>
-    <row r="236" ht="16.5" customHeight="1"/>
-    <row r="237" ht="16.5" customHeight="1"/>
-    <row r="238" ht="16.5" customHeight="1"/>
-    <row r="239" ht="16.5" customHeight="1"/>
-    <row r="240" ht="16.5" customHeight="1"/>
-    <row r="241" ht="16.5" customHeight="1"/>
-    <row r="242" ht="16.5" customHeight="1"/>
-    <row r="243" ht="16.5" customHeight="1"/>
-    <row r="244" ht="16.5" customHeight="1"/>
-    <row r="245" ht="16.5" customHeight="1"/>
-    <row r="246" ht="16.5" customHeight="1"/>
-    <row r="247" ht="16.5" customHeight="1"/>
-    <row r="248" ht="16.5" customHeight="1"/>
-    <row r="249" ht="16.5" customHeight="1"/>
-    <row r="250" ht="16.5" customHeight="1"/>
-    <row r="251" ht="16.5" customHeight="1"/>
-    <row r="252" ht="16.5" customHeight="1"/>
-    <row r="253" ht="16.5" customHeight="1"/>
-    <row r="254" ht="16.5" customHeight="1"/>
-    <row r="255" ht="16.5" customHeight="1"/>
-    <row r="256" ht="16.5" customHeight="1"/>
-    <row r="257" ht="16.5" customHeight="1"/>
-    <row r="258" ht="16.5" customHeight="1"/>
-    <row r="259" ht="16.5" customHeight="1"/>
-    <row r="260" ht="16.5" customHeight="1"/>
-    <row r="261" ht="16.5" customHeight="1"/>
-    <row r="262" ht="16.5" customHeight="1"/>
-    <row r="263" ht="16.5" customHeight="1"/>
-    <row r="264" ht="16.5" customHeight="1"/>
-    <row r="265" ht="16.5" customHeight="1"/>
-    <row r="266" ht="16.5" customHeight="1"/>
-    <row r="267" ht="16.5" customHeight="1"/>
-    <row r="268" ht="16.5" customHeight="1"/>
-    <row r="269" ht="16.5" customHeight="1"/>
-    <row r="270" ht="16.5" customHeight="1"/>
-    <row r="271" ht="16.5" customHeight="1"/>
-    <row r="272" ht="16.5" customHeight="1"/>
-    <row r="273" ht="16.5" customHeight="1"/>
-    <row r="274" ht="16.5" customHeight="1"/>
-    <row r="275" ht="16.5" customHeight="1"/>
-    <row r="276" ht="16.5" customHeight="1"/>
-    <row r="277" ht="16.5" customHeight="1"/>
-    <row r="278" ht="16.5" customHeight="1"/>
-    <row r="279" ht="16.5" customHeight="1"/>
-    <row r="280" ht="16.5" customHeight="1"/>
-    <row r="281" ht="16.5" customHeight="1"/>
-    <row r="282" ht="16.5" customHeight="1"/>
-    <row r="283" ht="16.5" customHeight="1"/>
-    <row r="284" ht="16.5" customHeight="1"/>
-    <row r="285" ht="16.5" customHeight="1"/>
-    <row r="286" ht="16.5" customHeight="1"/>
-    <row r="287" ht="16.5" customHeight="1"/>
-    <row r="288" ht="16.5" customHeight="1"/>
-    <row r="289" ht="16.5" customHeight="1"/>
-    <row r="290" ht="16.5" customHeight="1"/>
-    <row r="291" ht="16.5" customHeight="1"/>
-    <row r="292" ht="16.5" customHeight="1"/>
-    <row r="293" ht="16.5" customHeight="1"/>
-    <row r="294" ht="16.5" customHeight="1"/>
-    <row r="295" ht="16.5" customHeight="1"/>
-    <row r="296" ht="16.5" customHeight="1"/>
-    <row r="297" ht="16.5" customHeight="1"/>
-    <row r="298" ht="16.5" customHeight="1"/>
-    <row r="299" ht="16.5" customHeight="1"/>
-    <row r="300" ht="16.5" customHeight="1"/>
-    <row r="301" ht="16.5" customHeight="1"/>
-    <row r="302" ht="16.5" customHeight="1"/>
-    <row r="303" ht="16.5" customHeight="1"/>
-    <row r="304" ht="16.5" customHeight="1"/>
-    <row r="305" ht="16.5" customHeight="1"/>
-    <row r="306" ht="16.5" customHeight="1"/>
-    <row r="307" ht="16.5" customHeight="1"/>
-    <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1"/>
-    <row r="310" ht="16.5" customHeight="1"/>
-    <row r="311" ht="16.5" customHeight="1"/>
-    <row r="312" ht="16.5" customHeight="1"/>
-    <row r="313" ht="16.5" customHeight="1"/>
-    <row r="314" ht="16.5" customHeight="1"/>
-    <row r="315" ht="16.5" customHeight="1"/>
-    <row r="316" ht="16.5" customHeight="1"/>
-    <row r="317" ht="16.5" customHeight="1"/>
-    <row r="318" ht="16.5" customHeight="1"/>
-    <row r="319" ht="16.5" customHeight="1"/>
-    <row r="320" ht="16.5" customHeight="1"/>
-    <row r="321" ht="16.5" customHeight="1"/>
-    <row r="322" ht="16.5" customHeight="1"/>
-    <row r="323" ht="16.5" customHeight="1"/>
-    <row r="324" ht="16.5" customHeight="1"/>
-    <row r="325" ht="16.5" customHeight="1"/>
-    <row r="326" ht="16.5" customHeight="1"/>
-    <row r="327" ht="16.5" customHeight="1"/>
-    <row r="328" ht="16.5" customHeight="1"/>
-    <row r="329" ht="16.5" customHeight="1"/>
-    <row r="330" ht="16.5" customHeight="1"/>
-    <row r="331" ht="16.5" customHeight="1"/>
-    <row r="332" ht="16.5" customHeight="1"/>
-    <row r="333" ht="16.5" customHeight="1"/>
-    <row r="334" ht="16.5" customHeight="1"/>
-    <row r="335" ht="16.5" customHeight="1"/>
-    <row r="336" ht="16.5" customHeight="1"/>
-    <row r="337" ht="16.5" customHeight="1"/>
-    <row r="338" ht="16.5" customHeight="1"/>
-    <row r="339" ht="16.5" customHeight="1"/>
-    <row r="340" ht="16.5" customHeight="1"/>
-    <row r="341" ht="16.5" customHeight="1"/>
-    <row r="342" ht="16.5" customHeight="1"/>
-    <row r="343" ht="16.5" customHeight="1"/>
-    <row r="344" ht="16.5" customHeight="1"/>
-    <row r="345" ht="16.5" customHeight="1"/>
-    <row r="346" ht="16.5" customHeight="1"/>
-    <row r="347" ht="16.5" customHeight="1"/>
-    <row r="348" ht="16.5" customHeight="1"/>
-    <row r="349" ht="16.5" customHeight="1"/>
-    <row r="350" ht="16.5" customHeight="1"/>
-    <row r="351" ht="16.5" customHeight="1"/>
-    <row r="352" ht="16.5" customHeight="1"/>
-    <row r="353" ht="16.5" customHeight="1"/>
-    <row r="354" ht="16.5" customHeight="1"/>
-    <row r="355" ht="16.5" customHeight="1"/>
-    <row r="356" ht="16.5" customHeight="1"/>
-    <row r="357" ht="16.5" customHeight="1"/>
-    <row r="358" ht="16.5" customHeight="1"/>
-    <row r="359" ht="16.5" customHeight="1"/>
-    <row r="360" ht="16.5" customHeight="1"/>
-    <row r="361" ht="16.5" customHeight="1"/>
-    <row r="362" ht="16.5" customHeight="1"/>
-    <row r="363" ht="16.5" customHeight="1"/>
-    <row r="364" ht="16.5" customHeight="1"/>
-    <row r="365" ht="16.5" customHeight="1"/>
-    <row r="366" ht="16.5" customHeight="1"/>
-    <row r="367" ht="16.5" customHeight="1"/>
-    <row r="368" ht="16.5" customHeight="1"/>
-    <row r="369" ht="16.5" customHeight="1"/>
-    <row r="370" ht="16.5" customHeight="1"/>
-    <row r="371" ht="16.5" customHeight="1"/>
-    <row r="372" ht="16.5" customHeight="1"/>
-    <row r="373" ht="16.5" customHeight="1"/>
-    <row r="374" ht="16.5" customHeight="1"/>
-    <row r="375" ht="16.5" customHeight="1"/>
-    <row r="376" ht="16.5" customHeight="1"/>
-    <row r="377" ht="16.5" customHeight="1"/>
-    <row r="378" ht="16.5" customHeight="1"/>
-    <row r="379" ht="16.5" customHeight="1"/>
-    <row r="380" ht="16.5" customHeight="1"/>
-    <row r="381" ht="16.5" customHeight="1"/>
-    <row r="382" ht="16.5" customHeight="1"/>
-    <row r="383" ht="16.5" customHeight="1"/>
-    <row r="384" ht="16.5" customHeight="1"/>
-    <row r="385" ht="16.5" customHeight="1"/>
-    <row r="386" ht="16.5" customHeight="1"/>
-    <row r="387" ht="16.5" customHeight="1"/>
-    <row r="388" ht="16.5" customHeight="1"/>
-    <row r="389" ht="16.5" customHeight="1"/>
-    <row r="390" ht="16.5" customHeight="1"/>
-    <row r="391" ht="16.5" customHeight="1"/>
-    <row r="392" ht="16.5" customHeight="1"/>
-    <row r="393" ht="16.5" customHeight="1"/>
-    <row r="394" ht="16.5" customHeight="1"/>
-    <row r="395" ht="16.5" customHeight="1"/>
-    <row r="396" ht="16.5" customHeight="1"/>
-    <row r="397" ht="16.5" customHeight="1"/>
-    <row r="398" ht="16.5" customHeight="1"/>
-    <row r="399" ht="16.5" customHeight="1"/>
-    <row r="400" ht="16.5" customHeight="1"/>
-    <row r="401" ht="16.5" customHeight="1"/>
-    <row r="402" ht="16.5" customHeight="1"/>
-    <row r="403" ht="16.5" customHeight="1"/>
-    <row r="404" ht="16.5" customHeight="1"/>
-    <row r="405" ht="16.5" customHeight="1"/>
-    <row r="406" ht="16.5" customHeight="1"/>
-    <row r="407" ht="16.5" customHeight="1"/>
-    <row r="408" ht="16.5" customHeight="1"/>
-    <row r="409" ht="16.5" customHeight="1"/>
-    <row r="410" ht="16.5" customHeight="1"/>
-    <row r="411" ht="16.5" customHeight="1"/>
-    <row r="412" ht="16.5" customHeight="1"/>
-    <row r="413" ht="16.5" customHeight="1"/>
-    <row r="414" ht="16.5" customHeight="1"/>
-    <row r="415" ht="16.5" customHeight="1"/>
-    <row r="416" ht="16.5" customHeight="1"/>
-    <row r="417" ht="16.5" customHeight="1"/>
-    <row r="418" ht="16.5" customHeight="1"/>
-    <row r="419" ht="16.5" customHeight="1"/>
-    <row r="420" ht="16.5" customHeight="1"/>
-    <row r="421" ht="16.5" customHeight="1"/>
-    <row r="422" ht="16.5" customHeight="1"/>
-    <row r="423" ht="16.5" customHeight="1"/>
-    <row r="424" ht="16.5" customHeight="1"/>
-    <row r="425" ht="16.5" customHeight="1"/>
-    <row r="426" ht="16.5" customHeight="1"/>
-    <row r="427" ht="16.5" customHeight="1"/>
-    <row r="428" ht="16.5" customHeight="1"/>
-    <row r="429" ht="16.5" customHeight="1"/>
-    <row r="430" ht="16.5" customHeight="1"/>
-    <row r="431" ht="16.5" customHeight="1"/>
-    <row r="432" ht="16.5" customHeight="1"/>
-    <row r="433" ht="16.5" customHeight="1"/>
-    <row r="434" ht="16.5" customHeight="1"/>
-    <row r="435" ht="16.5" customHeight="1"/>
-    <row r="436" ht="16.5" customHeight="1"/>
-    <row r="437" ht="16.5" customHeight="1"/>
-    <row r="438" ht="16.5" customHeight="1"/>
-    <row r="439" ht="16.5" customHeight="1"/>
-    <row r="440" ht="16.5" customHeight="1"/>
-    <row r="441" ht="16.5" customHeight="1"/>
-    <row r="442" ht="16.5" customHeight="1"/>
-    <row r="443" ht="16.5" customHeight="1"/>
-    <row r="444" ht="16.5" customHeight="1"/>
-    <row r="445" ht="16.5" customHeight="1"/>
-    <row r="446" ht="16.5" customHeight="1"/>
-    <row r="447" ht="16.5" customHeight="1"/>
-    <row r="448" ht="16.5" customHeight="1"/>
-    <row r="449" ht="16.5" customHeight="1"/>
-    <row r="450" ht="16.5" customHeight="1"/>
-    <row r="451" ht="16.5" customHeight="1"/>
-    <row r="452" ht="16.5" customHeight="1"/>
-    <row r="453" ht="16.5" customHeight="1"/>
-    <row r="454" ht="16.5" customHeight="1"/>
-    <row r="455" ht="16.5" customHeight="1"/>
-    <row r="456" ht="16.5" customHeight="1"/>
-    <row r="457" ht="16.5" customHeight="1"/>
-    <row r="458" ht="16.5" customHeight="1"/>
-    <row r="459" ht="16.5" customHeight="1"/>
-    <row r="460" ht="16.5" customHeight="1"/>
-    <row r="461" ht="16.5" customHeight="1"/>
-    <row r="462" ht="16.5" customHeight="1"/>
-    <row r="463" ht="16.5" customHeight="1"/>
-    <row r="464" ht="16.5" customHeight="1"/>
-    <row r="465" ht="16.5" customHeight="1"/>
-    <row r="466" ht="16.5" customHeight="1"/>
-    <row r="467" ht="16.5" customHeight="1"/>
-    <row r="468" ht="16.5" customHeight="1"/>
-    <row r="469" ht="16.5" customHeight="1"/>
-    <row r="470" ht="16.5" customHeight="1"/>
-    <row r="471" ht="16.5" customHeight="1"/>
-    <row r="472" ht="16.5" customHeight="1"/>
-    <row r="473" ht="16.5" customHeight="1"/>
-    <row r="474" ht="16.5" customHeight="1"/>
-    <row r="475" ht="16.5" customHeight="1"/>
-    <row r="476" ht="16.5" customHeight="1"/>
-    <row r="477" ht="16.5" customHeight="1"/>
-    <row r="478" ht="16.5" customHeight="1"/>
-    <row r="479" ht="16.5" customHeight="1"/>
-    <row r="480" ht="16.5" customHeight="1"/>
-    <row r="481" ht="16.5" customHeight="1"/>
-    <row r="482" ht="16.5" customHeight="1"/>
-    <row r="483" ht="16.5" customHeight="1"/>
-    <row r="484" ht="16.5" customHeight="1"/>
-    <row r="485" ht="16.5" customHeight="1"/>
-    <row r="486" ht="16.5" customHeight="1"/>
-    <row r="487" ht="16.5" customHeight="1"/>
-    <row r="488" ht="16.5" customHeight="1"/>
-    <row r="489" ht="16.5" customHeight="1"/>
-    <row r="490" ht="16.5" customHeight="1"/>
-    <row r="491" ht="16.5" customHeight="1"/>
-    <row r="492" ht="16.5" customHeight="1"/>
-    <row r="493" ht="16.5" customHeight="1"/>
-    <row r="494" ht="16.5" customHeight="1"/>
-    <row r="495" ht="16.5" customHeight="1"/>
-    <row r="496" ht="16.5" customHeight="1"/>
-    <row r="497" ht="16.5" customHeight="1"/>
-    <row r="498" ht="16.5" customHeight="1"/>
-    <row r="499" ht="16.5" customHeight="1"/>
-    <row r="500" ht="16.5" customHeight="1"/>
-    <row r="501" ht="16.5" customHeight="1"/>
-    <row r="502" ht="16.5" customHeight="1"/>
-    <row r="503" ht="16.5" customHeight="1"/>
-    <row r="504" ht="16.5" customHeight="1"/>
-    <row r="505" ht="16.5" customHeight="1"/>
-    <row r="506" ht="16.5" customHeight="1"/>
-    <row r="507" ht="16.5" customHeight="1"/>
-    <row r="508" ht="16.5" customHeight="1"/>
-    <row r="509" ht="16.5" customHeight="1"/>
-    <row r="510" ht="16.5" customHeight="1"/>
-    <row r="511" ht="16.5" customHeight="1"/>
-    <row r="512" ht="16.5" customHeight="1"/>
-    <row r="513" ht="16.5" customHeight="1"/>
-    <row r="514" ht="16.5" customHeight="1"/>
-    <row r="515" ht="16.5" customHeight="1"/>
-    <row r="516" ht="16.5" customHeight="1"/>
-    <row r="517" ht="16.5" customHeight="1"/>
-    <row r="518" ht="16.5" customHeight="1"/>
-    <row r="519" ht="16.5" customHeight="1"/>
-    <row r="520" ht="16.5" customHeight="1"/>
-    <row r="521" ht="16.5" customHeight="1"/>
-    <row r="522" ht="16.5" customHeight="1"/>
-    <row r="523" ht="16.5" customHeight="1"/>
-    <row r="524" ht="16.5" customHeight="1"/>
-    <row r="525" ht="16.5" customHeight="1"/>
-    <row r="526" ht="16.5" customHeight="1"/>
-    <row r="527" ht="16.5" customHeight="1"/>
-    <row r="528" ht="16.5" customHeight="1"/>
-    <row r="529" ht="16.5" customHeight="1"/>
-    <row r="530" ht="16.5" customHeight="1"/>
-    <row r="531" ht="16.5" customHeight="1"/>
-    <row r="532" ht="16.5" customHeight="1"/>
-    <row r="533" ht="16.5" customHeight="1"/>
-    <row r="534" ht="16.5" customHeight="1"/>
-    <row r="535" ht="16.5" customHeight="1"/>
-    <row r="536" ht="16.5" customHeight="1"/>
-    <row r="537" ht="16.5" customHeight="1"/>
-    <row r="538" ht="16.5" customHeight="1"/>
-    <row r="539" ht="16.5" customHeight="1"/>
-    <row r="540" ht="16.5" customHeight="1"/>
-    <row r="541" ht="16.5" customHeight="1"/>
-    <row r="542" ht="16.5" customHeight="1"/>
-    <row r="543" ht="16.5" customHeight="1"/>
-    <row r="544" ht="16.5" customHeight="1"/>
-    <row r="545" ht="16.5" customHeight="1"/>
-    <row r="546" ht="16.5" customHeight="1"/>
-    <row r="547" ht="16.5" customHeight="1"/>
-    <row r="548" ht="16.5" customHeight="1"/>
-    <row r="549" ht="16.5" customHeight="1"/>
-    <row r="550" ht="16.5" customHeight="1"/>
-    <row r="551" ht="16.5" customHeight="1"/>
-    <row r="552" ht="16.5" customHeight="1"/>
-    <row r="553" ht="16.5" customHeight="1"/>
-    <row r="554" ht="16.5" customHeight="1"/>
-    <row r="555" ht="16.5" customHeight="1"/>
-    <row r="556" ht="16.5" customHeight="1"/>
-    <row r="557" ht="16.5" customHeight="1"/>
-    <row r="558" ht="16.5" customHeight="1"/>
-    <row r="559" ht="16.5" customHeight="1"/>
-    <row r="560" ht="16.5" customHeight="1"/>
-    <row r="561" ht="16.5" customHeight="1"/>
-    <row r="562" ht="16.5" customHeight="1"/>
-    <row r="563" ht="16.5" customHeight="1"/>
-    <row r="564" ht="16.5" customHeight="1"/>
-    <row r="565" ht="16.5" customHeight="1"/>
-    <row r="566" ht="16.5" customHeight="1"/>
-    <row r="567" ht="16.5" customHeight="1"/>
-    <row r="568" ht="16.5" customHeight="1"/>
-    <row r="569" ht="16.5" customHeight="1"/>
-    <row r="570" ht="16.5" customHeight="1"/>
-    <row r="571" ht="16.5" customHeight="1"/>
-    <row r="572" ht="16.5" customHeight="1"/>
-    <row r="573" ht="16.5" customHeight="1"/>
-    <row r="574" ht="16.5" customHeight="1"/>
-    <row r="575" ht="16.5" customHeight="1"/>
-    <row r="576" ht="16.5" customHeight="1"/>
-    <row r="577" ht="16.5" customHeight="1"/>
-    <row r="578" ht="16.5" customHeight="1"/>
-    <row r="579" ht="16.5" customHeight="1"/>
-    <row r="580" ht="16.5" customHeight="1"/>
-    <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
-    <row r="583" ht="16.5" customHeight="1"/>
-    <row r="584" ht="16.5" customHeight="1"/>
-    <row r="585" ht="16.5" customHeight="1"/>
-    <row r="586" ht="16.5" customHeight="1"/>
-    <row r="587" ht="16.5" customHeight="1"/>
-    <row r="588" ht="16.5" customHeight="1"/>
-    <row r="589" ht="16.5" customHeight="1"/>
-    <row r="590" ht="16.5" customHeight="1"/>
-    <row r="591" ht="16.5" customHeight="1"/>
-    <row r="592" ht="16.5" customHeight="1"/>
-    <row r="593" ht="16.5" customHeight="1"/>
-    <row r="594" ht="16.5" customHeight="1"/>
-    <row r="595" ht="16.5" customHeight="1"/>
-    <row r="596" ht="16.5" customHeight="1"/>
-    <row r="597" ht="16.5" customHeight="1"/>
-    <row r="598" ht="16.5" customHeight="1"/>
-    <row r="599" ht="16.5" customHeight="1"/>
-    <row r="600" ht="16.5" customHeight="1"/>
-    <row r="601" ht="16.5" customHeight="1"/>
-    <row r="602" ht="16.5" customHeight="1"/>
-    <row r="603" ht="16.5" customHeight="1"/>
-    <row r="604" ht="16.5" customHeight="1"/>
-    <row r="605" ht="16.5" customHeight="1"/>
-    <row r="606" ht="16.5" customHeight="1"/>
-    <row r="607" ht="16.5" customHeight="1"/>
-    <row r="608" ht="16.5" customHeight="1"/>
-    <row r="609" ht="16.5" customHeight="1"/>
-    <row r="610" ht="16.5" customHeight="1"/>
-    <row r="611" ht="16.5" customHeight="1"/>
-    <row r="612" ht="16.5" customHeight="1"/>
-    <row r="613" ht="16.5" customHeight="1"/>
-    <row r="614" ht="16.5" customHeight="1"/>
-    <row r="615" ht="16.5" customHeight="1"/>
-    <row r="616" ht="16.5" customHeight="1"/>
-    <row r="617" ht="16.5" customHeight="1"/>
-    <row r="618" ht="16.5" customHeight="1"/>
-    <row r="619" ht="16.5" customHeight="1"/>
-    <row r="620" ht="16.5" customHeight="1"/>
-    <row r="621" ht="16.5" customHeight="1"/>
-    <row r="622" ht="16.5" customHeight="1"/>
-    <row r="623" ht="16.5" customHeight="1"/>
-    <row r="624" ht="16.5" customHeight="1"/>
-    <row r="625" ht="16.5" customHeight="1"/>
-    <row r="626" ht="16.5" customHeight="1"/>
-    <row r="627" ht="16.5" customHeight="1"/>
-    <row r="628" ht="16.5" customHeight="1"/>
-    <row r="629" ht="16.5" customHeight="1"/>
-    <row r="630" ht="16.5" customHeight="1"/>
-    <row r="631" ht="16.5" customHeight="1"/>
-    <row r="632" ht="16.5" customHeight="1"/>
-    <row r="633" ht="16.5" customHeight="1"/>
-    <row r="634" ht="16.5" customHeight="1"/>
-    <row r="635" ht="16.5" customHeight="1"/>
-    <row r="636" ht="16.5" customHeight="1"/>
-    <row r="637" ht="16.5" customHeight="1"/>
-    <row r="638" ht="16.5" customHeight="1"/>
-    <row r="639" ht="16.5" customHeight="1"/>
-    <row r="640" ht="16.5" customHeight="1"/>
-    <row r="641" ht="16.5" customHeight="1"/>
-    <row r="642" ht="16.5" customHeight="1"/>
-    <row r="643" ht="16.5" customHeight="1"/>
-    <row r="644" ht="16.5" customHeight="1"/>
-    <row r="645" ht="16.5" customHeight="1"/>
-    <row r="646" ht="16.5" customHeight="1"/>
-    <row r="647" ht="16.5" customHeight="1"/>
-    <row r="648" ht="16.5" customHeight="1"/>
-    <row r="649" ht="16.5" customHeight="1"/>
-    <row r="650" ht="16.5" customHeight="1"/>
-    <row r="651" ht="16.5" customHeight="1"/>
-    <row r="652" ht="16.5" customHeight="1"/>
-    <row r="653" ht="16.5" customHeight="1"/>
-    <row r="654" ht="16.5" customHeight="1"/>
-    <row r="655" ht="16.5" customHeight="1"/>
-    <row r="656" ht="16.5" customHeight="1"/>
-    <row r="657" ht="16.5" customHeight="1"/>
-    <row r="658" ht="16.5" customHeight="1"/>
-    <row r="659" ht="16.5" customHeight="1"/>
-    <row r="660" ht="16.5" customHeight="1"/>
-    <row r="661" ht="16.5" customHeight="1"/>
-    <row r="662" ht="16.5" customHeight="1"/>
-    <row r="663" ht="16.5" customHeight="1"/>
-    <row r="664" ht="16.5" customHeight="1"/>
-    <row r="665" ht="16.5" customHeight="1"/>
-    <row r="666" ht="16.5" customHeight="1"/>
-    <row r="667" ht="16.5" customHeight="1"/>
-    <row r="668" ht="16.5" customHeight="1"/>
-    <row r="669" ht="16.5" customHeight="1"/>
-    <row r="670" ht="16.5" customHeight="1"/>
-    <row r="671" ht="16.5" customHeight="1"/>
-    <row r="672" ht="16.5" customHeight="1"/>
-    <row r="673" ht="16.5" customHeight="1"/>
-    <row r="674" ht="16.5" customHeight="1"/>
-    <row r="675" ht="16.5" customHeight="1"/>
-    <row r="676" ht="16.5" customHeight="1"/>
-    <row r="677" ht="16.5" customHeight="1"/>
-    <row r="678" ht="16.5" customHeight="1"/>
-    <row r="679" ht="16.5" customHeight="1"/>
-    <row r="680" ht="16.5" customHeight="1"/>
-    <row r="681" ht="16.5" customHeight="1"/>
-    <row r="682" ht="16.5" customHeight="1"/>
-    <row r="683" ht="16.5" customHeight="1"/>
-    <row r="684" ht="16.5" customHeight="1"/>
-    <row r="685" ht="16.5" customHeight="1"/>
-    <row r="686" ht="16.5" customHeight="1"/>
-    <row r="687" ht="16.5" customHeight="1"/>
-    <row r="688" ht="16.5" customHeight="1"/>
-    <row r="689" ht="16.5" customHeight="1"/>
-    <row r="690" ht="16.5" customHeight="1"/>
-    <row r="691" ht="16.5" customHeight="1"/>
-    <row r="692" ht="16.5" customHeight="1"/>
-    <row r="693" ht="16.5" customHeight="1"/>
-    <row r="694" ht="16.5" customHeight="1"/>
-    <row r="695" ht="16.5" customHeight="1"/>
-    <row r="696" ht="16.5" customHeight="1"/>
-    <row r="697" ht="16.5" customHeight="1"/>
-    <row r="698" ht="16.5" customHeight="1"/>
-    <row r="699" ht="16.5" customHeight="1"/>
-    <row r="700" ht="16.5" customHeight="1"/>
-    <row r="701" ht="16.5" customHeight="1"/>
-    <row r="702" ht="16.5" customHeight="1"/>
-    <row r="703" ht="16.5" customHeight="1"/>
-    <row r="704" ht="16.5" customHeight="1"/>
-    <row r="705" ht="16.5" customHeight="1"/>
-    <row r="706" ht="16.5" customHeight="1"/>
-    <row r="707" ht="16.5" customHeight="1"/>
-    <row r="708" ht="16.5" customHeight="1"/>
-    <row r="709" ht="16.5" customHeight="1"/>
-    <row r="710" ht="16.5" customHeight="1"/>
-    <row r="711" ht="16.5" customHeight="1"/>
-    <row r="712" ht="16.5" customHeight="1"/>
-    <row r="713" ht="16.5" customHeight="1"/>
-    <row r="714" ht="16.5" customHeight="1"/>
-    <row r="715" ht="16.5" customHeight="1"/>
-    <row r="716" ht="16.5" customHeight="1"/>
-    <row r="717" ht="16.5" customHeight="1"/>
-    <row r="718" ht="16.5" customHeight="1"/>
-    <row r="719" ht="16.5" customHeight="1"/>
-    <row r="720" ht="16.5" customHeight="1"/>
-    <row r="721" ht="16.5" customHeight="1"/>
-    <row r="722" ht="16.5" customHeight="1"/>
-    <row r="723" ht="16.5" customHeight="1"/>
-    <row r="724" ht="16.5" customHeight="1"/>
-    <row r="725" ht="16.5" customHeight="1"/>
-    <row r="726" ht="16.5" customHeight="1"/>
-    <row r="727" ht="16.5" customHeight="1"/>
-    <row r="728" ht="16.5" customHeight="1"/>
-    <row r="729" ht="16.5" customHeight="1"/>
-    <row r="730" ht="16.5" customHeight="1"/>
-    <row r="731" ht="16.5" customHeight="1"/>
-    <row r="732" ht="16.5" customHeight="1"/>
-    <row r="733" ht="16.5" customHeight="1"/>
-    <row r="734" ht="16.5" customHeight="1"/>
-    <row r="735" ht="16.5" customHeight="1"/>
-    <row r="736" ht="16.5" customHeight="1"/>
-    <row r="737" ht="16.5" customHeight="1"/>
-    <row r="738" ht="16.5" customHeight="1"/>
-    <row r="739" ht="16.5" customHeight="1"/>
-    <row r="740" ht="16.5" customHeight="1"/>
-    <row r="741" ht="16.5" customHeight="1"/>
-    <row r="742" ht="16.5" customHeight="1"/>
-    <row r="743" ht="16.5" customHeight="1"/>
-    <row r="744" ht="16.5" customHeight="1"/>
-    <row r="745" ht="16.5" customHeight="1"/>
-    <row r="746" ht="16.5" customHeight="1"/>
-    <row r="747" ht="16.5" customHeight="1"/>
-    <row r="748" ht="16.5" customHeight="1"/>
-    <row r="749" ht="16.5" customHeight="1"/>
-    <row r="750" ht="16.5" customHeight="1"/>
-    <row r="751" ht="16.5" customHeight="1"/>
-    <row r="752" ht="16.5" customHeight="1"/>
-    <row r="753" ht="16.5" customHeight="1"/>
-    <row r="754" ht="16.5" customHeight="1"/>
-    <row r="755" ht="16.5" customHeight="1"/>
-    <row r="756" ht="16.5" customHeight="1"/>
-    <row r="757" ht="16.5" customHeight="1"/>
-    <row r="758" ht="16.5" customHeight="1"/>
-    <row r="759" ht="16.5" customHeight="1"/>
-    <row r="760" ht="16.5" customHeight="1"/>
-    <row r="761" ht="16.5" customHeight="1"/>
-    <row r="762" ht="16.5" customHeight="1"/>
-    <row r="763" ht="16.5" customHeight="1"/>
-    <row r="764" ht="16.5" customHeight="1"/>
-    <row r="765" ht="16.5" customHeight="1"/>
-    <row r="766" ht="16.5" customHeight="1"/>
-    <row r="767" ht="16.5" customHeight="1"/>
-    <row r="768" ht="16.5" customHeight="1"/>
-    <row r="769" ht="16.5" customHeight="1"/>
-    <row r="770" ht="16.5" customHeight="1"/>
-    <row r="771" ht="16.5" customHeight="1"/>
-    <row r="772" ht="16.5" customHeight="1"/>
-    <row r="773" ht="16.5" customHeight="1"/>
-    <row r="774" ht="16.5" customHeight="1"/>
-    <row r="775" ht="16.5" customHeight="1"/>
-    <row r="776" ht="16.5" customHeight="1"/>
-    <row r="777" ht="16.5" customHeight="1"/>
-    <row r="778" ht="16.5" customHeight="1"/>
-    <row r="779" ht="16.5" customHeight="1"/>
-    <row r="780" ht="16.5" customHeight="1"/>
-    <row r="781" ht="16.5" customHeight="1"/>
-    <row r="782" ht="16.5" customHeight="1"/>
-    <row r="783" ht="16.5" customHeight="1"/>
-    <row r="784" ht="16.5" customHeight="1"/>
-    <row r="785" ht="16.5" customHeight="1"/>
-    <row r="786" ht="16.5" customHeight="1"/>
-    <row r="787" ht="16.5" customHeight="1"/>
-    <row r="788" ht="16.5" customHeight="1"/>
-    <row r="789" ht="16.5" customHeight="1"/>
-    <row r="790" ht="16.5" customHeight="1"/>
-    <row r="791" ht="16.5" customHeight="1"/>
-    <row r="792" ht="16.5" customHeight="1"/>
-    <row r="793" ht="16.5" customHeight="1"/>
-    <row r="794" ht="16.5" customHeight="1"/>
-    <row r="795" ht="16.5" customHeight="1"/>
-    <row r="796" ht="16.5" customHeight="1"/>
-    <row r="797" ht="16.5" customHeight="1"/>
-    <row r="798" ht="16.5" customHeight="1"/>
-    <row r="799" ht="16.5" customHeight="1"/>
-    <row r="800" ht="16.5" customHeight="1"/>
-    <row r="801" ht="16.5" customHeight="1"/>
-    <row r="802" ht="16.5" customHeight="1"/>
-    <row r="803" ht="16.5" customHeight="1"/>
-    <row r="804" ht="16.5" customHeight="1"/>
-    <row r="805" ht="16.5" customHeight="1"/>
-    <row r="806" ht="16.5" customHeight="1"/>
-    <row r="807" ht="16.5" customHeight="1"/>
-    <row r="808" ht="16.5" customHeight="1"/>
-    <row r="809" ht="16.5" customHeight="1"/>
-    <row r="810" ht="16.5" customHeight="1"/>
-    <row r="811" ht="16.5" customHeight="1"/>
-    <row r="812" ht="16.5" customHeight="1"/>
-    <row r="813" ht="16.5" customHeight="1"/>
-    <row r="814" ht="16.5" customHeight="1"/>
-    <row r="815" ht="16.5" customHeight="1"/>
-    <row r="816" ht="16.5" customHeight="1"/>
-    <row r="817" ht="16.5" customHeight="1"/>
-    <row r="818" ht="16.5" customHeight="1"/>
-    <row r="819" ht="16.5" customHeight="1"/>
-    <row r="820" ht="16.5" customHeight="1"/>
-    <row r="821" ht="16.5" customHeight="1"/>
-    <row r="822" ht="16.5" customHeight="1"/>
-    <row r="823" ht="16.5" customHeight="1"/>
-    <row r="824" ht="16.5" customHeight="1"/>
-    <row r="825" ht="16.5" customHeight="1"/>
-    <row r="826" ht="16.5" customHeight="1"/>
-    <row r="827" ht="16.5" customHeight="1"/>
-    <row r="828" ht="16.5" customHeight="1"/>
-    <row r="829" ht="16.5" customHeight="1"/>
-    <row r="830" ht="16.5" customHeight="1"/>
-    <row r="831" ht="16.5" customHeight="1"/>
-    <row r="832" ht="16.5" customHeight="1"/>
-    <row r="833" ht="16.5" customHeight="1"/>
-    <row r="834" ht="16.5" customHeight="1"/>
-    <row r="835" ht="16.5" customHeight="1"/>
-    <row r="836" ht="16.5" customHeight="1"/>
-    <row r="837" ht="16.5" customHeight="1"/>
-    <row r="838" ht="16.5" customHeight="1"/>
-    <row r="839" ht="16.5" customHeight="1"/>
-    <row r="840" ht="16.5" customHeight="1"/>
-    <row r="841" ht="16.5" customHeight="1"/>
-    <row r="842" ht="16.5" customHeight="1"/>
-    <row r="843" ht="16.5" customHeight="1"/>
-    <row r="844" ht="16.5" customHeight="1"/>
-    <row r="845" ht="16.5" customHeight="1"/>
-    <row r="846" ht="16.5" customHeight="1"/>
-    <row r="847" ht="16.5" customHeight="1"/>
-    <row r="848" ht="16.5" customHeight="1"/>
-    <row r="849" ht="16.5" customHeight="1"/>
-    <row r="850" ht="16.5" customHeight="1"/>
-    <row r="851" ht="16.5" customHeight="1"/>
-    <row r="852" ht="16.5" customHeight="1"/>
-    <row r="853" ht="16.5" customHeight="1"/>
-    <row r="854" ht="16.5" customHeight="1"/>
-    <row r="855" ht="16.5" customHeight="1"/>
-    <row r="856" ht="16.5" customHeight="1"/>
-    <row r="857" ht="16.5" customHeight="1"/>
-    <row r="858" ht="16.5" customHeight="1"/>
-    <row r="859" ht="16.5" customHeight="1"/>
-    <row r="860" ht="16.5" customHeight="1"/>
-    <row r="861" ht="16.5" customHeight="1"/>
-    <row r="862" ht="16.5" customHeight="1"/>
-    <row r="863" ht="16.5" customHeight="1"/>
-    <row r="864" ht="16.5" customHeight="1"/>
-    <row r="865" ht="16.5" customHeight="1"/>
-    <row r="866" ht="16.5" customHeight="1"/>
-    <row r="867" ht="16.5" customHeight="1"/>
-    <row r="868" ht="16.5" customHeight="1"/>
-    <row r="869" ht="16.5" customHeight="1"/>
-    <row r="870" ht="16.5" customHeight="1"/>
-    <row r="871" ht="16.5" customHeight="1"/>
-    <row r="872" ht="16.5" customHeight="1"/>
-    <row r="873" ht="16.5" customHeight="1"/>
-    <row r="874" ht="16.5" customHeight="1"/>
-    <row r="875" ht="16.5" customHeight="1"/>
-    <row r="876" ht="16.5" customHeight="1"/>
-    <row r="877" ht="16.5" customHeight="1"/>
-    <row r="878" ht="16.5" customHeight="1"/>
-    <row r="879" ht="16.5" customHeight="1"/>
-    <row r="880" ht="16.5" customHeight="1"/>
-    <row r="881" ht="16.5" customHeight="1"/>
-    <row r="882" ht="16.5" customHeight="1"/>
-    <row r="883" ht="16.5" customHeight="1"/>
-    <row r="884" ht="16.5" customHeight="1"/>
-    <row r="885" ht="16.5" customHeight="1"/>
-    <row r="886" ht="16.5" customHeight="1"/>
-    <row r="887" ht="16.5" customHeight="1"/>
-    <row r="888" ht="16.5" customHeight="1"/>
-    <row r="889" ht="16.5" customHeight="1"/>
-    <row r="890" ht="16.5" customHeight="1"/>
-    <row r="891" ht="16.5" customHeight="1"/>
-    <row r="892" ht="16.5" customHeight="1"/>
-    <row r="893" ht="16.5" customHeight="1"/>
-    <row r="894" ht="16.5" customHeight="1"/>
-    <row r="895" ht="16.5" customHeight="1"/>
-    <row r="896" ht="16.5" customHeight="1"/>
-    <row r="897" ht="16.5" customHeight="1"/>
-    <row r="898" ht="16.5" customHeight="1"/>
-    <row r="899" ht="16.5" customHeight="1"/>
-    <row r="900" ht="16.5" customHeight="1"/>
-    <row r="901" ht="16.5" customHeight="1"/>
-    <row r="902" ht="16.5" customHeight="1"/>
-    <row r="903" ht="16.5" customHeight="1"/>
-    <row r="904" ht="16.5" customHeight="1"/>
-    <row r="905" ht="16.5" customHeight="1"/>
-    <row r="906" ht="16.5" customHeight="1"/>
-    <row r="907" ht="16.5" customHeight="1"/>
-    <row r="908" ht="16.5" customHeight="1"/>
-    <row r="909" ht="16.5" customHeight="1"/>
-    <row r="910" ht="16.5" customHeight="1"/>
-    <row r="911" ht="16.5" customHeight="1"/>
-    <row r="912" ht="16.5" customHeight="1"/>
-    <row r="913" ht="16.5" customHeight="1"/>
-    <row r="914" ht="16.5" customHeight="1"/>
-    <row r="915" ht="16.5" customHeight="1"/>
-    <row r="916" ht="16.5" customHeight="1"/>
-    <row r="917" ht="16.5" customHeight="1"/>
-    <row r="918" ht="16.5" customHeight="1"/>
-    <row r="919" ht="16.5" customHeight="1"/>
-    <row r="920" ht="16.5" customHeight="1"/>
-    <row r="921" ht="16.5" customHeight="1"/>
-    <row r="922" ht="16.5" customHeight="1"/>
-    <row r="923" ht="16.5" customHeight="1"/>
-    <row r="924" ht="16.5" customHeight="1"/>
-    <row r="925" ht="16.5" customHeight="1"/>
-    <row r="926" ht="16.5" customHeight="1"/>
-    <row r="927" ht="16.5" customHeight="1"/>
-    <row r="928" ht="16.5" customHeight="1"/>
-    <row r="929" ht="16.5" customHeight="1"/>
-    <row r="930" ht="16.5" customHeight="1"/>
-    <row r="931" ht="16.5" customHeight="1"/>
-    <row r="932" ht="16.5" customHeight="1"/>
-    <row r="933" ht="16.5" customHeight="1"/>
-    <row r="934" ht="16.5" customHeight="1"/>
-    <row r="935" ht="16.5" customHeight="1"/>
-    <row r="936" ht="16.5" customHeight="1"/>
-    <row r="937" ht="16.5" customHeight="1"/>
-    <row r="938" ht="16.5" customHeight="1"/>
-    <row r="939" ht="16.5" customHeight="1"/>
-    <row r="940" ht="16.5" customHeight="1"/>
-    <row r="941" ht="16.5" customHeight="1"/>
-    <row r="942" ht="16.5" customHeight="1"/>
-    <row r="943" ht="16.5" customHeight="1"/>
-    <row r="944" ht="16.5" customHeight="1"/>
-    <row r="945" ht="16.5" customHeight="1"/>
-    <row r="946" ht="16.5" customHeight="1"/>
-    <row r="947" ht="16.5" customHeight="1"/>
-    <row r="948" ht="16.5" customHeight="1"/>
-    <row r="949" ht="16.5" customHeight="1"/>
-    <row r="950" ht="16.5" customHeight="1"/>
-    <row r="951" ht="16.5" customHeight="1"/>
-    <row r="952" ht="16.5" customHeight="1"/>
-    <row r="953" ht="16.5" customHeight="1"/>
-    <row r="954" ht="16.5" customHeight="1"/>
-    <row r="955" ht="16.5" customHeight="1"/>
-    <row r="956" ht="16.5" customHeight="1"/>
-    <row r="957" ht="16.5" customHeight="1"/>
-    <row r="958" ht="16.5" customHeight="1"/>
-    <row r="959" ht="16.5" customHeight="1"/>
-    <row r="960" ht="16.5" customHeight="1"/>
-    <row r="961" ht="16.5" customHeight="1"/>
-    <row r="962" ht="16.5" customHeight="1"/>
-    <row r="963" ht="16.5" customHeight="1"/>
-    <row r="964" ht="16.5" customHeight="1"/>
-    <row r="965" ht="16.5" customHeight="1"/>
-    <row r="966" ht="16.5" customHeight="1"/>
-    <row r="967" ht="16.5" customHeight="1"/>
-    <row r="968" ht="16.5" customHeight="1"/>
-    <row r="969" ht="16.5" customHeight="1"/>
-    <row r="970" ht="16.5" customHeight="1"/>
-    <row r="971" ht="16.5" customHeight="1"/>
-    <row r="972" ht="16.5" customHeight="1"/>
-    <row r="973" ht="16.5" customHeight="1"/>
-    <row r="974" ht="16.5" customHeight="1"/>
-    <row r="975" ht="16.5" customHeight="1"/>
-    <row r="976" ht="16.5" customHeight="1"/>
-    <row r="977" ht="16.5" customHeight="1"/>
-    <row r="978" ht="16.5" customHeight="1"/>
-    <row r="979" ht="16.5" customHeight="1"/>
-    <row r="980" ht="16.5" customHeight="1"/>
-    <row r="981" ht="16.5" customHeight="1"/>
-    <row r="982" ht="16.5" customHeight="1"/>
-    <row r="983" ht="16.5" customHeight="1"/>
-    <row r="984" ht="16.5" customHeight="1"/>
-    <row r="985" ht="16.5" customHeight="1"/>
-    <row r="986" ht="16.5" customHeight="1"/>
-    <row r="987" ht="16.5" customHeight="1"/>
-    <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-    <row r="991" ht="16.5" customHeight="1"/>
-    <row r="992" ht="16.5" customHeight="1"/>
-    <row r="993" ht="16.5" customHeight="1"/>
-    <row r="994" ht="16.5" customHeight="1"/>
-    <row r="995" ht="16.5" customHeight="1"/>
-    <row r="996" ht="16.5" customHeight="1"/>
-    <row r="997" ht="16.5" customHeight="1"/>
-    <row r="998" ht="16.5" customHeight="1"/>
-    <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Stage1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CEAE2E-1DB5-4D20-BF82-8171E452F70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628ACFD1-02AC-0E44-9CA2-E937EA1FB414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -1421,7 +1421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="139">
   <si>
     <t>파일명</t>
   </si>
@@ -1987,6 +1987,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2367,9 +2368,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -3447,14 +3448,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -4576,14 +4577,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -5707,19 +5708,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="72.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="72.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.7109375" customWidth="1"/>
-    <col min="7" max="26" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="59.6640625" customWidth="1"/>
+    <col min="7" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -7486,17 +7487,17 @@
   <dimension ref="A1:F1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="78.83203125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -7688,9 +7689,13 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="8" t="s">
@@ -8967,11 +8972,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -10071,17 +10076,17 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -10232,6 +10237,12 @@
       </c>
       <c r="C11" s="1">
         <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
@@ -11246,14 +11257,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -12359,14 +12370,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -13472,14 +13483,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -14595,14 +14606,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Stage1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628ACFD1-02AC-0E44-9CA2-E937EA1FB414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="!Sample" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="1-1, main-0" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="1-1, main-1" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="1-1, 1-2" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="1-1, 1-4-1" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="1-1, 1-4-2" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="1-1, 1-5" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="1-1, 2-1" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="1-1, 2-2" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="1-1, 2-3" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="1-1, 2-5" sheetId="11" r:id="rId14"/>
+    <sheet name="!Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="1-1, main-0" sheetId="2" r:id="rId2"/>
+    <sheet name="1-1, main-1" sheetId="3" r:id="rId3"/>
+    <sheet name="1-1, 1-2" sheetId="4" r:id="rId4"/>
+    <sheet name="1-1, 1-4-1" sheetId="5" r:id="rId5"/>
+    <sheet name="1-1, 1-4-2" sheetId="6" r:id="rId6"/>
+    <sheet name="1-1, 1-5" sheetId="7" r:id="rId7"/>
+    <sheet name="1-1, 2-1" sheetId="8" r:id="rId8"/>
+    <sheet name="1-1, 2-2" sheetId="9" r:id="rId9"/>
+    <sheet name="1-1, 2-3" sheetId="10" r:id="rId10"/>
+    <sheet name="1-1, 2-5" sheetId="11" r:id="rId11"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="wH5wkL/R6KnKL+Cr+aEbs+ra+SQtp9X7HZFG5MyBSao="/>
@@ -26,31 +35,22 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8D0g
-UISU    (2023-06-16 00:08:24)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0U
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -66,11 +66,46 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8D0g
+UISU    (2023-06-16 00:08:24)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dy0
 UISU    (2023-06-16 00:08:24)
 Default = -1
@@ -78,11 +113,20 @@
 Action1 = 1
 …
 Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dys
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -104,11 +148,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - true)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miGiO5oOROE2z51XIT5hjkCyAW2Kg=="/>
     </ext>
   </extLst>
@@ -116,14 +161,22 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0s
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -139,11 +192,67 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8Dyo
+UISU    (2023-06-16 00:08:24)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8DyU
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0k
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -165,40 +274,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8Dyo
-UISU    (2023-06-16 00:08:24)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8DyU
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mixVKUyE0wwfbMZjy33xbhoSOIuKQ=="/>
     </ext>
   </extLst>
@@ -206,14 +287,22 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJa4
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -229,11 +318,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dz8
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -246,11 +344,20 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0A
 UISU    (2023-06-16 00:08:24)
 Default = -1
@@ -258,11 +365,20 @@
 Action1 = 1
 …
 Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dyw
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -284,11 +400,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhNfargyqhP6JoJRmx3nbATklCyhw=="/>
     </ext>
   </extLst>
@@ -296,26 +413,51 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8D00
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8Dy4
 UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+0: NONE
+1: 대화
+2: 선택지 (1, 2, 3)
+3: 선택지 종료
+4: 맵 이동 (이동할 Scene 이름 - contents)
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0Y
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -328,11 +470,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8D00
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0M
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -354,12 +526,36 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C4">
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgG95bWmd8XHP83Qe4eRUPI7X/pMQ=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8Dy4
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8Dyg
 UISU    (2023-06-16 00:08:24)
 0: NONE
 1: 대화
@@ -374,38 +570,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgG95bWmd8XHP83Qe4eRUPI7X/pMQ=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJbQ
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJao
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -418,11 +596,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJbQ
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0o
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -444,31 +652,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8Dyg
-UISU    (2023-06-16 00:08:24)
-0: NONE
-1: 대화
-2: 선택지 (1, 2, 3)
-3: 선택지 종료
-4: 맵 이동 (이동할 Scene 이름 - contents)
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhDjHzotByxqjM27jYVsbqAKTG5ag=="/>
     </ext>
   </extLst>
@@ -476,14 +665,22 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJbU
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -499,11 +696,46 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8DyE
+UISU    (2023-06-16 00:08:24)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0c
 UISU    (2023-06-16 00:08:24)
 Default = -1
@@ -511,11 +743,20 @@
 Action1 = 1
 …
 Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0Q
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -537,28 +778,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8DyE
-UISU    (2023-06-16 00:08:24)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh75xHD11JdKgONkP9LZJQChhVOtQ=="/>
     </ext>
   </extLst>
@@ -566,14 +791,51 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8DyI
+UISU    (2023-06-16 00:08:24)
+0: NONE
+1: 대화
+2: 선택지 (1, 2, 3)
+3: 선택지 종료
+4: 맵 이동 (이동할 Scene 이름 - contents)
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJbc
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -586,11 +848,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8DyM
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dz4
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -612,24 +904,36 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh5Qcg0pMhe55ilV3LhVvxW50RomQ=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8DyM
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8DyI
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJa8
 UISU    (2023-06-16 00:08:24)
 0: NONE
 1: 대화
@@ -644,26 +948,67 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh5Qcg0pMhe55ilV3LhVvxW50RomQ=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="F4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJaw
+UISU    (2023-06-16 00:08:24)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYE8D0I
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJbM
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -685,60 +1030,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJa8
-UISU    (2023-06-16 00:08:24)
-0: NONE
-1: 대화
-2: 선택지 (1, 2, 3)
-3: 선택지 종료
-4: 맵 이동 (이동할 Scene 이름 - contents)
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJaw
-UISU    (2023-06-16 00:08:24)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzYE8D0I
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjUEO2nZ2NtlrVFgfNjfaQRHUSZ4g=="/>
     </ext>
   </extLst>
@@ -746,26 +1043,22 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJbI
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJbA
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -781,11 +1074,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJas
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -798,11 +1100,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJbI
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dyk
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -824,11 +1156,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mioUV69w20es/yytdeQGPg6J7gj4g=="/>
     </ext>
   </extLst>
@@ -836,26 +1169,22 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJbE
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0w
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -871,11 +1200,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8Dyc
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -888,11 +1226,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJbE
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8DyY
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -914,11 +1282,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgZ8Iq1Vh2Ke0s/YyyL7nRzKfmScA=="/>
     </ext>
   </extLst>
@@ -926,26 +1295,22 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzYJhJbY
-UISU    (2023-06-16 00:08:24)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYJhJa0
 UISU    (2023-06-16 00:08:24)
 0: NONE
@@ -961,11 +1326,20 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8D0E
 UISU    (2023-06-16 00:08:24)
 Dubby = -1,
@@ -978,11 +1352,41 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzYJhJbY
+UISU    (2023-06-16 00:08:24)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzYE8DyQ
 서 의수    (2023-06-16 00:08:24)
 이미 사용하고 있는 구분자
@@ -1004,11 +1408,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mijeaTuGFtq/+EHRgBUQkxCStXTTw=="/>
     </ext>
   </extLst>
@@ -1016,7 +1421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="139">
   <si>
     <t>파일명</t>
   </si>
@@ -1114,25 +1519,31 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;변덕&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1146,25 +1557,31 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;완고&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1286,34 +1703,42 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;다정&gt;&lt;/b</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1327,25 +1752,31 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;이성&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1524,32 +1955,90 @@
   <si>
     <t>(나의 작품들···.)</t>
   </si>
+  <si>
+    <t>스케치북 미니게임</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>손전등 미니게임</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="A고딕12"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1557,7 +2046,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1585,7 +2074,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1599,105 +2094,77 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1887,29 +2354,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.86"/>
+    <col min="1" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +2398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1949,7 +2418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1969,18 +2438,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1"/>
-    <row r="6" ht="16.5" customHeight="1"/>
-    <row r="7" ht="16.5" customHeight="1"/>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -2966,33 +3435,30 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>130</v>
       </c>
@@ -3002,7 +3468,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3062,7 +3528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -3070,16 +3536,16 @@
         <v>131</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -3087,32 +3553,32 @@
         <v>132</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="C7" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -4098,33 +4564,30 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>133</v>
       </c>
@@ -4134,7 +4597,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4154,7 +4617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +4637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4194,7 +4657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -4202,16 +4665,16 @@
         <v>124</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -4219,10 +4682,10 @@
         <v>134</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -4230,25 +4693,25 @@
         <v>127</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="C8" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -5234,40 +5697,39 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.0"/>
-    <col customWidth="1" min="2" max="2" width="72.57"/>
-    <col customWidth="1" min="3" max="3" width="14.29"/>
-    <col customWidth="1" min="4" max="4" width="14.0"/>
-    <col customWidth="1" min="5" max="5" width="11.71"/>
-    <col customWidth="1" min="6" max="6" width="59.71"/>
-    <col customWidth="1" min="7" max="26" width="8.86"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="72.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="59.6640625" customWidth="1"/>
+    <col min="7" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5287,7 +5749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5307,7 +5769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -5327,7 +5789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -5335,21 +5797,21 @@
         <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -5357,25 +5819,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5383,7 +5845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -5391,19 +5853,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -5411,7 +5873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -5419,19 +5881,19 @@
         <v>31</v>
       </c>
       <c r="C11" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5439,7 +5901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -5447,23 +5909,23 @@
         <v>34</v>
       </c>
       <c r="C13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -5471,13 +5933,13 @@
         <v>35</v>
       </c>
       <c r="C15" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -5485,19 +5947,19 @@
         <v>36</v>
       </c>
       <c r="C16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -5505,13 +5967,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -5519,13 +5981,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -5533,13 +5995,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -5547,7 +6009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -5555,17 +6017,17 @@
         <v>45</v>
       </c>
       <c r="C21" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -5573,13 +6035,13 @@
         <v>36</v>
       </c>
       <c r="C22" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" ht="16.5" customHeight="1">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -5587,17 +6049,17 @@
         <v>46</v>
       </c>
       <c r="C23" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -5605,25 +6067,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" ht="16.5" customHeight="1">
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -5631,455 +6093,466 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C27" s="8">
-        <v>6.0</v>
+        <v>8</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="8">
-        <v>7.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="C30" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" ht="16.5" customHeight="1">
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C32" s="8">
-        <v>11.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="8">
-        <v>7.0</v>
+        <v>11</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="F33" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="8">
+        <v>7</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="C35" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>7.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C36" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D36" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>7</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="10">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>64</v>
+      <c r="F37" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C38" s="10">
-        <v>6.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>66</v>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C39" s="10">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
+      <c r="F39" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" ht="16.5" customHeight="1">
+    <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>68</v>
+        <v>19</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D41" s="10">
-        <v>4.0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
       <c r="A42" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>4</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A43" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="C43" s="10">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A44" s="10"/>
       <c r="B44" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="10">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A45" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="B45" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="10">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="10">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
+      <c r="F46" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="C47" s="10">
-        <v>3.0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" ht="16.5" customHeight="1">
+    <row r="48" spans="1:6" ht="16.5" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10">
-        <v>11.0</v>
+        <v>3</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" customHeight="1">
       <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
-        <v>77</v>
-      </c>
+      <c r="B49" s="11"/>
       <c r="C49" s="10">
-        <v>6.0</v>
+        <v>11</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="10" t="s">
-        <v>53</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A50" s="10"/>
       <c r="B50" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="10">
-        <v>4.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A51" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="C51" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="D51" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="10">
+        <v>4</v>
+      </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" customHeight="1">
       <c r="A52" s="10"/>
-      <c r="B52" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="B52" s="11"/>
       <c r="C52" s="10">
-        <v>6.0</v>
+        <v>11</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>82</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C53" s="10">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
+      <c r="F53" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11" t="s">
-        <v>43</v>
+    <row r="55" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A55" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C55" s="10">
-        <v>6.0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="10">
+        <v>6</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="B56" s="12"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
+    <row r="57" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="60" spans="1:6" ht="16.5" customHeight="1">
       <c r="B60" s="12"/>
     </row>
-    <row r="61" ht="16.5" customHeight="1">
+    <row r="61" spans="1:6" ht="16.5" customHeight="1">
       <c r="B61" s="12"/>
     </row>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1">
-      <c r="B64" s="12"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
+    <row r="62" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="64" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="65" spans="2:2" ht="16.5" customHeight="1">
       <c r="B65" s="12"/>
     </row>
-    <row r="66" ht="16.5" customHeight="1">
+    <row r="66" spans="2:2" ht="16.5" customHeight="1">
       <c r="B66" s="12"/>
     </row>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="67" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="69" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="70" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="71" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="72" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="73" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="74" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="75" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="76" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="77" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="78" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="79" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="80" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1"/>
@@ -7000,39 +7473,39 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="78.86"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="78.83203125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7052,7 +7525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7072,7 +7545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7092,7 +7565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
@@ -7100,21 +7573,21 @@
         <v>85</v>
       </c>
       <c r="C5" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -7122,25 +7595,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -7148,7 +7621,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
@@ -7156,343 +7629,380 @@
         <v>89</v>
       </c>
       <c r="C9" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="8">
-        <v>6.0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="8">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
+      <c r="F12" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="8">
-        <v>6.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="8">
-        <v>6.0</v>
+        <v>11</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C17" s="8">
-        <v>1.0</v>
+        <v>8</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>7.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="C20" s="8">
-        <v>11.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="C24" s="8">
+        <v>7</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="C25" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7</v>
+      </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="F26" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="5">
-        <v>1.0</v>
+        <v>11</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="F27" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C28" s="5">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>112</v>
+      <c r="F28" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C29" s="5">
-        <v>11.0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="C30" s="5">
-        <v>5.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>114</v>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C31" s="5">
-        <v>4.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" ht="16.5" customHeight="1"/>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="16.5" customHeight="1"/>
-    <row r="35" ht="16.5" customHeight="1"/>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
-    <row r="40" ht="16.5" customHeight="1"/>
-    <row r="41" ht="16.5" customHeight="1"/>
-    <row r="42" ht="16.5" customHeight="1"/>
-    <row r="43" ht="16.5" customHeight="1"/>
-    <row r="44" ht="16.5" customHeight="1"/>
-    <row r="45" ht="16.5" customHeight="1"/>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="5">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="48" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="49" ht="16.5" customHeight="1"/>
     <row r="50" ht="16.5" customHeight="1"/>
     <row r="51" ht="16.5" customHeight="1"/>
@@ -8445,36 +8955,36 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
+    <row r="1003" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="26.0"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8494,7 +9004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -8514,7 +9024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -8534,7 +9044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -8542,33 +9052,33 @@
         <v>116</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="C6" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1"/>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -9554,33 +10064,32 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.71"/>
-    <col customWidth="1" min="2" max="2" width="77.57"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>117</v>
       </c>
@@ -9590,7 +10099,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9610,7 +10119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -9630,7 +10139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -9650,7 +10159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -9658,16 +10167,16 @@
         <v>118</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -9675,56 +10184,1194 @@
         <v>119</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="C10" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="20" ht="16.5" customHeight="1"/>
+    <row r="21" ht="16.5" customHeight="1"/>
+    <row r="22" ht="16.5" customHeight="1"/>
+    <row r="23" ht="16.5" customHeight="1"/>
+    <row r="24" ht="16.5" customHeight="1"/>
+    <row r="25" ht="16.5" customHeight="1"/>
+    <row r="26" ht="16.5" customHeight="1"/>
+    <row r="27" ht="16.5" customHeight="1"/>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1"/>
+    <row r="30" ht="16.5" customHeight="1"/>
+    <row r="31" ht="16.5" customHeight="1"/>
+    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="33" ht="16.5" customHeight="1"/>
+    <row r="34" ht="16.5" customHeight="1"/>
+    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="36" ht="16.5" customHeight="1"/>
+    <row r="37" ht="16.5" customHeight="1"/>
+    <row r="38" ht="16.5" customHeight="1"/>
+    <row r="39" ht="16.5" customHeight="1"/>
+    <row r="40" ht="16.5" customHeight="1"/>
+    <row r="41" ht="16.5" customHeight="1"/>
+    <row r="42" ht="16.5" customHeight="1"/>
+    <row r="43" ht="16.5" customHeight="1"/>
+    <row r="44" ht="16.5" customHeight="1"/>
+    <row r="45" ht="16.5" customHeight="1"/>
+    <row r="46" ht="16.5" customHeight="1"/>
+    <row r="47" ht="16.5" customHeight="1"/>
+    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="49" ht="16.5" customHeight="1"/>
+    <row r="50" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1"/>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+    <row r="986" ht="16.5" customHeight="1"/>
+    <row r="987" ht="16.5" customHeight="1"/>
+    <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+    <row r="991" ht="16.5" customHeight="1"/>
+    <row r="992" ht="16.5" customHeight="1"/>
+    <row r="993" ht="16.5" customHeight="1"/>
+    <row r="994" ht="16.5" customHeight="1"/>
+    <row r="995" ht="16.5" customHeight="1"/>
+    <row r="996" ht="16.5" customHeight="1"/>
+    <row r="997" ht="16.5" customHeight="1"/>
+    <row r="998" ht="16.5" customHeight="1"/>
+    <row r="999" ht="16.5" customHeight="1"/>
+    <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -10710,35 +12357,32 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.71"/>
-    <col customWidth="1" min="2" max="2" width="46.43"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -10746,7 +12390,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10766,7 +12410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -10786,7 +12430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -10806,41 +12450,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="C6" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1"/>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -11826,35 +13470,32 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -11862,7 +13503,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11882,7 +13523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -11902,7 +13543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -11922,41 +13563,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>7.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C6" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1"/>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -12942,35 +14593,32 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -12978,7 +14626,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12998,7 +14646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -13018,7 +14666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -13038,24 +14686,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -13063,26 +14711,26 @@
         <v>127</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="C7" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -14068,1136 +15716,9 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="74.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="C7" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1"/>
-    <row r="9" ht="16.5" customHeight="1"/>
-    <row r="10" ht="16.5" customHeight="1"/>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
-    <row r="20" ht="16.5" customHeight="1"/>
-    <row r="21" ht="16.5" customHeight="1"/>
-    <row r="22" ht="16.5" customHeight="1"/>
-    <row r="23" ht="16.5" customHeight="1"/>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="16.5" customHeight="1"/>
-    <row r="35" ht="16.5" customHeight="1"/>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
-    <row r="40" ht="16.5" customHeight="1"/>
-    <row r="41" ht="16.5" customHeight="1"/>
-    <row r="42" ht="16.5" customHeight="1"/>
-    <row r="43" ht="16.5" customHeight="1"/>
-    <row r="44" ht="16.5" customHeight="1"/>
-    <row r="45" ht="16.5" customHeight="1"/>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
-    <row r="49" ht="16.5" customHeight="1"/>
-    <row r="50" ht="16.5" customHeight="1"/>
-    <row r="51" ht="16.5" customHeight="1"/>
-    <row r="52" ht="16.5" customHeight="1"/>
-    <row r="53" ht="16.5" customHeight="1"/>
-    <row r="54" ht="16.5" customHeight="1"/>
-    <row r="55" ht="16.5" customHeight="1"/>
-    <row r="56" ht="16.5" customHeight="1"/>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
-    <row r="97" ht="16.5" customHeight="1"/>
-    <row r="98" ht="16.5" customHeight="1"/>
-    <row r="99" ht="16.5" customHeight="1"/>
-    <row r="100" ht="16.5" customHeight="1"/>
-    <row r="101" ht="16.5" customHeight="1"/>
-    <row r="102" ht="16.5" customHeight="1"/>
-    <row r="103" ht="16.5" customHeight="1"/>
-    <row r="104" ht="16.5" customHeight="1"/>
-    <row r="105" ht="16.5" customHeight="1"/>
-    <row r="106" ht="16.5" customHeight="1"/>
-    <row r="107" ht="16.5" customHeight="1"/>
-    <row r="108" ht="16.5" customHeight="1"/>
-    <row r="109" ht="16.5" customHeight="1"/>
-    <row r="110" ht="16.5" customHeight="1"/>
-    <row r="111" ht="16.5" customHeight="1"/>
-    <row r="112" ht="16.5" customHeight="1"/>
-    <row r="113" ht="16.5" customHeight="1"/>
-    <row r="114" ht="16.5" customHeight="1"/>
-    <row r="115" ht="16.5" customHeight="1"/>
-    <row r="116" ht="16.5" customHeight="1"/>
-    <row r="117" ht="16.5" customHeight="1"/>
-    <row r="118" ht="16.5" customHeight="1"/>
-    <row r="119" ht="16.5" customHeight="1"/>
-    <row r="120" ht="16.5" customHeight="1"/>
-    <row r="121" ht="16.5" customHeight="1"/>
-    <row r="122" ht="16.5" customHeight="1"/>
-    <row r="123" ht="16.5" customHeight="1"/>
-    <row r="124" ht="16.5" customHeight="1"/>
-    <row r="125" ht="16.5" customHeight="1"/>
-    <row r="126" ht="16.5" customHeight="1"/>
-    <row r="127" ht="16.5" customHeight="1"/>
-    <row r="128" ht="16.5" customHeight="1"/>
-    <row r="129" ht="16.5" customHeight="1"/>
-    <row r="130" ht="16.5" customHeight="1"/>
-    <row r="131" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
-    <row r="134" ht="16.5" customHeight="1"/>
-    <row r="135" ht="16.5" customHeight="1"/>
-    <row r="136" ht="16.5" customHeight="1"/>
-    <row r="137" ht="16.5" customHeight="1"/>
-    <row r="138" ht="16.5" customHeight="1"/>
-    <row r="139" ht="16.5" customHeight="1"/>
-    <row r="140" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
-    <row r="142" ht="16.5" customHeight="1"/>
-    <row r="143" ht="16.5" customHeight="1"/>
-    <row r="144" ht="16.5" customHeight="1"/>
-    <row r="145" ht="16.5" customHeight="1"/>
-    <row r="146" ht="16.5" customHeight="1"/>
-    <row r="147" ht="16.5" customHeight="1"/>
-    <row r="148" ht="16.5" customHeight="1"/>
-    <row r="149" ht="16.5" customHeight="1"/>
-    <row r="150" ht="16.5" customHeight="1"/>
-    <row r="151" ht="16.5" customHeight="1"/>
-    <row r="152" ht="16.5" customHeight="1"/>
-    <row r="153" ht="16.5" customHeight="1"/>
-    <row r="154" ht="16.5" customHeight="1"/>
-    <row r="155" ht="16.5" customHeight="1"/>
-    <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="158" ht="16.5" customHeight="1"/>
-    <row r="159" ht="16.5" customHeight="1"/>
-    <row r="160" ht="16.5" customHeight="1"/>
-    <row r="161" ht="16.5" customHeight="1"/>
-    <row r="162" ht="16.5" customHeight="1"/>
-    <row r="163" ht="16.5" customHeight="1"/>
-    <row r="164" ht="16.5" customHeight="1"/>
-    <row r="165" ht="16.5" customHeight="1"/>
-    <row r="166" ht="16.5" customHeight="1"/>
-    <row r="167" ht="16.5" customHeight="1"/>
-    <row r="168" ht="16.5" customHeight="1"/>
-    <row r="169" ht="16.5" customHeight="1"/>
-    <row r="170" ht="16.5" customHeight="1"/>
-    <row r="171" ht="16.5" customHeight="1"/>
-    <row r="172" ht="16.5" customHeight="1"/>
-    <row r="173" ht="16.5" customHeight="1"/>
-    <row r="174" ht="16.5" customHeight="1"/>
-    <row r="175" ht="16.5" customHeight="1"/>
-    <row r="176" ht="16.5" customHeight="1"/>
-    <row r="177" ht="16.5" customHeight="1"/>
-    <row r="178" ht="16.5" customHeight="1"/>
-    <row r="179" ht="16.5" customHeight="1"/>
-    <row r="180" ht="16.5" customHeight="1"/>
-    <row r="181" ht="16.5" customHeight="1"/>
-    <row r="182" ht="16.5" customHeight="1"/>
-    <row r="183" ht="16.5" customHeight="1"/>
-    <row r="184" ht="16.5" customHeight="1"/>
-    <row r="185" ht="16.5" customHeight="1"/>
-    <row r="186" ht="16.5" customHeight="1"/>
-    <row r="187" ht="16.5" customHeight="1"/>
-    <row r="188" ht="16.5" customHeight="1"/>
-    <row r="189" ht="16.5" customHeight="1"/>
-    <row r="190" ht="16.5" customHeight="1"/>
-    <row r="191" ht="16.5" customHeight="1"/>
-    <row r="192" ht="16.5" customHeight="1"/>
-    <row r="193" ht="16.5" customHeight="1"/>
-    <row r="194" ht="16.5" customHeight="1"/>
-    <row r="195" ht="16.5" customHeight="1"/>
-    <row r="196" ht="16.5" customHeight="1"/>
-    <row r="197" ht="16.5" customHeight="1"/>
-    <row r="198" ht="16.5" customHeight="1"/>
-    <row r="199" ht="16.5" customHeight="1"/>
-    <row r="200" ht="16.5" customHeight="1"/>
-    <row r="201" ht="16.5" customHeight="1"/>
-    <row r="202" ht="16.5" customHeight="1"/>
-    <row r="203" ht="16.5" customHeight="1"/>
-    <row r="204" ht="16.5" customHeight="1"/>
-    <row r="205" ht="16.5" customHeight="1"/>
-    <row r="206" ht="16.5" customHeight="1"/>
-    <row r="207" ht="16.5" customHeight="1"/>
-    <row r="208" ht="16.5" customHeight="1"/>
-    <row r="209" ht="16.5" customHeight="1"/>
-    <row r="210" ht="16.5" customHeight="1"/>
-    <row r="211" ht="16.5" customHeight="1"/>
-    <row r="212" ht="16.5" customHeight="1"/>
-    <row r="213" ht="16.5" customHeight="1"/>
-    <row r="214" ht="16.5" customHeight="1"/>
-    <row r="215" ht="16.5" customHeight="1"/>
-    <row r="216" ht="16.5" customHeight="1"/>
-    <row r="217" ht="16.5" customHeight="1"/>
-    <row r="218" ht="16.5" customHeight="1"/>
-    <row r="219" ht="16.5" customHeight="1"/>
-    <row r="220" ht="16.5" customHeight="1"/>
-    <row r="221" ht="16.5" customHeight="1"/>
-    <row r="222" ht="16.5" customHeight="1"/>
-    <row r="223" ht="16.5" customHeight="1"/>
-    <row r="224" ht="16.5" customHeight="1"/>
-    <row r="225" ht="16.5" customHeight="1"/>
-    <row r="226" ht="16.5" customHeight="1"/>
-    <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1"/>
-    <row r="229" ht="16.5" customHeight="1"/>
-    <row r="230" ht="16.5" customHeight="1"/>
-    <row r="231" ht="16.5" customHeight="1"/>
-    <row r="232" ht="16.5" customHeight="1"/>
-    <row r="233" ht="16.5" customHeight="1"/>
-    <row r="234" ht="16.5" customHeight="1"/>
-    <row r="235" ht="16.5" customHeight="1"/>
-    <row r="236" ht="16.5" customHeight="1"/>
-    <row r="237" ht="16.5" customHeight="1"/>
-    <row r="238" ht="16.5" customHeight="1"/>
-    <row r="239" ht="16.5" customHeight="1"/>
-    <row r="240" ht="16.5" customHeight="1"/>
-    <row r="241" ht="16.5" customHeight="1"/>
-    <row r="242" ht="16.5" customHeight="1"/>
-    <row r="243" ht="16.5" customHeight="1"/>
-    <row r="244" ht="16.5" customHeight="1"/>
-    <row r="245" ht="16.5" customHeight="1"/>
-    <row r="246" ht="16.5" customHeight="1"/>
-    <row r="247" ht="16.5" customHeight="1"/>
-    <row r="248" ht="16.5" customHeight="1"/>
-    <row r="249" ht="16.5" customHeight="1"/>
-    <row r="250" ht="16.5" customHeight="1"/>
-    <row r="251" ht="16.5" customHeight="1"/>
-    <row r="252" ht="16.5" customHeight="1"/>
-    <row r="253" ht="16.5" customHeight="1"/>
-    <row r="254" ht="16.5" customHeight="1"/>
-    <row r="255" ht="16.5" customHeight="1"/>
-    <row r="256" ht="16.5" customHeight="1"/>
-    <row r="257" ht="16.5" customHeight="1"/>
-    <row r="258" ht="16.5" customHeight="1"/>
-    <row r="259" ht="16.5" customHeight="1"/>
-    <row r="260" ht="16.5" customHeight="1"/>
-    <row r="261" ht="16.5" customHeight="1"/>
-    <row r="262" ht="16.5" customHeight="1"/>
-    <row r="263" ht="16.5" customHeight="1"/>
-    <row r="264" ht="16.5" customHeight="1"/>
-    <row r="265" ht="16.5" customHeight="1"/>
-    <row r="266" ht="16.5" customHeight="1"/>
-    <row r="267" ht="16.5" customHeight="1"/>
-    <row r="268" ht="16.5" customHeight="1"/>
-    <row r="269" ht="16.5" customHeight="1"/>
-    <row r="270" ht="16.5" customHeight="1"/>
-    <row r="271" ht="16.5" customHeight="1"/>
-    <row r="272" ht="16.5" customHeight="1"/>
-    <row r="273" ht="16.5" customHeight="1"/>
-    <row r="274" ht="16.5" customHeight="1"/>
-    <row r="275" ht="16.5" customHeight="1"/>
-    <row r="276" ht="16.5" customHeight="1"/>
-    <row r="277" ht="16.5" customHeight="1"/>
-    <row r="278" ht="16.5" customHeight="1"/>
-    <row r="279" ht="16.5" customHeight="1"/>
-    <row r="280" ht="16.5" customHeight="1"/>
-    <row r="281" ht="16.5" customHeight="1"/>
-    <row r="282" ht="16.5" customHeight="1"/>
-    <row r="283" ht="16.5" customHeight="1"/>
-    <row r="284" ht="16.5" customHeight="1"/>
-    <row r="285" ht="16.5" customHeight="1"/>
-    <row r="286" ht="16.5" customHeight="1"/>
-    <row r="287" ht="16.5" customHeight="1"/>
-    <row r="288" ht="16.5" customHeight="1"/>
-    <row r="289" ht="16.5" customHeight="1"/>
-    <row r="290" ht="16.5" customHeight="1"/>
-    <row r="291" ht="16.5" customHeight="1"/>
-    <row r="292" ht="16.5" customHeight="1"/>
-    <row r="293" ht="16.5" customHeight="1"/>
-    <row r="294" ht="16.5" customHeight="1"/>
-    <row r="295" ht="16.5" customHeight="1"/>
-    <row r="296" ht="16.5" customHeight="1"/>
-    <row r="297" ht="16.5" customHeight="1"/>
-    <row r="298" ht="16.5" customHeight="1"/>
-    <row r="299" ht="16.5" customHeight="1"/>
-    <row r="300" ht="16.5" customHeight="1"/>
-    <row r="301" ht="16.5" customHeight="1"/>
-    <row r="302" ht="16.5" customHeight="1"/>
-    <row r="303" ht="16.5" customHeight="1"/>
-    <row r="304" ht="16.5" customHeight="1"/>
-    <row r="305" ht="16.5" customHeight="1"/>
-    <row r="306" ht="16.5" customHeight="1"/>
-    <row r="307" ht="16.5" customHeight="1"/>
-    <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1"/>
-    <row r="310" ht="16.5" customHeight="1"/>
-    <row r="311" ht="16.5" customHeight="1"/>
-    <row r="312" ht="16.5" customHeight="1"/>
-    <row r="313" ht="16.5" customHeight="1"/>
-    <row r="314" ht="16.5" customHeight="1"/>
-    <row r="315" ht="16.5" customHeight="1"/>
-    <row r="316" ht="16.5" customHeight="1"/>
-    <row r="317" ht="16.5" customHeight="1"/>
-    <row r="318" ht="16.5" customHeight="1"/>
-    <row r="319" ht="16.5" customHeight="1"/>
-    <row r="320" ht="16.5" customHeight="1"/>
-    <row r="321" ht="16.5" customHeight="1"/>
-    <row r="322" ht="16.5" customHeight="1"/>
-    <row r="323" ht="16.5" customHeight="1"/>
-    <row r="324" ht="16.5" customHeight="1"/>
-    <row r="325" ht="16.5" customHeight="1"/>
-    <row r="326" ht="16.5" customHeight="1"/>
-    <row r="327" ht="16.5" customHeight="1"/>
-    <row r="328" ht="16.5" customHeight="1"/>
-    <row r="329" ht="16.5" customHeight="1"/>
-    <row r="330" ht="16.5" customHeight="1"/>
-    <row r="331" ht="16.5" customHeight="1"/>
-    <row r="332" ht="16.5" customHeight="1"/>
-    <row r="333" ht="16.5" customHeight="1"/>
-    <row r="334" ht="16.5" customHeight="1"/>
-    <row r="335" ht="16.5" customHeight="1"/>
-    <row r="336" ht="16.5" customHeight="1"/>
-    <row r="337" ht="16.5" customHeight="1"/>
-    <row r="338" ht="16.5" customHeight="1"/>
-    <row r="339" ht="16.5" customHeight="1"/>
-    <row r="340" ht="16.5" customHeight="1"/>
-    <row r="341" ht="16.5" customHeight="1"/>
-    <row r="342" ht="16.5" customHeight="1"/>
-    <row r="343" ht="16.5" customHeight="1"/>
-    <row r="344" ht="16.5" customHeight="1"/>
-    <row r="345" ht="16.5" customHeight="1"/>
-    <row r="346" ht="16.5" customHeight="1"/>
-    <row r="347" ht="16.5" customHeight="1"/>
-    <row r="348" ht="16.5" customHeight="1"/>
-    <row r="349" ht="16.5" customHeight="1"/>
-    <row r="350" ht="16.5" customHeight="1"/>
-    <row r="351" ht="16.5" customHeight="1"/>
-    <row r="352" ht="16.5" customHeight="1"/>
-    <row r="353" ht="16.5" customHeight="1"/>
-    <row r="354" ht="16.5" customHeight="1"/>
-    <row r="355" ht="16.5" customHeight="1"/>
-    <row r="356" ht="16.5" customHeight="1"/>
-    <row r="357" ht="16.5" customHeight="1"/>
-    <row r="358" ht="16.5" customHeight="1"/>
-    <row r="359" ht="16.5" customHeight="1"/>
-    <row r="360" ht="16.5" customHeight="1"/>
-    <row r="361" ht="16.5" customHeight="1"/>
-    <row r="362" ht="16.5" customHeight="1"/>
-    <row r="363" ht="16.5" customHeight="1"/>
-    <row r="364" ht="16.5" customHeight="1"/>
-    <row r="365" ht="16.5" customHeight="1"/>
-    <row r="366" ht="16.5" customHeight="1"/>
-    <row r="367" ht="16.5" customHeight="1"/>
-    <row r="368" ht="16.5" customHeight="1"/>
-    <row r="369" ht="16.5" customHeight="1"/>
-    <row r="370" ht="16.5" customHeight="1"/>
-    <row r="371" ht="16.5" customHeight="1"/>
-    <row r="372" ht="16.5" customHeight="1"/>
-    <row r="373" ht="16.5" customHeight="1"/>
-    <row r="374" ht="16.5" customHeight="1"/>
-    <row r="375" ht="16.5" customHeight="1"/>
-    <row r="376" ht="16.5" customHeight="1"/>
-    <row r="377" ht="16.5" customHeight="1"/>
-    <row r="378" ht="16.5" customHeight="1"/>
-    <row r="379" ht="16.5" customHeight="1"/>
-    <row r="380" ht="16.5" customHeight="1"/>
-    <row r="381" ht="16.5" customHeight="1"/>
-    <row r="382" ht="16.5" customHeight="1"/>
-    <row r="383" ht="16.5" customHeight="1"/>
-    <row r="384" ht="16.5" customHeight="1"/>
-    <row r="385" ht="16.5" customHeight="1"/>
-    <row r="386" ht="16.5" customHeight="1"/>
-    <row r="387" ht="16.5" customHeight="1"/>
-    <row r="388" ht="16.5" customHeight="1"/>
-    <row r="389" ht="16.5" customHeight="1"/>
-    <row r="390" ht="16.5" customHeight="1"/>
-    <row r="391" ht="16.5" customHeight="1"/>
-    <row r="392" ht="16.5" customHeight="1"/>
-    <row r="393" ht="16.5" customHeight="1"/>
-    <row r="394" ht="16.5" customHeight="1"/>
-    <row r="395" ht="16.5" customHeight="1"/>
-    <row r="396" ht="16.5" customHeight="1"/>
-    <row r="397" ht="16.5" customHeight="1"/>
-    <row r="398" ht="16.5" customHeight="1"/>
-    <row r="399" ht="16.5" customHeight="1"/>
-    <row r="400" ht="16.5" customHeight="1"/>
-    <row r="401" ht="16.5" customHeight="1"/>
-    <row r="402" ht="16.5" customHeight="1"/>
-    <row r="403" ht="16.5" customHeight="1"/>
-    <row r="404" ht="16.5" customHeight="1"/>
-    <row r="405" ht="16.5" customHeight="1"/>
-    <row r="406" ht="16.5" customHeight="1"/>
-    <row r="407" ht="16.5" customHeight="1"/>
-    <row r="408" ht="16.5" customHeight="1"/>
-    <row r="409" ht="16.5" customHeight="1"/>
-    <row r="410" ht="16.5" customHeight="1"/>
-    <row r="411" ht="16.5" customHeight="1"/>
-    <row r="412" ht="16.5" customHeight="1"/>
-    <row r="413" ht="16.5" customHeight="1"/>
-    <row r="414" ht="16.5" customHeight="1"/>
-    <row r="415" ht="16.5" customHeight="1"/>
-    <row r="416" ht="16.5" customHeight="1"/>
-    <row r="417" ht="16.5" customHeight="1"/>
-    <row r="418" ht="16.5" customHeight="1"/>
-    <row r="419" ht="16.5" customHeight="1"/>
-    <row r="420" ht="16.5" customHeight="1"/>
-    <row r="421" ht="16.5" customHeight="1"/>
-    <row r="422" ht="16.5" customHeight="1"/>
-    <row r="423" ht="16.5" customHeight="1"/>
-    <row r="424" ht="16.5" customHeight="1"/>
-    <row r="425" ht="16.5" customHeight="1"/>
-    <row r="426" ht="16.5" customHeight="1"/>
-    <row r="427" ht="16.5" customHeight="1"/>
-    <row r="428" ht="16.5" customHeight="1"/>
-    <row r="429" ht="16.5" customHeight="1"/>
-    <row r="430" ht="16.5" customHeight="1"/>
-    <row r="431" ht="16.5" customHeight="1"/>
-    <row r="432" ht="16.5" customHeight="1"/>
-    <row r="433" ht="16.5" customHeight="1"/>
-    <row r="434" ht="16.5" customHeight="1"/>
-    <row r="435" ht="16.5" customHeight="1"/>
-    <row r="436" ht="16.5" customHeight="1"/>
-    <row r="437" ht="16.5" customHeight="1"/>
-    <row r="438" ht="16.5" customHeight="1"/>
-    <row r="439" ht="16.5" customHeight="1"/>
-    <row r="440" ht="16.5" customHeight="1"/>
-    <row r="441" ht="16.5" customHeight="1"/>
-    <row r="442" ht="16.5" customHeight="1"/>
-    <row r="443" ht="16.5" customHeight="1"/>
-    <row r="444" ht="16.5" customHeight="1"/>
-    <row r="445" ht="16.5" customHeight="1"/>
-    <row r="446" ht="16.5" customHeight="1"/>
-    <row r="447" ht="16.5" customHeight="1"/>
-    <row r="448" ht="16.5" customHeight="1"/>
-    <row r="449" ht="16.5" customHeight="1"/>
-    <row r="450" ht="16.5" customHeight="1"/>
-    <row r="451" ht="16.5" customHeight="1"/>
-    <row r="452" ht="16.5" customHeight="1"/>
-    <row r="453" ht="16.5" customHeight="1"/>
-    <row r="454" ht="16.5" customHeight="1"/>
-    <row r="455" ht="16.5" customHeight="1"/>
-    <row r="456" ht="16.5" customHeight="1"/>
-    <row r="457" ht="16.5" customHeight="1"/>
-    <row r="458" ht="16.5" customHeight="1"/>
-    <row r="459" ht="16.5" customHeight="1"/>
-    <row r="460" ht="16.5" customHeight="1"/>
-    <row r="461" ht="16.5" customHeight="1"/>
-    <row r="462" ht="16.5" customHeight="1"/>
-    <row r="463" ht="16.5" customHeight="1"/>
-    <row r="464" ht="16.5" customHeight="1"/>
-    <row r="465" ht="16.5" customHeight="1"/>
-    <row r="466" ht="16.5" customHeight="1"/>
-    <row r="467" ht="16.5" customHeight="1"/>
-    <row r="468" ht="16.5" customHeight="1"/>
-    <row r="469" ht="16.5" customHeight="1"/>
-    <row r="470" ht="16.5" customHeight="1"/>
-    <row r="471" ht="16.5" customHeight="1"/>
-    <row r="472" ht="16.5" customHeight="1"/>
-    <row r="473" ht="16.5" customHeight="1"/>
-    <row r="474" ht="16.5" customHeight="1"/>
-    <row r="475" ht="16.5" customHeight="1"/>
-    <row r="476" ht="16.5" customHeight="1"/>
-    <row r="477" ht="16.5" customHeight="1"/>
-    <row r="478" ht="16.5" customHeight="1"/>
-    <row r="479" ht="16.5" customHeight="1"/>
-    <row r="480" ht="16.5" customHeight="1"/>
-    <row r="481" ht="16.5" customHeight="1"/>
-    <row r="482" ht="16.5" customHeight="1"/>
-    <row r="483" ht="16.5" customHeight="1"/>
-    <row r="484" ht="16.5" customHeight="1"/>
-    <row r="485" ht="16.5" customHeight="1"/>
-    <row r="486" ht="16.5" customHeight="1"/>
-    <row r="487" ht="16.5" customHeight="1"/>
-    <row r="488" ht="16.5" customHeight="1"/>
-    <row r="489" ht="16.5" customHeight="1"/>
-    <row r="490" ht="16.5" customHeight="1"/>
-    <row r="491" ht="16.5" customHeight="1"/>
-    <row r="492" ht="16.5" customHeight="1"/>
-    <row r="493" ht="16.5" customHeight="1"/>
-    <row r="494" ht="16.5" customHeight="1"/>
-    <row r="495" ht="16.5" customHeight="1"/>
-    <row r="496" ht="16.5" customHeight="1"/>
-    <row r="497" ht="16.5" customHeight="1"/>
-    <row r="498" ht="16.5" customHeight="1"/>
-    <row r="499" ht="16.5" customHeight="1"/>
-    <row r="500" ht="16.5" customHeight="1"/>
-    <row r="501" ht="16.5" customHeight="1"/>
-    <row r="502" ht="16.5" customHeight="1"/>
-    <row r="503" ht="16.5" customHeight="1"/>
-    <row r="504" ht="16.5" customHeight="1"/>
-    <row r="505" ht="16.5" customHeight="1"/>
-    <row r="506" ht="16.5" customHeight="1"/>
-    <row r="507" ht="16.5" customHeight="1"/>
-    <row r="508" ht="16.5" customHeight="1"/>
-    <row r="509" ht="16.5" customHeight="1"/>
-    <row r="510" ht="16.5" customHeight="1"/>
-    <row r="511" ht="16.5" customHeight="1"/>
-    <row r="512" ht="16.5" customHeight="1"/>
-    <row r="513" ht="16.5" customHeight="1"/>
-    <row r="514" ht="16.5" customHeight="1"/>
-    <row r="515" ht="16.5" customHeight="1"/>
-    <row r="516" ht="16.5" customHeight="1"/>
-    <row r="517" ht="16.5" customHeight="1"/>
-    <row r="518" ht="16.5" customHeight="1"/>
-    <row r="519" ht="16.5" customHeight="1"/>
-    <row r="520" ht="16.5" customHeight="1"/>
-    <row r="521" ht="16.5" customHeight="1"/>
-    <row r="522" ht="16.5" customHeight="1"/>
-    <row r="523" ht="16.5" customHeight="1"/>
-    <row r="524" ht="16.5" customHeight="1"/>
-    <row r="525" ht="16.5" customHeight="1"/>
-    <row r="526" ht="16.5" customHeight="1"/>
-    <row r="527" ht="16.5" customHeight="1"/>
-    <row r="528" ht="16.5" customHeight="1"/>
-    <row r="529" ht="16.5" customHeight="1"/>
-    <row r="530" ht="16.5" customHeight="1"/>
-    <row r="531" ht="16.5" customHeight="1"/>
-    <row r="532" ht="16.5" customHeight="1"/>
-    <row r="533" ht="16.5" customHeight="1"/>
-    <row r="534" ht="16.5" customHeight="1"/>
-    <row r="535" ht="16.5" customHeight="1"/>
-    <row r="536" ht="16.5" customHeight="1"/>
-    <row r="537" ht="16.5" customHeight="1"/>
-    <row r="538" ht="16.5" customHeight="1"/>
-    <row r="539" ht="16.5" customHeight="1"/>
-    <row r="540" ht="16.5" customHeight="1"/>
-    <row r="541" ht="16.5" customHeight="1"/>
-    <row r="542" ht="16.5" customHeight="1"/>
-    <row r="543" ht="16.5" customHeight="1"/>
-    <row r="544" ht="16.5" customHeight="1"/>
-    <row r="545" ht="16.5" customHeight="1"/>
-    <row r="546" ht="16.5" customHeight="1"/>
-    <row r="547" ht="16.5" customHeight="1"/>
-    <row r="548" ht="16.5" customHeight="1"/>
-    <row r="549" ht="16.5" customHeight="1"/>
-    <row r="550" ht="16.5" customHeight="1"/>
-    <row r="551" ht="16.5" customHeight="1"/>
-    <row r="552" ht="16.5" customHeight="1"/>
-    <row r="553" ht="16.5" customHeight="1"/>
-    <row r="554" ht="16.5" customHeight="1"/>
-    <row r="555" ht="16.5" customHeight="1"/>
-    <row r="556" ht="16.5" customHeight="1"/>
-    <row r="557" ht="16.5" customHeight="1"/>
-    <row r="558" ht="16.5" customHeight="1"/>
-    <row r="559" ht="16.5" customHeight="1"/>
-    <row r="560" ht="16.5" customHeight="1"/>
-    <row r="561" ht="16.5" customHeight="1"/>
-    <row r="562" ht="16.5" customHeight="1"/>
-    <row r="563" ht="16.5" customHeight="1"/>
-    <row r="564" ht="16.5" customHeight="1"/>
-    <row r="565" ht="16.5" customHeight="1"/>
-    <row r="566" ht="16.5" customHeight="1"/>
-    <row r="567" ht="16.5" customHeight="1"/>
-    <row r="568" ht="16.5" customHeight="1"/>
-    <row r="569" ht="16.5" customHeight="1"/>
-    <row r="570" ht="16.5" customHeight="1"/>
-    <row r="571" ht="16.5" customHeight="1"/>
-    <row r="572" ht="16.5" customHeight="1"/>
-    <row r="573" ht="16.5" customHeight="1"/>
-    <row r="574" ht="16.5" customHeight="1"/>
-    <row r="575" ht="16.5" customHeight="1"/>
-    <row r="576" ht="16.5" customHeight="1"/>
-    <row r="577" ht="16.5" customHeight="1"/>
-    <row r="578" ht="16.5" customHeight="1"/>
-    <row r="579" ht="16.5" customHeight="1"/>
-    <row r="580" ht="16.5" customHeight="1"/>
-    <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
-    <row r="583" ht="16.5" customHeight="1"/>
-    <row r="584" ht="16.5" customHeight="1"/>
-    <row r="585" ht="16.5" customHeight="1"/>
-    <row r="586" ht="16.5" customHeight="1"/>
-    <row r="587" ht="16.5" customHeight="1"/>
-    <row r="588" ht="16.5" customHeight="1"/>
-    <row r="589" ht="16.5" customHeight="1"/>
-    <row r="590" ht="16.5" customHeight="1"/>
-    <row r="591" ht="16.5" customHeight="1"/>
-    <row r="592" ht="16.5" customHeight="1"/>
-    <row r="593" ht="16.5" customHeight="1"/>
-    <row r="594" ht="16.5" customHeight="1"/>
-    <row r="595" ht="16.5" customHeight="1"/>
-    <row r="596" ht="16.5" customHeight="1"/>
-    <row r="597" ht="16.5" customHeight="1"/>
-    <row r="598" ht="16.5" customHeight="1"/>
-    <row r="599" ht="16.5" customHeight="1"/>
-    <row r="600" ht="16.5" customHeight="1"/>
-    <row r="601" ht="16.5" customHeight="1"/>
-    <row r="602" ht="16.5" customHeight="1"/>
-    <row r="603" ht="16.5" customHeight="1"/>
-    <row r="604" ht="16.5" customHeight="1"/>
-    <row r="605" ht="16.5" customHeight="1"/>
-    <row r="606" ht="16.5" customHeight="1"/>
-    <row r="607" ht="16.5" customHeight="1"/>
-    <row r="608" ht="16.5" customHeight="1"/>
-    <row r="609" ht="16.5" customHeight="1"/>
-    <row r="610" ht="16.5" customHeight="1"/>
-    <row r="611" ht="16.5" customHeight="1"/>
-    <row r="612" ht="16.5" customHeight="1"/>
-    <row r="613" ht="16.5" customHeight="1"/>
-    <row r="614" ht="16.5" customHeight="1"/>
-    <row r="615" ht="16.5" customHeight="1"/>
-    <row r="616" ht="16.5" customHeight="1"/>
-    <row r="617" ht="16.5" customHeight="1"/>
-    <row r="618" ht="16.5" customHeight="1"/>
-    <row r="619" ht="16.5" customHeight="1"/>
-    <row r="620" ht="16.5" customHeight="1"/>
-    <row r="621" ht="16.5" customHeight="1"/>
-    <row r="622" ht="16.5" customHeight="1"/>
-    <row r="623" ht="16.5" customHeight="1"/>
-    <row r="624" ht="16.5" customHeight="1"/>
-    <row r="625" ht="16.5" customHeight="1"/>
-    <row r="626" ht="16.5" customHeight="1"/>
-    <row r="627" ht="16.5" customHeight="1"/>
-    <row r="628" ht="16.5" customHeight="1"/>
-    <row r="629" ht="16.5" customHeight="1"/>
-    <row r="630" ht="16.5" customHeight="1"/>
-    <row r="631" ht="16.5" customHeight="1"/>
-    <row r="632" ht="16.5" customHeight="1"/>
-    <row r="633" ht="16.5" customHeight="1"/>
-    <row r="634" ht="16.5" customHeight="1"/>
-    <row r="635" ht="16.5" customHeight="1"/>
-    <row r="636" ht="16.5" customHeight="1"/>
-    <row r="637" ht="16.5" customHeight="1"/>
-    <row r="638" ht="16.5" customHeight="1"/>
-    <row r="639" ht="16.5" customHeight="1"/>
-    <row r="640" ht="16.5" customHeight="1"/>
-    <row r="641" ht="16.5" customHeight="1"/>
-    <row r="642" ht="16.5" customHeight="1"/>
-    <row r="643" ht="16.5" customHeight="1"/>
-    <row r="644" ht="16.5" customHeight="1"/>
-    <row r="645" ht="16.5" customHeight="1"/>
-    <row r="646" ht="16.5" customHeight="1"/>
-    <row r="647" ht="16.5" customHeight="1"/>
-    <row r="648" ht="16.5" customHeight="1"/>
-    <row r="649" ht="16.5" customHeight="1"/>
-    <row r="650" ht="16.5" customHeight="1"/>
-    <row r="651" ht="16.5" customHeight="1"/>
-    <row r="652" ht="16.5" customHeight="1"/>
-    <row r="653" ht="16.5" customHeight="1"/>
-    <row r="654" ht="16.5" customHeight="1"/>
-    <row r="655" ht="16.5" customHeight="1"/>
-    <row r="656" ht="16.5" customHeight="1"/>
-    <row r="657" ht="16.5" customHeight="1"/>
-    <row r="658" ht="16.5" customHeight="1"/>
-    <row r="659" ht="16.5" customHeight="1"/>
-    <row r="660" ht="16.5" customHeight="1"/>
-    <row r="661" ht="16.5" customHeight="1"/>
-    <row r="662" ht="16.5" customHeight="1"/>
-    <row r="663" ht="16.5" customHeight="1"/>
-    <row r="664" ht="16.5" customHeight="1"/>
-    <row r="665" ht="16.5" customHeight="1"/>
-    <row r="666" ht="16.5" customHeight="1"/>
-    <row r="667" ht="16.5" customHeight="1"/>
-    <row r="668" ht="16.5" customHeight="1"/>
-    <row r="669" ht="16.5" customHeight="1"/>
-    <row r="670" ht="16.5" customHeight="1"/>
-    <row r="671" ht="16.5" customHeight="1"/>
-    <row r="672" ht="16.5" customHeight="1"/>
-    <row r="673" ht="16.5" customHeight="1"/>
-    <row r="674" ht="16.5" customHeight="1"/>
-    <row r="675" ht="16.5" customHeight="1"/>
-    <row r="676" ht="16.5" customHeight="1"/>
-    <row r="677" ht="16.5" customHeight="1"/>
-    <row r="678" ht="16.5" customHeight="1"/>
-    <row r="679" ht="16.5" customHeight="1"/>
-    <row r="680" ht="16.5" customHeight="1"/>
-    <row r="681" ht="16.5" customHeight="1"/>
-    <row r="682" ht="16.5" customHeight="1"/>
-    <row r="683" ht="16.5" customHeight="1"/>
-    <row r="684" ht="16.5" customHeight="1"/>
-    <row r="685" ht="16.5" customHeight="1"/>
-    <row r="686" ht="16.5" customHeight="1"/>
-    <row r="687" ht="16.5" customHeight="1"/>
-    <row r="688" ht="16.5" customHeight="1"/>
-    <row r="689" ht="16.5" customHeight="1"/>
-    <row r="690" ht="16.5" customHeight="1"/>
-    <row r="691" ht="16.5" customHeight="1"/>
-    <row r="692" ht="16.5" customHeight="1"/>
-    <row r="693" ht="16.5" customHeight="1"/>
-    <row r="694" ht="16.5" customHeight="1"/>
-    <row r="695" ht="16.5" customHeight="1"/>
-    <row r="696" ht="16.5" customHeight="1"/>
-    <row r="697" ht="16.5" customHeight="1"/>
-    <row r="698" ht="16.5" customHeight="1"/>
-    <row r="699" ht="16.5" customHeight="1"/>
-    <row r="700" ht="16.5" customHeight="1"/>
-    <row r="701" ht="16.5" customHeight="1"/>
-    <row r="702" ht="16.5" customHeight="1"/>
-    <row r="703" ht="16.5" customHeight="1"/>
-    <row r="704" ht="16.5" customHeight="1"/>
-    <row r="705" ht="16.5" customHeight="1"/>
-    <row r="706" ht="16.5" customHeight="1"/>
-    <row r="707" ht="16.5" customHeight="1"/>
-    <row r="708" ht="16.5" customHeight="1"/>
-    <row r="709" ht="16.5" customHeight="1"/>
-    <row r="710" ht="16.5" customHeight="1"/>
-    <row r="711" ht="16.5" customHeight="1"/>
-    <row r="712" ht="16.5" customHeight="1"/>
-    <row r="713" ht="16.5" customHeight="1"/>
-    <row r="714" ht="16.5" customHeight="1"/>
-    <row r="715" ht="16.5" customHeight="1"/>
-    <row r="716" ht="16.5" customHeight="1"/>
-    <row r="717" ht="16.5" customHeight="1"/>
-    <row r="718" ht="16.5" customHeight="1"/>
-    <row r="719" ht="16.5" customHeight="1"/>
-    <row r="720" ht="16.5" customHeight="1"/>
-    <row r="721" ht="16.5" customHeight="1"/>
-    <row r="722" ht="16.5" customHeight="1"/>
-    <row r="723" ht="16.5" customHeight="1"/>
-    <row r="724" ht="16.5" customHeight="1"/>
-    <row r="725" ht="16.5" customHeight="1"/>
-    <row r="726" ht="16.5" customHeight="1"/>
-    <row r="727" ht="16.5" customHeight="1"/>
-    <row r="728" ht="16.5" customHeight="1"/>
-    <row r="729" ht="16.5" customHeight="1"/>
-    <row r="730" ht="16.5" customHeight="1"/>
-    <row r="731" ht="16.5" customHeight="1"/>
-    <row r="732" ht="16.5" customHeight="1"/>
-    <row r="733" ht="16.5" customHeight="1"/>
-    <row r="734" ht="16.5" customHeight="1"/>
-    <row r="735" ht="16.5" customHeight="1"/>
-    <row r="736" ht="16.5" customHeight="1"/>
-    <row r="737" ht="16.5" customHeight="1"/>
-    <row r="738" ht="16.5" customHeight="1"/>
-    <row r="739" ht="16.5" customHeight="1"/>
-    <row r="740" ht="16.5" customHeight="1"/>
-    <row r="741" ht="16.5" customHeight="1"/>
-    <row r="742" ht="16.5" customHeight="1"/>
-    <row r="743" ht="16.5" customHeight="1"/>
-    <row r="744" ht="16.5" customHeight="1"/>
-    <row r="745" ht="16.5" customHeight="1"/>
-    <row r="746" ht="16.5" customHeight="1"/>
-    <row r="747" ht="16.5" customHeight="1"/>
-    <row r="748" ht="16.5" customHeight="1"/>
-    <row r="749" ht="16.5" customHeight="1"/>
-    <row r="750" ht="16.5" customHeight="1"/>
-    <row r="751" ht="16.5" customHeight="1"/>
-    <row r="752" ht="16.5" customHeight="1"/>
-    <row r="753" ht="16.5" customHeight="1"/>
-    <row r="754" ht="16.5" customHeight="1"/>
-    <row r="755" ht="16.5" customHeight="1"/>
-    <row r="756" ht="16.5" customHeight="1"/>
-    <row r="757" ht="16.5" customHeight="1"/>
-    <row r="758" ht="16.5" customHeight="1"/>
-    <row r="759" ht="16.5" customHeight="1"/>
-    <row r="760" ht="16.5" customHeight="1"/>
-    <row r="761" ht="16.5" customHeight="1"/>
-    <row r="762" ht="16.5" customHeight="1"/>
-    <row r="763" ht="16.5" customHeight="1"/>
-    <row r="764" ht="16.5" customHeight="1"/>
-    <row r="765" ht="16.5" customHeight="1"/>
-    <row r="766" ht="16.5" customHeight="1"/>
-    <row r="767" ht="16.5" customHeight="1"/>
-    <row r="768" ht="16.5" customHeight="1"/>
-    <row r="769" ht="16.5" customHeight="1"/>
-    <row r="770" ht="16.5" customHeight="1"/>
-    <row r="771" ht="16.5" customHeight="1"/>
-    <row r="772" ht="16.5" customHeight="1"/>
-    <row r="773" ht="16.5" customHeight="1"/>
-    <row r="774" ht="16.5" customHeight="1"/>
-    <row r="775" ht="16.5" customHeight="1"/>
-    <row r="776" ht="16.5" customHeight="1"/>
-    <row r="777" ht="16.5" customHeight="1"/>
-    <row r="778" ht="16.5" customHeight="1"/>
-    <row r="779" ht="16.5" customHeight="1"/>
-    <row r="780" ht="16.5" customHeight="1"/>
-    <row r="781" ht="16.5" customHeight="1"/>
-    <row r="782" ht="16.5" customHeight="1"/>
-    <row r="783" ht="16.5" customHeight="1"/>
-    <row r="784" ht="16.5" customHeight="1"/>
-    <row r="785" ht="16.5" customHeight="1"/>
-    <row r="786" ht="16.5" customHeight="1"/>
-    <row r="787" ht="16.5" customHeight="1"/>
-    <row r="788" ht="16.5" customHeight="1"/>
-    <row r="789" ht="16.5" customHeight="1"/>
-    <row r="790" ht="16.5" customHeight="1"/>
-    <row r="791" ht="16.5" customHeight="1"/>
-    <row r="792" ht="16.5" customHeight="1"/>
-    <row r="793" ht="16.5" customHeight="1"/>
-    <row r="794" ht="16.5" customHeight="1"/>
-    <row r="795" ht="16.5" customHeight="1"/>
-    <row r="796" ht="16.5" customHeight="1"/>
-    <row r="797" ht="16.5" customHeight="1"/>
-    <row r="798" ht="16.5" customHeight="1"/>
-    <row r="799" ht="16.5" customHeight="1"/>
-    <row r="800" ht="16.5" customHeight="1"/>
-    <row r="801" ht="16.5" customHeight="1"/>
-    <row r="802" ht="16.5" customHeight="1"/>
-    <row r="803" ht="16.5" customHeight="1"/>
-    <row r="804" ht="16.5" customHeight="1"/>
-    <row r="805" ht="16.5" customHeight="1"/>
-    <row r="806" ht="16.5" customHeight="1"/>
-    <row r="807" ht="16.5" customHeight="1"/>
-    <row r="808" ht="16.5" customHeight="1"/>
-    <row r="809" ht="16.5" customHeight="1"/>
-    <row r="810" ht="16.5" customHeight="1"/>
-    <row r="811" ht="16.5" customHeight="1"/>
-    <row r="812" ht="16.5" customHeight="1"/>
-    <row r="813" ht="16.5" customHeight="1"/>
-    <row r="814" ht="16.5" customHeight="1"/>
-    <row r="815" ht="16.5" customHeight="1"/>
-    <row r="816" ht="16.5" customHeight="1"/>
-    <row r="817" ht="16.5" customHeight="1"/>
-    <row r="818" ht="16.5" customHeight="1"/>
-    <row r="819" ht="16.5" customHeight="1"/>
-    <row r="820" ht="16.5" customHeight="1"/>
-    <row r="821" ht="16.5" customHeight="1"/>
-    <row r="822" ht="16.5" customHeight="1"/>
-    <row r="823" ht="16.5" customHeight="1"/>
-    <row r="824" ht="16.5" customHeight="1"/>
-    <row r="825" ht="16.5" customHeight="1"/>
-    <row r="826" ht="16.5" customHeight="1"/>
-    <row r="827" ht="16.5" customHeight="1"/>
-    <row r="828" ht="16.5" customHeight="1"/>
-    <row r="829" ht="16.5" customHeight="1"/>
-    <row r="830" ht="16.5" customHeight="1"/>
-    <row r="831" ht="16.5" customHeight="1"/>
-    <row r="832" ht="16.5" customHeight="1"/>
-    <row r="833" ht="16.5" customHeight="1"/>
-    <row r="834" ht="16.5" customHeight="1"/>
-    <row r="835" ht="16.5" customHeight="1"/>
-    <row r="836" ht="16.5" customHeight="1"/>
-    <row r="837" ht="16.5" customHeight="1"/>
-    <row r="838" ht="16.5" customHeight="1"/>
-    <row r="839" ht="16.5" customHeight="1"/>
-    <row r="840" ht="16.5" customHeight="1"/>
-    <row r="841" ht="16.5" customHeight="1"/>
-    <row r="842" ht="16.5" customHeight="1"/>
-    <row r="843" ht="16.5" customHeight="1"/>
-    <row r="844" ht="16.5" customHeight="1"/>
-    <row r="845" ht="16.5" customHeight="1"/>
-    <row r="846" ht="16.5" customHeight="1"/>
-    <row r="847" ht="16.5" customHeight="1"/>
-    <row r="848" ht="16.5" customHeight="1"/>
-    <row r="849" ht="16.5" customHeight="1"/>
-    <row r="850" ht="16.5" customHeight="1"/>
-    <row r="851" ht="16.5" customHeight="1"/>
-    <row r="852" ht="16.5" customHeight="1"/>
-    <row r="853" ht="16.5" customHeight="1"/>
-    <row r="854" ht="16.5" customHeight="1"/>
-    <row r="855" ht="16.5" customHeight="1"/>
-    <row r="856" ht="16.5" customHeight="1"/>
-    <row r="857" ht="16.5" customHeight="1"/>
-    <row r="858" ht="16.5" customHeight="1"/>
-    <row r="859" ht="16.5" customHeight="1"/>
-    <row r="860" ht="16.5" customHeight="1"/>
-    <row r="861" ht="16.5" customHeight="1"/>
-    <row r="862" ht="16.5" customHeight="1"/>
-    <row r="863" ht="16.5" customHeight="1"/>
-    <row r="864" ht="16.5" customHeight="1"/>
-    <row r="865" ht="16.5" customHeight="1"/>
-    <row r="866" ht="16.5" customHeight="1"/>
-    <row r="867" ht="16.5" customHeight="1"/>
-    <row r="868" ht="16.5" customHeight="1"/>
-    <row r="869" ht="16.5" customHeight="1"/>
-    <row r="870" ht="16.5" customHeight="1"/>
-    <row r="871" ht="16.5" customHeight="1"/>
-    <row r="872" ht="16.5" customHeight="1"/>
-    <row r="873" ht="16.5" customHeight="1"/>
-    <row r="874" ht="16.5" customHeight="1"/>
-    <row r="875" ht="16.5" customHeight="1"/>
-    <row r="876" ht="16.5" customHeight="1"/>
-    <row r="877" ht="16.5" customHeight="1"/>
-    <row r="878" ht="16.5" customHeight="1"/>
-    <row r="879" ht="16.5" customHeight="1"/>
-    <row r="880" ht="16.5" customHeight="1"/>
-    <row r="881" ht="16.5" customHeight="1"/>
-    <row r="882" ht="16.5" customHeight="1"/>
-    <row r="883" ht="16.5" customHeight="1"/>
-    <row r="884" ht="16.5" customHeight="1"/>
-    <row r="885" ht="16.5" customHeight="1"/>
-    <row r="886" ht="16.5" customHeight="1"/>
-    <row r="887" ht="16.5" customHeight="1"/>
-    <row r="888" ht="16.5" customHeight="1"/>
-    <row r="889" ht="16.5" customHeight="1"/>
-    <row r="890" ht="16.5" customHeight="1"/>
-    <row r="891" ht="16.5" customHeight="1"/>
-    <row r="892" ht="16.5" customHeight="1"/>
-    <row r="893" ht="16.5" customHeight="1"/>
-    <row r="894" ht="16.5" customHeight="1"/>
-    <row r="895" ht="16.5" customHeight="1"/>
-    <row r="896" ht="16.5" customHeight="1"/>
-    <row r="897" ht="16.5" customHeight="1"/>
-    <row r="898" ht="16.5" customHeight="1"/>
-    <row r="899" ht="16.5" customHeight="1"/>
-    <row r="900" ht="16.5" customHeight="1"/>
-    <row r="901" ht="16.5" customHeight="1"/>
-    <row r="902" ht="16.5" customHeight="1"/>
-    <row r="903" ht="16.5" customHeight="1"/>
-    <row r="904" ht="16.5" customHeight="1"/>
-    <row r="905" ht="16.5" customHeight="1"/>
-    <row r="906" ht="16.5" customHeight="1"/>
-    <row r="907" ht="16.5" customHeight="1"/>
-    <row r="908" ht="16.5" customHeight="1"/>
-    <row r="909" ht="16.5" customHeight="1"/>
-    <row r="910" ht="16.5" customHeight="1"/>
-    <row r="911" ht="16.5" customHeight="1"/>
-    <row r="912" ht="16.5" customHeight="1"/>
-    <row r="913" ht="16.5" customHeight="1"/>
-    <row r="914" ht="16.5" customHeight="1"/>
-    <row r="915" ht="16.5" customHeight="1"/>
-    <row r="916" ht="16.5" customHeight="1"/>
-    <row r="917" ht="16.5" customHeight="1"/>
-    <row r="918" ht="16.5" customHeight="1"/>
-    <row r="919" ht="16.5" customHeight="1"/>
-    <row r="920" ht="16.5" customHeight="1"/>
-    <row r="921" ht="16.5" customHeight="1"/>
-    <row r="922" ht="16.5" customHeight="1"/>
-    <row r="923" ht="16.5" customHeight="1"/>
-    <row r="924" ht="16.5" customHeight="1"/>
-    <row r="925" ht="16.5" customHeight="1"/>
-    <row r="926" ht="16.5" customHeight="1"/>
-    <row r="927" ht="16.5" customHeight="1"/>
-    <row r="928" ht="16.5" customHeight="1"/>
-    <row r="929" ht="16.5" customHeight="1"/>
-    <row r="930" ht="16.5" customHeight="1"/>
-    <row r="931" ht="16.5" customHeight="1"/>
-    <row r="932" ht="16.5" customHeight="1"/>
-    <row r="933" ht="16.5" customHeight="1"/>
-    <row r="934" ht="16.5" customHeight="1"/>
-    <row r="935" ht="16.5" customHeight="1"/>
-    <row r="936" ht="16.5" customHeight="1"/>
-    <row r="937" ht="16.5" customHeight="1"/>
-    <row r="938" ht="16.5" customHeight="1"/>
-    <row r="939" ht="16.5" customHeight="1"/>
-    <row r="940" ht="16.5" customHeight="1"/>
-    <row r="941" ht="16.5" customHeight="1"/>
-    <row r="942" ht="16.5" customHeight="1"/>
-    <row r="943" ht="16.5" customHeight="1"/>
-    <row r="944" ht="16.5" customHeight="1"/>
-    <row r="945" ht="16.5" customHeight="1"/>
-    <row r="946" ht="16.5" customHeight="1"/>
-    <row r="947" ht="16.5" customHeight="1"/>
-    <row r="948" ht="16.5" customHeight="1"/>
-    <row r="949" ht="16.5" customHeight="1"/>
-    <row r="950" ht="16.5" customHeight="1"/>
-    <row r="951" ht="16.5" customHeight="1"/>
-    <row r="952" ht="16.5" customHeight="1"/>
-    <row r="953" ht="16.5" customHeight="1"/>
-    <row r="954" ht="16.5" customHeight="1"/>
-    <row r="955" ht="16.5" customHeight="1"/>
-    <row r="956" ht="16.5" customHeight="1"/>
-    <row r="957" ht="16.5" customHeight="1"/>
-    <row r="958" ht="16.5" customHeight="1"/>
-    <row r="959" ht="16.5" customHeight="1"/>
-    <row r="960" ht="16.5" customHeight="1"/>
-    <row r="961" ht="16.5" customHeight="1"/>
-    <row r="962" ht="16.5" customHeight="1"/>
-    <row r="963" ht="16.5" customHeight="1"/>
-    <row r="964" ht="16.5" customHeight="1"/>
-    <row r="965" ht="16.5" customHeight="1"/>
-    <row r="966" ht="16.5" customHeight="1"/>
-    <row r="967" ht="16.5" customHeight="1"/>
-    <row r="968" ht="16.5" customHeight="1"/>
-    <row r="969" ht="16.5" customHeight="1"/>
-    <row r="970" ht="16.5" customHeight="1"/>
-    <row r="971" ht="16.5" customHeight="1"/>
-    <row r="972" ht="16.5" customHeight="1"/>
-    <row r="973" ht="16.5" customHeight="1"/>
-    <row r="974" ht="16.5" customHeight="1"/>
-    <row r="975" ht="16.5" customHeight="1"/>
-    <row r="976" ht="16.5" customHeight="1"/>
-    <row r="977" ht="16.5" customHeight="1"/>
-    <row r="978" ht="16.5" customHeight="1"/>
-    <row r="979" ht="16.5" customHeight="1"/>
-    <row r="980" ht="16.5" customHeight="1"/>
-    <row r="981" ht="16.5" customHeight="1"/>
-    <row r="982" ht="16.5" customHeight="1"/>
-    <row r="983" ht="16.5" customHeight="1"/>
-    <row r="984" ht="16.5" customHeight="1"/>
-    <row r="985" ht="16.5" customHeight="1"/>
-    <row r="986" ht="16.5" customHeight="1"/>
-    <row r="987" ht="16.5" customHeight="1"/>
-    <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-    <row r="991" ht="16.5" customHeight="1"/>
-    <row r="992" ht="16.5" customHeight="1"/>
-    <row r="993" ht="16.5" customHeight="1"/>
-    <row r="994" ht="16.5" customHeight="1"/>
-    <row r="995" ht="16.5" customHeight="1"/>
-    <row r="996" ht="16.5" customHeight="1"/>
-    <row r="997" ht="16.5" customHeight="1"/>
-    <row r="998" ht="16.5" customHeight="1"/>
-    <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Stage1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628ACFD1-02AC-0E44-9CA2-E937EA1FB414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41140A4F-CA2C-468C-BE8E-89319DBA0CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -504,28 +504,1099 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>======
+          <t xml:space="preserve">======
 ID#AAAAzYE8D0M
-서 의수    (2023-06-16 00:08:24)
-이미 사용하고 있는 구분자
-:, ()
-- 아이템 획득, 수거 (모든 타입에서 가능. 단, 일부 (Random 혹은 Choice 관련 안됨.))
-v0 : v1 (여러개 가능 - ex) Bag:Add, Cap:Add)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>의수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">    (2023-06-16 00:08:24)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>이미</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>사용하고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">구분자
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">:, ()
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>수거</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>모든</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>타입에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>단</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>일부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (Random </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>혹은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> Choice </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>관련</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>안됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>.))
+v0 : v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>여러개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
 v0 - Item name
 v1 - Add, Remove
 - 1 (Script)
-0: 스킵 불가능
-1(value) : {$value}배속
-- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
-v0, v1 (순서 무관)
+0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>스킵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">불가능
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>1(value) : {$value}</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">배속
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>등장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (Script, ImmediatelyExecute</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>)
+v0, v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>순서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">)
 v0 - Left, Right
 v1 - Appear, Active, Inactive, Disappear
-- 컷씬
-v0, v1, v2, v3 (순서 무관)
-v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
-v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">컷씬
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>v0, v1, v2, v3 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>순서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>)
+v0 - Hold, None (Default - None)   (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>대소문자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>)
+v1 - value : {$value}</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>이후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>스킵이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>가능해진다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>없으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">(number)
+v2 - true, false </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>다음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> Index</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> Auto </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>여부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (Default - false)  (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>대소문자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">)
+v3 - name=value (Resources/Timeline/{$value}) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>폴더에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>불러옴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>없으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>직접</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>넣는다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>. (string)</t>
         </r>
       </text>
     </comment>
@@ -1511,9 +2582,6 @@
     <t>(채널을 변경한다.)</t>
   </si>
   <si>
-    <t>2,0,2,0</t>
-  </si>
-  <si>
     <t>&lt;시스템&gt;</t>
   </si>
   <si>
@@ -1550,9 +2618,6 @@
   </si>
   <si>
     <t>(채널을 변경하지 않는다.)</t>
-  </si>
-  <si>
-    <t>1,0,0,3</t>
   </si>
   <si>
     <r>
@@ -1698,9 +2763,6 @@
     <t>(아들 방으로 간다.)</t>
   </si>
   <si>
-    <t>0,1,0,2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1745,9 +2807,6 @@
   </si>
   <si>
     <t>(비상 전원부터 확인한다.)</t>
-  </si>
-  <si>
-    <t>2,0,0,1</t>
   </si>
   <si>
     <r>
@@ -1971,12 +3030,28 @@
     <t>Reset</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Tendency-변덕</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tendency-완고</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tendency-다정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tendency-이성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,6 +3114,14 @@
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2368,9 +3451,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -3448,19 +4531,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -3533,7 +4616,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -3542,15 +4625,15 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -4577,19 +5660,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4659,10 +5742,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4676,10 +5759,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -4687,10 +5770,10 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -5708,19 +6791,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="72.5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="59.6640625" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -5870,15 +6953,15 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -5890,7 +6973,7 @@
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -5898,15 +6981,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -5930,7 +7013,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -5944,7 +7027,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -5956,7 +7039,7 @@
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5">
         <v>6</v>
@@ -5964,13 +7047,13 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5">
         <v>6</v>
@@ -5978,13 +7061,13 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5">
         <v>6</v>
@@ -5992,13 +7075,13 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5">
         <v>6</v>
@@ -6006,7 +7089,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
@@ -6014,7 +7097,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -6032,7 +7115,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -6046,7 +7129,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -6070,7 +7153,7 @@
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5">
         <v>7</v>
@@ -6082,7 +7165,7 @@
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="8">
         <v>6</v>
@@ -6090,13 +7173,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C27" s="8">
         <v>8</v>
@@ -6108,7 +7191,7 @@
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="8">
         <v>6</v>
@@ -6116,7 +7199,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
@@ -6124,7 +7207,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -6139,10 +7222,10 @@
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -6156,7 +7239,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -6170,7 +7253,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -6194,7 +7277,7 @@
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="8">
         <v>7</v>
@@ -6206,7 +7289,7 @@
     <row r="35" spans="1:6" ht="16.5" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="10">
         <v>6</v>
@@ -6214,7 +7297,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1">
@@ -6222,7 +7305,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" s="10">
         <v>1</v>
@@ -6238,7 +7321,7 @@
     <row r="37" spans="1:6" ht="16.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="10">
         <v>6</v>
@@ -6246,7 +7329,7 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1">
@@ -6254,7 +7337,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="10">
         <v>1</v>
@@ -6266,7 +7349,7 @@
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="10">
         <v>6</v>
@@ -6274,7 +7357,7 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
@@ -6282,7 +7365,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="10">
         <v>1</v>
@@ -6296,7 +7379,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" s="10">
         <v>1</v>
@@ -6307,10 +7390,10 @@
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1">
       <c r="A42" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
@@ -6320,15 +7403,15 @@
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -6340,7 +7423,7 @@
     <row r="44" spans="1:6" ht="16.5" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
@@ -6348,15 +7431,15 @@
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C45" s="10">
         <v>1</v>
@@ -6368,7 +7451,7 @@
     <row r="46" spans="1:6" ht="16.5" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C46" s="10">
         <v>2</v>
@@ -6376,15 +7459,15 @@
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C47" s="10">
         <v>1</v>
@@ -6418,7 +7501,7 @@
     <row r="50" spans="1:6" ht="16.5" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C50" s="10">
         <v>6</v>
@@ -6426,15 +7509,15 @@
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1">
       <c r="A51" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C51" s="10">
         <v>1</v>
@@ -6462,7 +7545,7 @@
     <row r="53" spans="1:6" ht="16.5" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C53" s="10">
         <v>6</v>
@@ -6470,15 +7553,15 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C54" s="10">
         <v>1</v>
@@ -6489,10 +7572,10 @@
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C55" s="10">
         <v>1</v>
@@ -6504,7 +7587,7 @@
     <row r="56" spans="1:6" ht="16.5" customHeight="1">
       <c r="A56" s="10"/>
       <c r="B56" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C56" s="10">
         <v>6</v>
@@ -7486,23 +8569,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="78.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -7567,10 +8650,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -7598,7 +8681,7 @@
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="10">
         <v>7</v>
@@ -7610,7 +8693,7 @@
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="8">
         <v>6</v>
@@ -7618,15 +8701,15 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
@@ -7648,13 +8731,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C11" s="8">
         <v>6</v>
@@ -7662,13 +8745,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="8">
         <v>6</v>
@@ -7676,15 +8759,15 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
@@ -7699,10 +8782,10 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -7713,10 +8796,10 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -7734,13 +8817,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C17" s="8">
         <v>8</v>
@@ -7752,7 +8835,7 @@
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C18" s="8">
         <v>6</v>
@@ -7760,13 +8843,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C19" s="8">
         <v>6</v>
@@ -7774,15 +8857,15 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
@@ -7796,7 +8879,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -7806,15 +8889,15 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -7840,7 +8923,7 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C24" s="8">
         <v>7</v>
@@ -7851,10 +8934,10 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -7872,7 +8955,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -7882,7 +8965,7 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
@@ -7900,7 +8983,7 @@
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C28" s="5">
         <v>6</v>
@@ -7908,15 +8991,15 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -7927,10 +9010,10 @@
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -7941,10 +9024,10 @@
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -7956,7 +9039,7 @@
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C32" s="5">
         <v>11</v>
@@ -7964,7 +9047,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
@@ -7980,7 +9063,7 @@
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C34" s="5">
         <v>4</v>
@@ -8972,16 +10055,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -9049,7 +10132,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -10079,19 +11162,19 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -10164,7 +11247,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -10181,7 +11264,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -10194,23 +11277,23 @@
         <v>11</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -10219,13 +11302,13 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -10233,7 +11316,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -11257,19 +12340,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -11342,7 +12425,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -12370,19 +13453,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -12455,7 +13538,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -13483,19 +14566,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -13565,10 +14648,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -13582,10 +14665,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -14606,19 +15689,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -14688,10 +15771,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14705,10 +15788,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41140A4F-CA2C-468C-BE8E-89319DBA0CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12719D41-2152-4C9B-B627-8D1634DB13A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -2492,7 +2492,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="142">
   <si>
     <t>파일명</t>
   </si>
@@ -2844,9 +2844,6 @@
     <t>(스테이지 필드) : 사진사가 도착한다. (대화 스크립트에 사진사 스탠딩이 등장한다.)</t>
   </si>
   <si>
-    <t xml:space="preserve"> -1, name=Stage 1/1 Small Room/Main/#3-1 사진사 도착</t>
-  </si>
-  <si>
     <t>토미! 괜찮니?</t>
   </si>
   <si>
@@ -2908,9 +2905,6 @@
   </si>
   <si>
     <t>(스테이지 필드) : 손전등이 클로즈업 된 그림이 사라진다.</t>
-  </si>
-  <si>
-    <t>0.1, name=Stage 1/1 Small Room/Main/#5-2 Remove Flashlight</t>
   </si>
   <si>
     <t>(좋아. 이거라면···.)</t>
@@ -3046,6 +3040,25 @@
     <t>Tendency-이성</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>가방을 어디다가 뒀더라···?</t>
+  </si>
+  <si>
+    <t>Left, Appear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1, name=Stage 1/1 Small Room/Main/#5-2 Remove Flashlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, name=Stage 1/1 Small Room/Main/#5-3 Replace Interaction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, -1, name=Stage 1/1 Small Room/Main/#3-1 사진사 도착</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3156,7 +3169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3179,11 +3192,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3228,6 +3308,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4543,7 +4638,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4616,7 +4711,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4633,7 +4728,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -5672,7 +5767,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5745,7 +5840,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -5762,7 +5857,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -5773,7 +5868,7 @@
         <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6789,10 +6884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6953,7 +7048,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
@@ -6981,7 +7076,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
@@ -7179,7 +7274,7 @@
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="8">
         <v>8</v>
@@ -7252,7 +7347,7 @@
       <c r="A32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="8">
@@ -7263,123 +7358,121 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8">
-        <v>11</v>
-      </c>
+      <c r="A33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="16"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="B34" s="18"/>
       <c r="C34" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="10">
-        <v>6</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="8">
+        <v>7</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="10">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
-        <v>59</v>
+      <c r="A37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C37" s="10">
-        <v>6</v>
-      </c>
-      <c r="D37" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
+        <v>7</v>
+      </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>61</v>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C38" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
-        <v>62</v>
+      <c r="A39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C39" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>64</v>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C40" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="10">
         <v>1</v>
@@ -7390,97 +7483,101 @@
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1">
       <c r="A42" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
       </c>
-      <c r="D42" s="10">
-        <v>4</v>
-      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1">
       <c r="A43" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="10">
+        <v>4</v>
+      </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11" t="s">
-        <v>69</v>
+      <c r="A44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A45" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="A45" s="10"/>
       <c r="B45" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B46" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="10" t="s">
-        <v>138</v>
-      </c>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A47" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="C48" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -7490,92 +7587,88 @@
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
-      <c r="F49" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1">
       <c r="A50" s="10"/>
-      <c r="B50" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="B50" s="11"/>
       <c r="C50" s="10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A51" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="A51" s="10"/>
       <c r="B51" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" s="10">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="C52" s="10">
-        <v>11</v>
-      </c>
-      <c r="D52" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="10">
+        <v>4</v>
+      </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1">
       <c r="A53" s="10"/>
-      <c r="B53" s="11" t="s">
-        <v>76</v>
-      </c>
+      <c r="B53" s="11"/>
       <c r="C53" s="10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A54" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>78</v>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C54" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="F54" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1">
       <c r="A55" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="10">
         <v>1</v>
@@ -7585,45 +7678,58 @@
       <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11" t="s">
-        <v>41</v>
+      <c r="A56" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C56" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
-      <c r="F56" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B57" s="12"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="10">
+        <v>6</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="58" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="58" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B58" s="12"/>
+    </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="60" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B60" s="12"/>
-    </row>
+    <row r="60" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="61" spans="1:6" ht="16.5" customHeight="1">
       <c r="B61" s="12"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" customHeight="1">
       <c r="B62" s="12"/>
     </row>
-    <row r="63" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="63" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B63" s="12"/>
+    </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="65" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B65" s="12"/>
-    </row>
+    <row r="65" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="66" spans="2:2" ht="16.5" customHeight="1">
       <c r="B66" s="12"/>
     </row>
     <row r="67" spans="2:2" ht="16.5" customHeight="1">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="68" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B68" s="12"/>
+    </row>
     <row r="69" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="70" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="71" spans="2:2" ht="16.5" customHeight="1"/>
@@ -8557,6 +8663,7 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
     <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8567,10 +8674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1003"/>
+  <dimension ref="A1:F1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8585,7 +8692,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -8653,7 +8760,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -8681,7 +8788,7 @@
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="10">
         <v>7</v>
@@ -8693,7 +8800,7 @@
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8">
         <v>6</v>
@@ -8701,7 +8808,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -8709,7 +8816,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
@@ -8731,13 +8838,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="8">
         <v>6</v>
@@ -8745,13 +8852,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="8">
         <v>6</v>
@@ -8759,7 +8866,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
@@ -8767,7 +8874,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
@@ -8785,7 +8892,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -8799,7 +8906,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -8817,39 +8924,39 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C17" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C18" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="8">
         <v>6</v>
@@ -8857,7 +8964,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
@@ -8865,21 +8972,25 @@
         <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8">
+        <v>4</v>
+      </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -8897,7 +9008,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -8922,98 +9033,96 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="8">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="C27" s="5">
-        <v>11</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C29" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -9027,7 +9136,7 @@
         <v>51</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -9037,42 +9146,55 @@
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
-        <v>108</v>
+      <c r="A32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C32" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="C33" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="37" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="38" spans="1:6" ht="16.5" customHeight="1"/>
@@ -10041,6 +10163,7 @@
     <row r="1001" ht="16.5" customHeight="1"/>
     <row r="1002" ht="16.5" customHeight="1"/>
     <row r="1003" ht="16.5" customHeight="1"/>
+    <row r="1004" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10064,7 +10187,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -10132,7 +10255,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -11174,7 +11297,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -11247,7 +11370,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -11264,7 +11387,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -11277,23 +11400,23 @@
         <v>11</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -11308,7 +11431,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -12352,7 +12475,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -12425,7 +12548,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -13465,7 +13588,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -13538,7 +13661,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14578,7 +14701,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -14651,7 +14774,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14668,7 +14791,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -15701,7 +15824,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -15774,7 +15897,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -15791,7 +15914,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12719D41-2152-4C9B-B627-8D1634DB13A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E6EAE3-7EEE-436B-916F-51CB115F0E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -2492,7 +2492,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="142">
   <si>
     <t>파일명</t>
   </si>
@@ -8677,7 +8677,7 @@
   <dimension ref="A1:F1004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9175,7 +9175,9 @@
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="C34" s="5">
         <v>5</v>
       </c>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E6EAE3-7EEE-436B-916F-51CB115F0E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2064FA2C-4BBA-4DE5-8E84-EBD61DE66F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2492,7 +2492,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="144">
   <si>
     <t>파일명</t>
   </si>
@@ -3057,6 +3057,14 @@
   </si>
   <si>
     <t>Hold, -1, name=Stage 1/1 Small Room/Main/#3-1 사진사 도착</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bgm 변경</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6884,10 +6892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P1002"/>
+  <dimension ref="A1:P1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7364,7 +7372,9 @@
       <c r="B33" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="16">
+        <v>1</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -7408,85 +7418,83 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="A37" s="10"/>
       <c r="B37" s="11" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="C37" s="10">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>59</v>
+      <c r="A38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C38" s="10">
-        <v>6</v>
-      </c>
-      <c r="D38" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="10">
+        <v>7</v>
+      </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>61</v>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C39" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10" t="s">
-        <v>62</v>
+      <c r="A40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C40" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>64</v>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C41" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1">
       <c r="A42" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
@@ -7497,97 +7505,101 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
       </c>
-      <c r="D43" s="10">
-        <v>4</v>
-      </c>
+      <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1">
       <c r="A44" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44" s="10">
         <v>1</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>4</v>
+      </c>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11" t="s">
-        <v>69</v>
+      <c r="A45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C45" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A47" s="10"/>
+      <c r="A47" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B47" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A48" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="F48" s="10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="C49" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -7597,92 +7609,88 @@
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="10">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1">
       <c r="A51" s="10"/>
-      <c r="B51" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="B51" s="11"/>
       <c r="C51" s="10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A52" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="A52" s="10"/>
       <c r="B52" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="10">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="C53" s="10">
-        <v>11</v>
-      </c>
-      <c r="D53" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>4</v>
+      </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1">
       <c r="A54" s="10"/>
-      <c r="B54" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="B54" s="11"/>
       <c r="C54" s="10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A55" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>77</v>
+      <c r="A55" s="10"/>
+      <c r="B55" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C55" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="F55" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="10">
         <v>1</v>
@@ -7692,45 +7700,58 @@
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11" t="s">
-        <v>41</v>
+      <c r="A57" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C57" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B58" s="12"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="10">
+        <v>6</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="59" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B59" s="12"/>
+    </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="61" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B61" s="12"/>
-    </row>
+    <row r="61" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="62" spans="1:6" ht="16.5" customHeight="1">
       <c r="B62" s="12"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1">
       <c r="B63" s="12"/>
     </row>
-    <row r="64" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="64" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B64" s="12"/>
+    </row>
     <row r="65" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="66" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B66" s="12"/>
-    </row>
+    <row r="66" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="67" spans="2:2" ht="16.5" customHeight="1">
       <c r="B67" s="12"/>
     </row>
     <row r="68" spans="2:2" ht="16.5" customHeight="1">
       <c r="B68" s="12"/>
     </row>
-    <row r="69" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="69" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B69" s="12"/>
+    </row>
     <row r="70" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="71" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="72" spans="2:2" ht="16.5" customHeight="1"/>
@@ -8664,6 +8685,7 @@
     <row r="1000" ht="16.5" customHeight="1"/>
     <row r="1001" ht="16.5" customHeight="1"/>
     <row r="1002" ht="16.5" customHeight="1"/>
+    <row r="1003" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8676,8 +8698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8795,7 +8817,9 @@
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="8"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2064FA2C-4BBA-4DE5-8E84-EBD61DE66F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46107165-173A-4548-A674-C6A8CBEB215D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -2492,7 +2492,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="153">
   <si>
     <t>파일명</t>
   </si>
@@ -2692,9 +2692,6 @@
   </si>
   <si>
     <t>스케치북이 뜬다</t>
-  </si>
-  <si>
-    <t>Hold, 0.1, name=Stage 1/1 Small Room/Sketch/Get Sketch</t>
   </si>
   <si>
     <t>스케치북이 사라진다.</t>
@@ -2901,9 +2898,6 @@
     <t>(스테이지 필드) : 손전등이 클로즈업 된 그림이 뜬다.</t>
   </si>
   <si>
-    <t>Hold, 0.1, name=Stage 1/1 Small Room/Main/#5-1 Get Flashlight</t>
-  </si>
-  <si>
     <t>(스테이지 필드) : 손전등이 클로즈업 된 그림이 사라진다.</t>
   </si>
   <si>
@@ -3048,14 +3042,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>0.1, name=Stage 1/1 Small Room/Main/#5-2 Remove Flashlight</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, name=Stage 1/1 Small Room/Main/#5-3 Replace Interaction</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Hold, -1, name=Stage 1/1 Small Room/Main/#3-1 사진사 도착</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3065,6 +3051,57 @@
   </si>
   <si>
     <t>Pause</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Box</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Box</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Stage 1/1 Small Room/Main/#5-1 Get Box</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1, name=Stage 1/1 Small Room/Main/#5-2 Remove Box</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Stage 1/1 Small Room/Main/#5-3 Get Flashlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1, name=Stage 1/1 Small Room/Main/#5-4 Remove Flashlight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, name=Stage 1/1 Small Room/Main/#5-5 Replace Interaction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Stage 1/1 Small Room/Sketch/Get Sketch</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Stage 1/1 Small Room/Sketch/Get Sketch Game</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Stage 1/1 Small Room/Sketch/Remove Sketch Game</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/Play/Stage 1/1 SmallRoom/불길한 소리/LDj_Audio - Annoying Horror Screamer (Mp3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/UI/Dialogue/시스템 획득/Positive click button 1</t>
+  </si>
+  <si>
+    <t>path=BGM/Stage 1/1 SmallRoom/Field/정전 이후/crisis</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4646,7 +4683,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4719,7 +4756,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4728,15 +4765,15 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -5775,7 +5812,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5845,10 +5882,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -5862,10 +5899,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -5873,10 +5910,10 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6892,10 +6929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P1003"/>
+  <dimension ref="A1:P1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7056,67 +7093,67 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
+      <c r="A15" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -7126,51 +7163,47 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C18" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5">
         <v>6</v>
@@ -7178,13 +7211,13 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5">
         <v>6</v>
@@ -7192,109 +7225,111 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5">
+        <v>7</v>
+      </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="8">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>47</v>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="8">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="5">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="8">
         <v>6</v>
@@ -7302,191 +7337,187 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C30" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C31" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>54</v>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C32" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="16">
+      <c r="B33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="8">
+        <v>7</v>
+      </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="C34" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="B35" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C35" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="10">
-        <v>6</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="A36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="10">
-        <v>12</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="10">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10">
-        <v>7</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>21</v>
+      <c r="A38" s="8"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="8">
+        <v>11</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="10">
-        <v>6</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="8">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A40" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
-      <c r="B41" s="10" t="s">
-        <v>62</v>
+      <c r="B41" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="C41" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1">
@@ -7494,81 +7525,81 @@
         <v>19</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="10">
+        <v>7</v>
+      </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>65</v>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C43" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1">
       <c r="A44" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C44" s="10">
         <v>1</v>
       </c>
-      <c r="D44" s="10">
-        <v>4</v>
-      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A45" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C45" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="B46" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="10">
         <v>1</v>
@@ -7578,25 +7609,29 @@
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11" t="s">
-        <v>71</v>
+      <c r="A48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C48" s="10">
-        <v>2</v>
-      </c>
-      <c r="D48" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="10">
+        <v>4</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C49" s="10">
         <v>1</v>
@@ -7607,116 +7642,110 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1">
       <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="C50" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="F50" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A52" s="10"/>
+      <c r="A52" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B52" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C52" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
-      <c r="F52" s="10" t="s">
-        <v>141</v>
-      </c>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A53" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="A53" s="10"/>
       <c r="B53" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C53" s="10">
-        <v>1</v>
-      </c>
-      <c r="D53" s="10">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A55" s="10"/>
+      <c r="A55" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B55" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C55" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A56" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A57" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1">
       <c r="A58" s="10"/>
       <c r="B58" s="11" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C58" s="10">
         <v>6</v>
@@ -7724,40 +7753,120 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B59" s="12"/>
+      <c r="A59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="10">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10">
+        <v>4</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="60" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="61" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="60" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="10">
+        <v>11</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="10">
+        <v>6</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="62" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B62" s="12"/>
+      <c r="A62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B63" s="12"/>
+      <c r="A63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="10">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B64" s="12"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="10">
+        <v>6</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="65" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="65" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B65" s="12"/>
+    </row>
     <row r="66" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="67" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B67" s="12"/>
-    </row>
+    <row r="67" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="68" spans="2:2" ht="16.5" customHeight="1">
       <c r="B68" s="12"/>
     </row>
     <row r="69" spans="2:2" ht="16.5" customHeight="1">
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="70" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B70" s="12"/>
+    </row>
     <row r="71" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="72" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="73" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="74" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="75" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="73" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B75" s="12"/>
+    </row>
     <row r="76" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="77" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="78" spans="2:2" ht="16.5" customHeight="1"/>
@@ -8686,6 +8795,12 @@
     <row r="1001" ht="16.5" customHeight="1"/>
     <row r="1002" ht="16.5" customHeight="1"/>
     <row r="1003" ht="16.5" customHeight="1"/>
+    <row r="1004" ht="16.5" customHeight="1"/>
+    <row r="1005" ht="16.5" customHeight="1"/>
+    <row r="1006" ht="16.5" customHeight="1"/>
+    <row r="1007" ht="16.5" customHeight="1"/>
+    <row r="1008" ht="16.5" customHeight="1"/>
+    <row r="1009" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8696,10 +8811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1004"/>
+  <dimension ref="A1:F1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8714,7 +8829,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -8779,10 +8894,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -8810,7 +8925,7 @@
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="10">
         <v>7</v>
@@ -8818,13 +8933,13 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="8">
         <v>6</v>
@@ -8832,15 +8947,15 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
@@ -8862,13 +8977,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="8">
         <v>6</v>
@@ -8876,13 +8991,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="8">
         <v>6</v>
@@ -8890,15 +9005,15 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
@@ -8913,10 +9028,10 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -8927,10 +9042,10 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -8948,13 +9063,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C17" s="8">
         <v>6</v>
@@ -8962,13 +9077,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="8">
         <v>8</v>
@@ -8980,7 +9095,7 @@
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C19" s="8">
         <v>6</v>
@@ -8988,51 +9103,43 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -9041,189 +9148,234 @@
         <v>4</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="C24" s="8">
-        <v>6</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>7</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="B25" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C25" s="8">
-        <v>7</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>4</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
-        <v>4</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>21</v>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8">
+        <v>11</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
-        <v>7</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
-        <v>67</v>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
-        <v>11</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="8">
+        <v>7</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="B29" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" s="5">
-        <v>6</v>
-      </c>
-      <c r="D29" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5">
+        <v>7</v>
+      </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C32" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>106</v>
+      <c r="A33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C33" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>108</v>
+      <c r="A34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C34" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>108</v>
+      <c r="A35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C35" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="5">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="40" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="41" spans="1:6" ht="16.5" customHeight="1"/>
@@ -10190,6 +10342,9 @@
     <row r="1002" ht="16.5" customHeight="1"/>
     <row r="1003" ht="16.5" customHeight="1"/>
     <row r="1004" ht="16.5" customHeight="1"/>
+    <row r="1005" ht="16.5" customHeight="1"/>
+    <row r="1006" ht="16.5" customHeight="1"/>
+    <row r="1007" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10213,7 +10368,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -10281,7 +10436,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -11323,7 +11478,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -11396,7 +11551,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -11413,7 +11568,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -11426,23 +11581,23 @@
         <v>11</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -11457,7 +11612,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -12501,7 +12656,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -12574,7 +12729,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -13614,7 +13769,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -13687,7 +13842,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14727,7 +14882,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -14797,10 +14952,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14814,10 +14969,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -15850,7 +16005,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -15920,10 +16075,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -15937,10 +16092,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/Small Room.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project-Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46107165-173A-4548-A674-C6A8CBEB215D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965751D9-993E-4A88-800F-FA518CD4DD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -2492,7 +2492,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="153">
   <si>
     <t>파일명</t>
   </si>
@@ -2877,13 +2877,7 @@
     <t>(스테이지 필드)&gt; (컷 씬): 그림일기장으로 보이는 책에 가족 그림이 그려져 있다.</t>
   </si>
   <si>
-    <t>Hold, 0.1, name=Stage 1/1 Small Room/Main/#4-2 그림일기장</t>
-  </si>
-  <si>
     <t>(컷 씬)&gt; (스테이지 필드): 페이지 넘기는 소리 + 다음 페이지. 12월 9일 날짜만 존재한다.</t>
-  </si>
-  <si>
-    <t>Hold, -1, name=Stage 1/1 Small Room/Main/#4-6 마지막 페이지 스테이지로</t>
   </si>
   <si>
     <t>…왜 이렇게?</t>
@@ -2956,12 +2950,6 @@
   </si>
   <si>
     <t>···? 이런 것이 있었나?</t>
-  </si>
-  <si>
-    <t>0.1, name=Stage 1/1 Small Room/Bookshelf/#0-1 Diary</t>
-  </si>
-  <si>
-    <t>0.1, name=Stage 1/1 Small Room/Bookshelf/#0-5 Diary</t>
   </si>
   <si>
     <t>1-1, 1-4-2</t>
@@ -3102,6 +3090,20 @@
   </si>
   <si>
     <t>path=BGM/Stage 1/1 SmallRoom/Field/정전 이후/crisis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임</t>
+  </si>
+  <si>
+    <t>Hold, -1, name=Stage 1/1 Small Room/Bookshelf/Diary End</t>
+  </si>
+  <si>
+    <t>Hold, -1, name=Stage 1/1 Small Room/Bookshelf/Diary End</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Stage 1/1 Small Room/Bookshelf/Diary</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4683,7 +4685,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4756,7 +4758,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4773,7 +4775,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -5812,7 +5814,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5885,7 +5887,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -5902,7 +5904,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -5913,7 +5915,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6931,8 +6933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7093,7 +7095,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
@@ -7105,7 +7107,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
@@ -7133,7 +7135,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
@@ -7145,7 +7147,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
@@ -7337,13 +7339,13 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C29" s="8">
         <v>8</v>
@@ -7363,7 +7365,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
@@ -7377,7 +7379,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
@@ -7459,7 +7461,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C37" s="16">
         <v>1</v>
@@ -7509,7 +7511,7 @@
     <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="10">
         <v>12</v>
@@ -7517,7 +7519,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1">
@@ -7651,7 +7653,7 @@
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1">
@@ -7663,7 +7665,7 @@
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1">
@@ -7691,7 +7693,7 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1">
@@ -7703,7 +7705,7 @@
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1">
@@ -7753,7 +7755,7 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1">
@@ -8811,10 +8813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1007"/>
+  <dimension ref="A1:F1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8933,7 +8935,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -8977,7 +8979,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -8991,39 +8993,33 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="C12" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
@@ -9031,21 +9027,25 @@
         <v>50</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>4</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -9055,61 +9055,61 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="C16" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>130</v>
-      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C18" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C19" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C20" s="8">
         <v>6</v>
@@ -9117,13 +9117,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="8">
         <v>6</v>
@@ -9131,191 +9131,191 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="C23" s="8">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
       </c>
       <c r="D25" s="8">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
         <v>4</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
-        <v>4</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="8">
+        <v>7</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="C31" s="5">
-        <v>11</v>
-      </c>
-      <c r="D31" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>7</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C33" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -9329,7 +9329,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -9339,44 +9339,57 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
-        <v>104</v>
+      <c r="A36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C36" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C37" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C38" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="41" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="42" spans="1:6" ht="16.5" customHeight="1"/>
@@ -10345,11 +10358,12 @@
     <row r="1005" ht="16.5" customHeight="1"/>
     <row r="1006" ht="16.5" customHeight="1"/>
     <row r="1007" ht="16.5" customHeight="1"/>
+    <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10368,7 +10382,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -10436,7 +10450,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -11462,8 +11476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11478,7 +11492,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -11551,7 +11565,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -11568,7 +11582,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -11581,7 +11595,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -11592,12 +11606,12 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -11612,7 +11626,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -12633,8 +12647,8 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12656,7 +12670,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -12729,7 +12743,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -13769,7 +13783,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -13842,7 +13856,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14882,7 +14896,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -14955,7 +14969,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14972,7 +14986,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -16005,7 +16019,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -16078,7 +16092,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -16095,7 +16109,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
